--- a/ai84net.xlsx
+++ b/ai84net.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.muchsel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.muchsel/Documents/Source/ai84/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910DF67C-7001-B84D-8DA7-3D3CBB27D0A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F3967B-75FE-8342-83FF-331EA4BB4149}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="460" windowWidth="40140" windowHeight="27200" xr2:uid="{F7B6694D-E61F-7A45-81C3-7DF16BE80F2B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>conv1</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>GROUP 3</t>
+  </si>
+  <si>
+    <t>mp+conv2</t>
+  </si>
+  <si>
+    <t>mp+conv3</t>
+  </si>
+  <si>
+    <t>ap+conv4</t>
   </si>
 </sst>
 </file>
@@ -898,6 +907,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -916,72 +985,12 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1591,7 +1600,7 @@
   <dimension ref="A1:EB91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DQ11" sqref="DQ11"/>
+      <selection activeCell="BV88" sqref="BV88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2126,7 +2135,7 @@
       </c>
     </row>
     <row r="3" spans="1:130" ht="17" thickBot="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="112" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="83">
@@ -2194,7 +2203,7 @@
       <c r="BH3" s="7"/>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="9"/>
-      <c r="BK3" s="110"/>
+      <c r="BK3" s="86"/>
       <c r="BL3" s="10"/>
       <c r="BM3" s="10"/>
       <c r="BN3" s="10"/>
@@ -2264,12 +2273,12 @@
       <c r="DZ3" s="11"/>
     </row>
     <row r="4" spans="1:130">
-      <c r="A4" s="87"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="84">
         <f>B3+1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="111"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -2329,347 +2338,347 @@
       <c r="BH4" s="12"/>
       <c r="BI4" s="12"/>
       <c r="BJ4" s="12"/>
-      <c r="BK4" s="112"/>
-      <c r="BL4" s="112"/>
-      <c r="BM4" s="112"/>
-      <c r="BN4" s="112"/>
-      <c r="BO4" s="112"/>
-      <c r="BP4" s="112"/>
-      <c r="BQ4" s="112"/>
-      <c r="BR4" s="112"/>
-      <c r="BS4" s="112"/>
-      <c r="BT4" s="112"/>
-      <c r="BU4" s="112"/>
-      <c r="BV4" s="112"/>
-      <c r="BW4" s="112"/>
-      <c r="BX4" s="112"/>
-      <c r="BY4" s="112"/>
-      <c r="BZ4" s="112"/>
-      <c r="CA4" s="112"/>
-      <c r="CB4" s="112"/>
-      <c r="CC4" s="112"/>
-      <c r="CD4" s="112"/>
-      <c r="CE4" s="112"/>
-      <c r="CF4" s="112"/>
-      <c r="CG4" s="112"/>
-      <c r="CH4" s="112"/>
-      <c r="CI4" s="112"/>
-      <c r="CJ4" s="112"/>
-      <c r="CK4" s="112"/>
-      <c r="CL4" s="112"/>
-      <c r="CM4" s="112"/>
-      <c r="CN4" s="112"/>
-      <c r="CO4" s="112"/>
-      <c r="CP4" s="112"/>
-      <c r="CQ4" s="112"/>
-      <c r="CR4" s="112"/>
-      <c r="CS4" s="112"/>
-      <c r="CT4" s="112"/>
-      <c r="CU4" s="112"/>
-      <c r="CV4" s="112"/>
-      <c r="CW4" s="112"/>
-      <c r="CX4" s="112"/>
-      <c r="CY4" s="112"/>
-      <c r="CZ4" s="112"/>
-      <c r="DA4" s="112"/>
-      <c r="DB4" s="112"/>
-      <c r="DC4" s="112"/>
-      <c r="DD4" s="112"/>
-      <c r="DE4" s="112"/>
-      <c r="DF4" s="112"/>
-      <c r="DG4" s="112"/>
-      <c r="DH4" s="112"/>
-      <c r="DI4" s="112"/>
-      <c r="DJ4" s="112"/>
-      <c r="DK4" s="112"/>
-      <c r="DL4" s="112"/>
-      <c r="DM4" s="112"/>
-      <c r="DN4" s="112"/>
-      <c r="DO4" s="112"/>
-      <c r="DP4" s="112"/>
-      <c r="DQ4" s="112"/>
-      <c r="DR4" s="112"/>
-      <c r="DS4" s="112"/>
-      <c r="DT4" s="112"/>
-      <c r="DU4" s="112"/>
-      <c r="DV4" s="112"/>
-      <c r="DW4" s="112"/>
-      <c r="DX4" s="112"/>
-      <c r="DY4" s="112"/>
-      <c r="DZ4" s="113"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="88"/>
+      <c r="BM4" s="88"/>
+      <c r="BN4" s="88"/>
+      <c r="BO4" s="88"/>
+      <c r="BP4" s="88"/>
+      <c r="BQ4" s="88"/>
+      <c r="BR4" s="88"/>
+      <c r="BS4" s="88"/>
+      <c r="BT4" s="88"/>
+      <c r="BU4" s="88"/>
+      <c r="BV4" s="88"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="88"/>
+      <c r="BY4" s="88"/>
+      <c r="BZ4" s="88"/>
+      <c r="CA4" s="88"/>
+      <c r="CB4" s="88"/>
+      <c r="CC4" s="88"/>
+      <c r="CD4" s="88"/>
+      <c r="CE4" s="88"/>
+      <c r="CF4" s="88"/>
+      <c r="CG4" s="88"/>
+      <c r="CH4" s="88"/>
+      <c r="CI4" s="88"/>
+      <c r="CJ4" s="88"/>
+      <c r="CK4" s="88"/>
+      <c r="CL4" s="88"/>
+      <c r="CM4" s="88"/>
+      <c r="CN4" s="88"/>
+      <c r="CO4" s="88"/>
+      <c r="CP4" s="88"/>
+      <c r="CQ4" s="88"/>
+      <c r="CR4" s="88"/>
+      <c r="CS4" s="88"/>
+      <c r="CT4" s="88"/>
+      <c r="CU4" s="88"/>
+      <c r="CV4" s="88"/>
+      <c r="CW4" s="88"/>
+      <c r="CX4" s="88"/>
+      <c r="CY4" s="88"/>
+      <c r="CZ4" s="88"/>
+      <c r="DA4" s="88"/>
+      <c r="DB4" s="88"/>
+      <c r="DC4" s="88"/>
+      <c r="DD4" s="88"/>
+      <c r="DE4" s="88"/>
+      <c r="DF4" s="88"/>
+      <c r="DG4" s="88"/>
+      <c r="DH4" s="88"/>
+      <c r="DI4" s="88"/>
+      <c r="DJ4" s="88"/>
+      <c r="DK4" s="88"/>
+      <c r="DL4" s="88"/>
+      <c r="DM4" s="88"/>
+      <c r="DN4" s="88"/>
+      <c r="DO4" s="88"/>
+      <c r="DP4" s="88"/>
+      <c r="DQ4" s="88"/>
+      <c r="DR4" s="88"/>
+      <c r="DS4" s="88"/>
+      <c r="DT4" s="88"/>
+      <c r="DU4" s="88"/>
+      <c r="DV4" s="88"/>
+      <c r="DW4" s="88"/>
+      <c r="DX4" s="88"/>
+      <c r="DY4" s="88"/>
+      <c r="DZ4" s="89"/>
     </row>
     <row r="5" spans="1:130">
-      <c r="A5" s="87"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="84">
         <f t="shared" ref="B5:B66" si="1">B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="112"/>
-      <c r="BN5" s="112"/>
-      <c r="BO5" s="112"/>
-      <c r="BP5" s="112"/>
-      <c r="BQ5" s="112"/>
-      <c r="BR5" s="112"/>
-      <c r="BS5" s="112"/>
-      <c r="BT5" s="112"/>
-      <c r="BU5" s="112"/>
-      <c r="BV5" s="112"/>
-      <c r="BW5" s="112"/>
-      <c r="BX5" s="112"/>
-      <c r="BY5" s="112"/>
-      <c r="BZ5" s="112"/>
-      <c r="CA5" s="112"/>
-      <c r="CB5" s="112"/>
-      <c r="CC5" s="112"/>
-      <c r="CD5" s="112"/>
-      <c r="CE5" s="112"/>
-      <c r="CF5" s="112"/>
-      <c r="CG5" s="112"/>
-      <c r="CH5" s="112"/>
-      <c r="CI5" s="112"/>
-      <c r="CJ5" s="112"/>
-      <c r="CK5" s="112"/>
-      <c r="CL5" s="112"/>
-      <c r="CM5" s="112"/>
-      <c r="CN5" s="112"/>
-      <c r="CO5" s="112"/>
-      <c r="CP5" s="112"/>
-      <c r="CQ5" s="112"/>
-      <c r="CR5" s="112"/>
-      <c r="CS5" s="112"/>
-      <c r="CT5" s="112"/>
-      <c r="CU5" s="112"/>
-      <c r="CV5" s="112"/>
-      <c r="CW5" s="112"/>
-      <c r="CX5" s="112"/>
-      <c r="CY5" s="112"/>
-      <c r="CZ5" s="112"/>
-      <c r="DA5" s="112"/>
-      <c r="DB5" s="112"/>
-      <c r="DC5" s="112"/>
-      <c r="DD5" s="112"/>
-      <c r="DE5" s="112"/>
-      <c r="DF5" s="112"/>
-      <c r="DG5" s="112"/>
-      <c r="DH5" s="112"/>
-      <c r="DI5" s="112"/>
-      <c r="DJ5" s="112"/>
-      <c r="DK5" s="112"/>
-      <c r="DL5" s="112"/>
-      <c r="DM5" s="112"/>
-      <c r="DN5" s="112"/>
-      <c r="DO5" s="112"/>
-      <c r="DP5" s="112"/>
-      <c r="DQ5" s="112"/>
-      <c r="DR5" s="112"/>
-      <c r="DS5" s="112"/>
-      <c r="DT5" s="112"/>
-      <c r="DU5" s="112"/>
-      <c r="DV5" s="112"/>
-      <c r="DW5" s="112"/>
-      <c r="DX5" s="112"/>
-      <c r="DY5" s="112"/>
-      <c r="DZ5" s="113"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="88"/>
+      <c r="AU5" s="88"/>
+      <c r="AV5" s="88"/>
+      <c r="AW5" s="88"/>
+      <c r="AX5" s="88"/>
+      <c r="AY5" s="88"/>
+      <c r="AZ5" s="88"/>
+      <c r="BA5" s="88"/>
+      <c r="BB5" s="88"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="88"/>
+      <c r="BE5" s="88"/>
+      <c r="BF5" s="88"/>
+      <c r="BG5" s="88"/>
+      <c r="BH5" s="88"/>
+      <c r="BI5" s="88"/>
+      <c r="BJ5" s="88"/>
+      <c r="BK5" s="88"/>
+      <c r="BL5" s="88"/>
+      <c r="BM5" s="88"/>
+      <c r="BN5" s="88"/>
+      <c r="BO5" s="88"/>
+      <c r="BP5" s="88"/>
+      <c r="BQ5" s="88"/>
+      <c r="BR5" s="88"/>
+      <c r="BS5" s="88"/>
+      <c r="BT5" s="88"/>
+      <c r="BU5" s="88"/>
+      <c r="BV5" s="88"/>
+      <c r="BW5" s="88"/>
+      <c r="BX5" s="88"/>
+      <c r="BY5" s="88"/>
+      <c r="BZ5" s="88"/>
+      <c r="CA5" s="88"/>
+      <c r="CB5" s="88"/>
+      <c r="CC5" s="88"/>
+      <c r="CD5" s="88"/>
+      <c r="CE5" s="88"/>
+      <c r="CF5" s="88"/>
+      <c r="CG5" s="88"/>
+      <c r="CH5" s="88"/>
+      <c r="CI5" s="88"/>
+      <c r="CJ5" s="88"/>
+      <c r="CK5" s="88"/>
+      <c r="CL5" s="88"/>
+      <c r="CM5" s="88"/>
+      <c r="CN5" s="88"/>
+      <c r="CO5" s="88"/>
+      <c r="CP5" s="88"/>
+      <c r="CQ5" s="88"/>
+      <c r="CR5" s="88"/>
+      <c r="CS5" s="88"/>
+      <c r="CT5" s="88"/>
+      <c r="CU5" s="88"/>
+      <c r="CV5" s="88"/>
+      <c r="CW5" s="88"/>
+      <c r="CX5" s="88"/>
+      <c r="CY5" s="88"/>
+      <c r="CZ5" s="88"/>
+      <c r="DA5" s="88"/>
+      <c r="DB5" s="88"/>
+      <c r="DC5" s="88"/>
+      <c r="DD5" s="88"/>
+      <c r="DE5" s="88"/>
+      <c r="DF5" s="88"/>
+      <c r="DG5" s="88"/>
+      <c r="DH5" s="88"/>
+      <c r="DI5" s="88"/>
+      <c r="DJ5" s="88"/>
+      <c r="DK5" s="88"/>
+      <c r="DL5" s="88"/>
+      <c r="DM5" s="88"/>
+      <c r="DN5" s="88"/>
+      <c r="DO5" s="88"/>
+      <c r="DP5" s="88"/>
+      <c r="DQ5" s="88"/>
+      <c r="DR5" s="88"/>
+      <c r="DS5" s="88"/>
+      <c r="DT5" s="88"/>
+      <c r="DU5" s="88"/>
+      <c r="DV5" s="88"/>
+      <c r="DW5" s="88"/>
+      <c r="DX5" s="88"/>
+      <c r="DY5" s="88"/>
+      <c r="DZ5" s="89"/>
     </row>
     <row r="6" spans="1:130" ht="17" thickBot="1">
-      <c r="A6" s="87"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="84">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116"/>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116"/>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116"/>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="116"/>
-      <c r="AO6" s="116"/>
-      <c r="AP6" s="116"/>
-      <c r="AQ6" s="116"/>
-      <c r="AR6" s="116"/>
-      <c r="AS6" s="116"/>
-      <c r="AT6" s="116"/>
-      <c r="AU6" s="116"/>
-      <c r="AV6" s="116"/>
-      <c r="AW6" s="116"/>
-      <c r="AX6" s="116"/>
-      <c r="AY6" s="116"/>
-      <c r="AZ6" s="116"/>
-      <c r="BA6" s="116"/>
-      <c r="BB6" s="116"/>
-      <c r="BC6" s="116"/>
-      <c r="BD6" s="116"/>
-      <c r="BE6" s="116"/>
-      <c r="BF6" s="116"/>
-      <c r="BG6" s="116"/>
-      <c r="BH6" s="116"/>
-      <c r="BI6" s="116"/>
-      <c r="BJ6" s="116"/>
-      <c r="BK6" s="116"/>
-      <c r="BL6" s="116"/>
-      <c r="BM6" s="116"/>
-      <c r="BN6" s="116"/>
-      <c r="BO6" s="116"/>
-      <c r="BP6" s="116"/>
-      <c r="BQ6" s="116"/>
-      <c r="BR6" s="116"/>
-      <c r="BS6" s="116"/>
-      <c r="BT6" s="116"/>
-      <c r="BU6" s="116"/>
-      <c r="BV6" s="116"/>
-      <c r="BW6" s="116"/>
-      <c r="BX6" s="116"/>
-      <c r="BY6" s="116"/>
-      <c r="BZ6" s="116"/>
-      <c r="CA6" s="116"/>
-      <c r="CB6" s="116"/>
-      <c r="CC6" s="116"/>
-      <c r="CD6" s="116"/>
-      <c r="CE6" s="116"/>
-      <c r="CF6" s="116"/>
-      <c r="CG6" s="116"/>
-      <c r="CH6" s="116"/>
-      <c r="CI6" s="116"/>
-      <c r="CJ6" s="116"/>
-      <c r="CK6" s="116"/>
-      <c r="CL6" s="116"/>
-      <c r="CM6" s="116"/>
-      <c r="CN6" s="116"/>
-      <c r="CO6" s="116"/>
-      <c r="CP6" s="116"/>
-      <c r="CQ6" s="116"/>
-      <c r="CR6" s="116"/>
-      <c r="CS6" s="116"/>
-      <c r="CT6" s="116"/>
-      <c r="CU6" s="116"/>
-      <c r="CV6" s="116"/>
-      <c r="CW6" s="116"/>
-      <c r="CX6" s="116"/>
-      <c r="CY6" s="116"/>
-      <c r="CZ6" s="116"/>
-      <c r="DA6" s="116"/>
-      <c r="DB6" s="116"/>
-      <c r="DC6" s="116"/>
-      <c r="DD6" s="116"/>
-      <c r="DE6" s="116"/>
-      <c r="DF6" s="116"/>
-      <c r="DG6" s="116"/>
-      <c r="DH6" s="116"/>
-      <c r="DI6" s="116"/>
-      <c r="DJ6" s="116"/>
-      <c r="DK6" s="116"/>
-      <c r="DL6" s="116"/>
-      <c r="DM6" s="116"/>
-      <c r="DN6" s="116"/>
-      <c r="DO6" s="116"/>
-      <c r="DP6" s="116"/>
-      <c r="DQ6" s="116"/>
-      <c r="DR6" s="116"/>
-      <c r="DS6" s="116"/>
-      <c r="DT6" s="116"/>
-      <c r="DU6" s="116"/>
-      <c r="DV6" s="116"/>
-      <c r="DW6" s="116"/>
-      <c r="DX6" s="116"/>
-      <c r="DY6" s="116"/>
-      <c r="DZ6" s="117"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="92"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="92"/>
+      <c r="AQ6" s="92"/>
+      <c r="AR6" s="92"/>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="92"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="92"/>
+      <c r="BA6" s="92"/>
+      <c r="BB6" s="92"/>
+      <c r="BC6" s="92"/>
+      <c r="BD6" s="92"/>
+      <c r="BE6" s="92"/>
+      <c r="BF6" s="92"/>
+      <c r="BG6" s="92"/>
+      <c r="BH6" s="92"/>
+      <c r="BI6" s="92"/>
+      <c r="BJ6" s="92"/>
+      <c r="BK6" s="92"/>
+      <c r="BL6" s="92"/>
+      <c r="BM6" s="92"/>
+      <c r="BN6" s="92"/>
+      <c r="BO6" s="92"/>
+      <c r="BP6" s="92"/>
+      <c r="BQ6" s="92"/>
+      <c r="BR6" s="92"/>
+      <c r="BS6" s="92"/>
+      <c r="BT6" s="92"/>
+      <c r="BU6" s="92"/>
+      <c r="BV6" s="92"/>
+      <c r="BW6" s="92"/>
+      <c r="BX6" s="92"/>
+      <c r="BY6" s="92"/>
+      <c r="BZ6" s="92"/>
+      <c r="CA6" s="92"/>
+      <c r="CB6" s="92"/>
+      <c r="CC6" s="92"/>
+      <c r="CD6" s="92"/>
+      <c r="CE6" s="92"/>
+      <c r="CF6" s="92"/>
+      <c r="CG6" s="92"/>
+      <c r="CH6" s="92"/>
+      <c r="CI6" s="92"/>
+      <c r="CJ6" s="92"/>
+      <c r="CK6" s="92"/>
+      <c r="CL6" s="92"/>
+      <c r="CM6" s="92"/>
+      <c r="CN6" s="92"/>
+      <c r="CO6" s="92"/>
+      <c r="CP6" s="92"/>
+      <c r="CQ6" s="92"/>
+      <c r="CR6" s="92"/>
+      <c r="CS6" s="92"/>
+      <c r="CT6" s="92"/>
+      <c r="CU6" s="92"/>
+      <c r="CV6" s="92"/>
+      <c r="CW6" s="92"/>
+      <c r="CX6" s="92"/>
+      <c r="CY6" s="92"/>
+      <c r="CZ6" s="92"/>
+      <c r="DA6" s="92"/>
+      <c r="DB6" s="92"/>
+      <c r="DC6" s="92"/>
+      <c r="DD6" s="92"/>
+      <c r="DE6" s="92"/>
+      <c r="DF6" s="92"/>
+      <c r="DG6" s="92"/>
+      <c r="DH6" s="92"/>
+      <c r="DI6" s="92"/>
+      <c r="DJ6" s="92"/>
+      <c r="DK6" s="92"/>
+      <c r="DL6" s="92"/>
+      <c r="DM6" s="92"/>
+      <c r="DN6" s="92"/>
+      <c r="DO6" s="92"/>
+      <c r="DP6" s="92"/>
+      <c r="DQ6" s="92"/>
+      <c r="DR6" s="92"/>
+      <c r="DS6" s="92"/>
+      <c r="DT6" s="92"/>
+      <c r="DU6" s="92"/>
+      <c r="DV6" s="92"/>
+      <c r="DW6" s="92"/>
+      <c r="DX6" s="92"/>
+      <c r="DY6" s="92"/>
+      <c r="DZ6" s="93"/>
     </row>
     <row r="7" spans="1:130">
-      <c r="A7" s="87"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="84">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2804,7 +2813,7 @@
       <c r="DZ7" s="35"/>
     </row>
     <row r="8" spans="1:130">
-      <c r="A8" s="87"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="84">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2939,7 +2948,7 @@
       <c r="DZ8" s="38"/>
     </row>
     <row r="9" spans="1:130">
-      <c r="A9" s="87"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="84">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3009,7 +3018,7 @@
       <c r="BK9" s="20"/>
       <c r="BL9" s="21"/>
       <c r="BM9" s="24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BN9" s="21"/>
       <c r="BO9" s="21"/>
@@ -3066,7 +3075,7 @@
       <c r="DN9" s="22"/>
       <c r="DO9" s="37"/>
       <c r="DP9" s="36"/>
-      <c r="DQ9" s="119" t="s">
+      <c r="DQ9" s="94" t="s">
         <v>6</v>
       </c>
       <c r="DR9" s="36"/>
@@ -3080,7 +3089,7 @@
       <c r="DZ9" s="38"/>
     </row>
     <row r="10" spans="1:130">
-      <c r="A10" s="87"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="84">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3149,7 +3158,9 @@
       <c r="BJ10" s="19"/>
       <c r="BK10" s="20"/>
       <c r="BL10" s="21"/>
-      <c r="BM10" s="21"/>
+      <c r="BM10" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="BN10" s="21"/>
       <c r="BO10" s="21"/>
       <c r="BP10" s="21"/>
@@ -3205,7 +3216,7 @@
       <c r="DN10" s="22"/>
       <c r="DO10" s="37"/>
       <c r="DP10" s="36"/>
-      <c r="DQ10" s="119" t="s">
+      <c r="DQ10" s="94" t="s">
         <v>5</v>
       </c>
       <c r="DR10" s="36"/>
@@ -3219,7 +3230,7 @@
       <c r="DZ10" s="38"/>
     </row>
     <row r="11" spans="1:130">
-      <c r="A11" s="87"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="84">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3354,7 +3365,7 @@
       <c r="DZ11" s="38"/>
     </row>
     <row r="12" spans="1:130">
-      <c r="A12" s="87"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="84">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3489,7 +3500,7 @@
       <c r="DZ12" s="38"/>
     </row>
     <row r="13" spans="1:130">
-      <c r="A13" s="87"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="84">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3624,7 +3635,7 @@
       <c r="DZ13" s="38"/>
     </row>
     <row r="14" spans="1:130">
-      <c r="A14" s="87"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="84">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3759,7 +3770,7 @@
       <c r="DZ14" s="38"/>
     </row>
     <row r="15" spans="1:130">
-      <c r="A15" s="87"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="84">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3894,7 +3905,7 @@
       <c r="DZ15" s="38"/>
     </row>
     <row r="16" spans="1:130">
-      <c r="A16" s="87"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="84">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4029,7 +4040,7 @@
       <c r="DZ16" s="38"/>
     </row>
     <row r="17" spans="1:130">
-      <c r="A17" s="87"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="84">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4164,7 +4175,7 @@
       <c r="DZ17" s="38"/>
     </row>
     <row r="18" spans="1:130" ht="17" thickBot="1">
-      <c r="A18" s="88"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="85">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4299,7 +4310,7 @@
       <c r="DZ18" s="38"/>
     </row>
     <row r="19" spans="1:130">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="115" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="83">
@@ -4436,7 +4447,7 @@
       <c r="DZ19" s="38"/>
     </row>
     <row r="20" spans="1:130">
-      <c r="A20" s="90"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="84">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -4571,7 +4582,7 @@
       <c r="DZ20" s="38"/>
     </row>
     <row r="21" spans="1:130">
-      <c r="A21" s="90"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="84">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -4706,7 +4717,7 @@
       <c r="DZ21" s="38"/>
     </row>
     <row r="22" spans="1:130">
-      <c r="A22" s="90"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="84">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -4841,7 +4852,7 @@
       <c r="DZ22" s="38"/>
     </row>
     <row r="23" spans="1:130">
-      <c r="A23" s="90"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="84">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4976,7 +4987,7 @@
       <c r="DZ23" s="38"/>
     </row>
     <row r="24" spans="1:130">
-      <c r="A24" s="90"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="84">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -5111,7 +5122,7 @@
       <c r="DZ24" s="38"/>
     </row>
     <row r="25" spans="1:130">
-      <c r="A25" s="90"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="84">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -5246,7 +5257,7 @@
       <c r="DZ25" s="38"/>
     </row>
     <row r="26" spans="1:130">
-      <c r="A26" s="90"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="84">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -5381,7 +5392,7 @@
       <c r="DZ26" s="38"/>
     </row>
     <row r="27" spans="1:130">
-      <c r="A27" s="90"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="84">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -5516,7 +5527,7 @@
       <c r="DZ27" s="38"/>
     </row>
     <row r="28" spans="1:130">
-      <c r="A28" s="90"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="84">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -5651,7 +5662,7 @@
       <c r="DZ28" s="38"/>
     </row>
     <row r="29" spans="1:130">
-      <c r="A29" s="90"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="84">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -5786,7 +5797,7 @@
       <c r="DZ29" s="38"/>
     </row>
     <row r="30" spans="1:130">
-      <c r="A30" s="90"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="84">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -5921,7 +5932,7 @@
       <c r="DZ30" s="38"/>
     </row>
     <row r="31" spans="1:130">
-      <c r="A31" s="90"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="84">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -6056,7 +6067,7 @@
       <c r="DZ31" s="38"/>
     </row>
     <row r="32" spans="1:130">
-      <c r="A32" s="90"/>
+      <c r="A32" s="116"/>
       <c r="B32" s="84">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -6191,7 +6202,7 @@
       <c r="DZ32" s="38"/>
     </row>
     <row r="33" spans="1:132">
-      <c r="A33" s="90"/>
+      <c r="A33" s="116"/>
       <c r="B33" s="84">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -6326,7 +6337,7 @@
       <c r="DZ33" s="38"/>
     </row>
     <row r="34" spans="1:132" ht="17" customHeight="1" thickBot="1">
-      <c r="A34" s="91"/>
+      <c r="A34" s="117"/>
       <c r="B34" s="85">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -6459,12 +6470,12 @@
       <c r="DX34" s="37"/>
       <c r="DY34" s="37"/>
       <c r="DZ34" s="38"/>
-      <c r="EB34" s="118" t="s">
+      <c r="EB34" s="96" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:132" ht="17" customHeight="1">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="112" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="83">
@@ -6599,10 +6610,10 @@
       <c r="DX35" s="37"/>
       <c r="DY35" s="37"/>
       <c r="DZ35" s="38"/>
-      <c r="EB35" s="118"/>
+      <c r="EB35" s="96"/>
     </row>
     <row r="36" spans="1:132">
-      <c r="A36" s="87"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="84">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -6737,7 +6748,7 @@
       <c r="DZ36" s="38"/>
     </row>
     <row r="37" spans="1:132">
-      <c r="A37" s="87"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="84">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -6872,7 +6883,7 @@
       <c r="DZ37" s="38"/>
     </row>
     <row r="38" spans="1:132">
-      <c r="A38" s="87"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="84">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7007,7 +7018,7 @@
       <c r="DZ38" s="38"/>
     </row>
     <row r="39" spans="1:132">
-      <c r="A39" s="87"/>
+      <c r="A39" s="113"/>
       <c r="B39" s="84">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7142,7 +7153,7 @@
       <c r="DZ39" s="38"/>
     </row>
     <row r="40" spans="1:132">
-      <c r="A40" s="87"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="84">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7277,7 +7288,7 @@
       <c r="DZ40" s="38"/>
     </row>
     <row r="41" spans="1:132">
-      <c r="A41" s="87"/>
+      <c r="A41" s="113"/>
       <c r="B41" s="84">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7412,7 +7423,7 @@
       <c r="DZ41" s="38"/>
     </row>
     <row r="42" spans="1:132">
-      <c r="A42" s="87"/>
+      <c r="A42" s="113"/>
       <c r="B42" s="84">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7547,7 +7558,7 @@
       <c r="DZ42" s="38"/>
     </row>
     <row r="43" spans="1:132">
-      <c r="A43" s="87"/>
+      <c r="A43" s="113"/>
       <c r="B43" s="84">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7682,7 +7693,7 @@
       <c r="DZ43" s="38"/>
     </row>
     <row r="44" spans="1:132">
-      <c r="A44" s="87"/>
+      <c r="A44" s="113"/>
       <c r="B44" s="84">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7817,7 +7828,7 @@
       <c r="DZ44" s="38"/>
     </row>
     <row r="45" spans="1:132">
-      <c r="A45" s="87"/>
+      <c r="A45" s="113"/>
       <c r="B45" s="84">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7952,7 +7963,7 @@
       <c r="DZ45" s="38"/>
     </row>
     <row r="46" spans="1:132">
-      <c r="A46" s="87"/>
+      <c r="A46" s="113"/>
       <c r="B46" s="84">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8087,7 +8098,7 @@
       <c r="DZ46" s="38"/>
     </row>
     <row r="47" spans="1:132">
-      <c r="A47" s="87"/>
+      <c r="A47" s="113"/>
       <c r="B47" s="84">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -8222,7 +8233,7 @@
       <c r="DZ47" s="38"/>
     </row>
     <row r="48" spans="1:132">
-      <c r="A48" s="87"/>
+      <c r="A48" s="113"/>
       <c r="B48" s="84">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8357,7 +8368,7 @@
       <c r="DZ48" s="38"/>
     </row>
     <row r="49" spans="1:130">
-      <c r="A49" s="87"/>
+      <c r="A49" s="113"/>
       <c r="B49" s="84">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8492,7 +8503,7 @@
       <c r="DZ49" s="38"/>
     </row>
     <row r="50" spans="1:130" ht="17" thickBot="1">
-      <c r="A50" s="88"/>
+      <c r="A50" s="114"/>
       <c r="B50" s="85">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -8627,7 +8638,7 @@
       <c r="DZ50" s="38"/>
     </row>
     <row r="51" spans="1:130">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="115" t="s">
         <v>36</v>
       </c>
       <c r="B51" s="83">
@@ -8764,7 +8775,7 @@
       <c r="DZ51" s="38"/>
     </row>
     <row r="52" spans="1:130">
-      <c r="A52" s="90"/>
+      <c r="A52" s="116"/>
       <c r="B52" s="84">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -8899,7 +8910,7 @@
       <c r="DZ52" s="38"/>
     </row>
     <row r="53" spans="1:130">
-      <c r="A53" s="90"/>
+      <c r="A53" s="116"/>
       <c r="B53" s="84">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -9034,7 +9045,7 @@
       <c r="DZ53" s="38"/>
     </row>
     <row r="54" spans="1:130">
-      <c r="A54" s="90"/>
+      <c r="A54" s="116"/>
       <c r="B54" s="84">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -9169,7 +9180,7 @@
       <c r="DZ54" s="38"/>
     </row>
     <row r="55" spans="1:130">
-      <c r="A55" s="90"/>
+      <c r="A55" s="116"/>
       <c r="B55" s="84">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -9304,7 +9315,7 @@
       <c r="DZ55" s="38"/>
     </row>
     <row r="56" spans="1:130">
-      <c r="A56" s="90"/>
+      <c r="A56" s="116"/>
       <c r="B56" s="84">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -9439,7 +9450,7 @@
       <c r="DZ56" s="38"/>
     </row>
     <row r="57" spans="1:130">
-      <c r="A57" s="90"/>
+      <c r="A57" s="116"/>
       <c r="B57" s="84">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -9574,7 +9585,7 @@
       <c r="DZ57" s="38"/>
     </row>
     <row r="58" spans="1:130">
-      <c r="A58" s="90"/>
+      <c r="A58" s="116"/>
       <c r="B58" s="84">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -9709,7 +9720,7 @@
       <c r="DZ58" s="38"/>
     </row>
     <row r="59" spans="1:130">
-      <c r="A59" s="90"/>
+      <c r="A59" s="116"/>
       <c r="B59" s="84">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -9844,7 +9855,7 @@
       <c r="DZ59" s="38"/>
     </row>
     <row r="60" spans="1:130">
-      <c r="A60" s="90"/>
+      <c r="A60" s="116"/>
       <c r="B60" s="84">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -9979,7 +9990,7 @@
       <c r="DZ60" s="38"/>
     </row>
     <row r="61" spans="1:130">
-      <c r="A61" s="90"/>
+      <c r="A61" s="116"/>
       <c r="B61" s="84">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -10114,7 +10125,7 @@
       <c r="DZ61" s="38"/>
     </row>
     <row r="62" spans="1:130" ht="17" thickBot="1">
-      <c r="A62" s="90"/>
+      <c r="A62" s="116"/>
       <c r="B62" s="84">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -10249,7 +10260,7 @@
       <c r="DZ62" s="43"/>
     </row>
     <row r="63" spans="1:130">
-      <c r="A63" s="90"/>
+      <c r="A63" s="116"/>
       <c r="B63" s="84">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -10384,7 +10395,7 @@
       <c r="DZ63" s="32"/>
     </row>
     <row r="64" spans="1:130">
-      <c r="A64" s="90"/>
+      <c r="A64" s="116"/>
       <c r="B64" s="84">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -10519,7 +10530,7 @@
       <c r="DZ64" s="32"/>
     </row>
     <row r="65" spans="1:130">
-      <c r="A65" s="90"/>
+      <c r="A65" s="116"/>
       <c r="B65" s="84">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -10654,7 +10665,7 @@
       <c r="DZ65" s="32"/>
     </row>
     <row r="66" spans="1:130" ht="17" thickBot="1">
-      <c r="A66" s="91"/>
+      <c r="A66" s="117"/>
       <c r="B66" s="85">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -10791,10 +10802,10 @@
     <row r="70" spans="1:130" s="55" customFormat="1" ht="24">
       <c r="B70" s="54"/>
       <c r="AE70" s="56"/>
-      <c r="AF70" s="93">
+      <c r="AF70" s="118">
         <v>60</v>
       </c>
-      <c r="AG70" s="93"/>
+      <c r="AG70" s="118"/>
       <c r="AH70" s="56"/>
       <c r="AI70" s="56"/>
       <c r="AJ70" s="56"/>
@@ -10884,10 +10895,10 @@
       <c r="DO70" s="56"/>
       <c r="DR70" s="56"/>
       <c r="DS70" s="56"/>
-      <c r="DT70" s="93" t="s">
+      <c r="DT70" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="DU70" s="93"/>
+      <c r="DU70" s="118"/>
       <c r="DV70" s="56"/>
       <c r="DW70" s="56"/>
       <c r="DX70" s="56"/>
@@ -11121,62 +11132,62 @@
       <c r="DZ72" s="51"/>
     </row>
     <row r="73" spans="1:130" ht="20">
-      <c r="C73" s="96" t="s">
+      <c r="C73" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96" t="s">
+      <c r="D73" s="104"/>
+      <c r="E73" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96" t="s">
+      <c r="F73" s="104"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="I73" s="96"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="96" t="s">
+      <c r="I73" s="104"/>
+      <c r="J73" s="104"/>
+      <c r="K73" s="104"/>
+      <c r="L73" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="M73" s="96"/>
-      <c r="N73" s="96"/>
+      <c r="M73" s="104"/>
+      <c r="N73" s="104"/>
       <c r="O73" s="46"/>
-      <c r="P73" s="96" t="s">
+      <c r="P73" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="96"/>
-      <c r="S73" s="96"/>
-      <c r="T73" s="96"/>
+      <c r="Q73" s="104"/>
+      <c r="R73" s="104"/>
+      <c r="S73" s="104"/>
+      <c r="T73" s="104"/>
       <c r="U73" s="47" t="s">
         <v>13</v>
       </c>
       <c r="V73" s="47"/>
       <c r="W73" s="47"/>
       <c r="X73" s="47"/>
-      <c r="AN73" s="96" t="s">
+      <c r="AN73" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AO73" s="96"/>
-      <c r="AP73" s="96" t="s">
+      <c r="AO73" s="104"/>
+      <c r="AP73" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="AQ73" s="96"/>
-      <c r="AR73" s="96"/>
-      <c r="AS73" s="96" t="s">
+      <c r="AQ73" s="104"/>
+      <c r="AR73" s="104"/>
+      <c r="AS73" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="AT73" s="96"/>
-      <c r="AU73" s="96"/>
-      <c r="AV73" s="96"/>
-      <c r="AW73" s="96" t="s">
+      <c r="AT73" s="104"/>
+      <c r="AU73" s="104"/>
+      <c r="AV73" s="104"/>
+      <c r="AW73" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="AX73" s="96"/>
-      <c r="AY73" s="96"/>
-      <c r="AZ73" s="96"/>
-      <c r="BA73" s="96"/>
+      <c r="AX73" s="104"/>
+      <c r="AY73" s="104"/>
+      <c r="AZ73" s="104"/>
+      <c r="BA73" s="104"/>
       <c r="BB73" s="58" t="s">
         <v>25</v>
       </c>
@@ -11184,13 +11195,13 @@
       <c r="BD73" s="58"/>
       <c r="BE73" s="58"/>
       <c r="BF73" s="47"/>
-      <c r="BG73" s="96" t="s">
+      <c r="BG73" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="BH73" s="96"/>
-      <c r="BI73" s="96"/>
-      <c r="BJ73" s="96"/>
-      <c r="BK73" s="96"/>
+      <c r="BH73" s="104"/>
+      <c r="BI73" s="104"/>
+      <c r="BJ73" s="104"/>
+      <c r="BK73" s="104"/>
       <c r="BL73" s="58" t="s">
         <v>26</v>
       </c>
@@ -11204,40 +11215,40 @@
       <c r="BT73" s="46"/>
     </row>
     <row r="74" spans="1:130" ht="20">
-      <c r="C74" s="94">
+      <c r="C74" s="111">
         <v>5</v>
       </c>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94">
+      <c r="D74" s="111"/>
+      <c r="E74" s="111">
         <v>3</v>
       </c>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="94" t="s">
+      <c r="F74" s="111"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="I74" s="94"/>
-      <c r="J74" s="94"/>
-      <c r="K74" s="94"/>
-      <c r="L74" s="95" t="s">
+      <c r="I74" s="111"/>
+      <c r="J74" s="111"/>
+      <c r="K74" s="111"/>
+      <c r="L74" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="M74" s="95"/>
-      <c r="N74" s="95"/>
-      <c r="P74" s="94">
+      <c r="M74" s="119"/>
+      <c r="N74" s="119"/>
+      <c r="P74" s="111">
         <f t="shared" ref="P74:P88" si="2">61*60+60*(68-C74)+(68-C74)*C74</f>
         <v>7755</v>
       </c>
-      <c r="Q74" s="94"/>
-      <c r="R74" s="94"/>
-      <c r="S74" s="94"/>
-      <c r="T74" s="94"/>
-      <c r="U74" s="97">
+      <c r="Q74" s="111"/>
+      <c r="R74" s="111"/>
+      <c r="S74" s="111"/>
+      <c r="T74" s="111"/>
+      <c r="U74" s="107">
         <f t="shared" ref="U74:U88" si="3">C74*FLOOR(IF(E74=3,15,16)/E74,1)^2*10</f>
         <v>1250</v>
       </c>
-      <c r="V74" s="97"/>
-      <c r="W74" s="97"/>
+      <c r="V74" s="107"/>
+      <c r="W74" s="107"/>
       <c r="X74" s="48"/>
       <c r="Z74" s="52" t="s">
         <v>16</v>
@@ -11245,58 +11256,58 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AN74" s="101">
+      <c r="AN74" s="97">
         <v>1</v>
       </c>
-      <c r="AO74" s="101"/>
-      <c r="AP74" s="101">
+      <c r="AO74" s="97"/>
+      <c r="AP74" s="97">
         <v>1</v>
       </c>
-      <c r="AQ74" s="101"/>
-      <c r="AR74" s="101"/>
-      <c r="AS74" s="101">
+      <c r="AQ74" s="97"/>
+      <c r="AR74" s="97"/>
+      <c r="AS74" s="97">
         <v>60</v>
       </c>
-      <c r="AT74" s="101"/>
-      <c r="AU74" s="101"/>
-      <c r="AV74" s="101"/>
-      <c r="AW74" s="102">
+      <c r="AT74" s="97"/>
+      <c r="AU74" s="97"/>
+      <c r="AV74" s="97"/>
+      <c r="AW74" s="99">
         <v>28</v>
       </c>
-      <c r="AX74" s="102"/>
+      <c r="AX74" s="99"/>
       <c r="AY74" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="AZ74" s="102">
+      <c r="AZ74" s="99">
         <v>28</v>
       </c>
-      <c r="BA74" s="102"/>
-      <c r="BB74" s="101">
+      <c r="BA74" s="99"/>
+      <c r="BB74" s="97">
         <f>AP74*AW74*AZ74</f>
         <v>784</v>
       </c>
-      <c r="BC74" s="101"/>
-      <c r="BD74" s="101"/>
-      <c r="BE74" s="101"/>
+      <c r="BC74" s="97"/>
+      <c r="BD74" s="97"/>
+      <c r="BE74" s="97"/>
       <c r="BF74" s="61"/>
-      <c r="BG74" s="102">
+      <c r="BG74" s="99">
         <v>30</v>
       </c>
-      <c r="BH74" s="102"/>
+      <c r="BH74" s="99"/>
       <c r="BI74" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="BJ74" s="102">
+      <c r="BJ74" s="99">
         <v>30</v>
       </c>
-      <c r="BK74" s="102"/>
-      <c r="BL74" s="101">
+      <c r="BK74" s="99"/>
+      <c r="BL74" s="97">
         <f>AS74*BG74*BJ74</f>
         <v>54000</v>
       </c>
-      <c r="BM74" s="101"/>
-      <c r="BN74" s="101"/>
-      <c r="BO74" s="101"/>
+      <c r="BM74" s="97"/>
+      <c r="BN74" s="97"/>
+      <c r="BO74" s="97"/>
       <c r="BR74" s="63" t="s">
         <v>0</v>
       </c>
@@ -11305,370 +11316,370 @@
       <c r="BU74" s="63"/>
     </row>
     <row r="75" spans="1:130" ht="20">
-      <c r="C75" s="97">
+      <c r="C75" s="107">
         <v>10</v>
       </c>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97">
+      <c r="D75" s="107"/>
+      <c r="E75" s="107">
         <v>3</v>
       </c>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="92" t="s">
+      <c r="F75" s="107"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I75" s="92"/>
-      <c r="J75" s="92"/>
-      <c r="K75" s="92"/>
-      <c r="L75" s="98" t="s">
+      <c r="I75" s="108"/>
+      <c r="J75" s="108"/>
+      <c r="K75" s="108"/>
+      <c r="L75" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="M75" s="98"/>
-      <c r="N75" s="98"/>
-      <c r="P75" s="97">
+      <c r="M75" s="106"/>
+      <c r="N75" s="106"/>
+      <c r="P75" s="107">
         <f t="shared" si="2"/>
         <v>7720</v>
       </c>
-      <c r="Q75" s="97"/>
-      <c r="R75" s="97"/>
-      <c r="S75" s="97"/>
-      <c r="T75" s="97"/>
-      <c r="U75" s="97">
+      <c r="Q75" s="107"/>
+      <c r="R75" s="107"/>
+      <c r="S75" s="107"/>
+      <c r="T75" s="107"/>
+      <c r="U75" s="107">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-      <c r="V75" s="97"/>
-      <c r="W75" s="97"/>
+      <c r="V75" s="107"/>
+      <c r="W75" s="107"/>
       <c r="X75" s="48"/>
-      <c r="AN75" s="97">
+      <c r="AN75" s="107">
         <v>2</v>
       </c>
-      <c r="AO75" s="97"/>
-      <c r="AP75" s="97">
+      <c r="AO75" s="107"/>
+      <c r="AP75" s="107">
         <v>60</v>
       </c>
-      <c r="AQ75" s="97"/>
-      <c r="AR75" s="97"/>
-      <c r="AS75" s="92">
+      <c r="AQ75" s="107"/>
+      <c r="AR75" s="107"/>
+      <c r="AS75" s="108">
         <v>60</v>
       </c>
-      <c r="AT75" s="92"/>
-      <c r="AU75" s="92"/>
-      <c r="AV75" s="92"/>
-      <c r="AW75" s="103">
+      <c r="AT75" s="108"/>
+      <c r="AU75" s="108"/>
+      <c r="AV75" s="108"/>
+      <c r="AW75" s="105">
         <v>30</v>
       </c>
-      <c r="AX75" s="103"/>
+      <c r="AX75" s="105"/>
       <c r="AY75" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="AZ75" s="103">
+      <c r="AZ75" s="105">
         <v>30</v>
       </c>
-      <c r="BA75" s="103"/>
-      <c r="BB75" s="101">
+      <c r="BA75" s="105"/>
+      <c r="BB75" s="97">
         <f>AP75*AW75*AZ75</f>
         <v>54000</v>
       </c>
-      <c r="BC75" s="101"/>
-      <c r="BD75" s="101"/>
-      <c r="BE75" s="101"/>
+      <c r="BC75" s="97"/>
+      <c r="BD75" s="97"/>
+      <c r="BE75" s="97"/>
       <c r="BF75" s="61"/>
-      <c r="BG75" s="102">
+      <c r="BG75" s="99">
         <v>15</v>
       </c>
-      <c r="BH75" s="102"/>
+      <c r="BH75" s="99"/>
       <c r="BI75" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="BJ75" s="102">
+      <c r="BJ75" s="99">
         <v>15</v>
       </c>
-      <c r="BK75" s="102"/>
-      <c r="BL75" s="101">
+      <c r="BK75" s="99"/>
+      <c r="BL75" s="97">
         <f>AS75*BG75*BJ75</f>
         <v>13500</v>
       </c>
-      <c r="BM75" s="101"/>
-      <c r="BN75" s="101"/>
-      <c r="BO75" s="101"/>
+      <c r="BM75" s="97"/>
+      <c r="BN75" s="97"/>
+      <c r="BO75" s="97"/>
       <c r="BR75" s="63" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:130" ht="20">
-      <c r="C76" s="97">
+      <c r="C76" s="107">
         <v>10</v>
       </c>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97">
+      <c r="D76" s="107"/>
+      <c r="E76" s="107">
         <v>3</v>
       </c>
-      <c r="F76" s="97"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="92" t="s">
+      <c r="F76" s="107"/>
+      <c r="G76" s="107"/>
+      <c r="H76" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="I76" s="92"/>
-      <c r="J76" s="92"/>
-      <c r="K76" s="92"/>
-      <c r="L76" s="98" t="s">
+      <c r="I76" s="108"/>
+      <c r="J76" s="108"/>
+      <c r="K76" s="108"/>
+      <c r="L76" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="M76" s="98"/>
-      <c r="N76" s="98"/>
-      <c r="P76" s="97">
+      <c r="M76" s="106"/>
+      <c r="N76" s="106"/>
+      <c r="P76" s="107">
         <f t="shared" si="2"/>
         <v>7720</v>
       </c>
-      <c r="Q76" s="97"/>
-      <c r="R76" s="97"/>
-      <c r="S76" s="97"/>
-      <c r="T76" s="97"/>
-      <c r="U76" s="97">
+      <c r="Q76" s="107"/>
+      <c r="R76" s="107"/>
+      <c r="S76" s="107"/>
+      <c r="T76" s="107"/>
+      <c r="U76" s="107">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-      <c r="V76" s="97"/>
-      <c r="W76" s="97"/>
+      <c r="V76" s="107"/>
+      <c r="W76" s="107"/>
       <c r="X76" s="48"/>
-      <c r="AN76" s="97">
+      <c r="AN76" s="107">
         <v>3</v>
       </c>
-      <c r="AO76" s="97"/>
-      <c r="AP76" s="97">
+      <c r="AO76" s="107"/>
+      <c r="AP76" s="107">
         <v>60</v>
       </c>
-      <c r="AQ76" s="97"/>
-      <c r="AR76" s="97"/>
-      <c r="AS76" s="92">
+      <c r="AQ76" s="107"/>
+      <c r="AR76" s="107"/>
+      <c r="AS76" s="108">
         <v>56</v>
       </c>
-      <c r="AT76" s="92"/>
-      <c r="AU76" s="92"/>
-      <c r="AV76" s="92"/>
-      <c r="AW76" s="103">
+      <c r="AT76" s="108"/>
+      <c r="AU76" s="108"/>
+      <c r="AV76" s="108"/>
+      <c r="AW76" s="105">
         <v>15</v>
       </c>
-      <c r="AX76" s="103"/>
+      <c r="AX76" s="105"/>
       <c r="AY76" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="AZ76" s="103">
+      <c r="AZ76" s="105">
         <v>15</v>
       </c>
-      <c r="BA76" s="103"/>
-      <c r="BB76" s="101">
+      <c r="BA76" s="105"/>
+      <c r="BB76" s="97">
         <f>AP76*AW76*AZ76</f>
         <v>13500</v>
       </c>
-      <c r="BC76" s="101"/>
-      <c r="BD76" s="101"/>
-      <c r="BE76" s="101"/>
+      <c r="BC76" s="97"/>
+      <c r="BD76" s="97"/>
+      <c r="BE76" s="97"/>
       <c r="BF76" s="61"/>
-      <c r="BG76" s="102">
+      <c r="BG76" s="99">
         <v>15</v>
       </c>
-      <c r="BH76" s="102"/>
+      <c r="BH76" s="99"/>
       <c r="BI76" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="BJ76" s="102">
+      <c r="BJ76" s="99">
         <v>15</v>
       </c>
-      <c r="BK76" s="102"/>
-      <c r="BL76" s="101">
+      <c r="BK76" s="99"/>
+      <c r="BL76" s="97">
         <f>AS76*BG76*BJ76</f>
         <v>12600</v>
       </c>
-      <c r="BM76" s="101"/>
-      <c r="BN76" s="101"/>
-      <c r="BO76" s="101"/>
+      <c r="BM76" s="97"/>
+      <c r="BN76" s="97"/>
+      <c r="BO76" s="97"/>
       <c r="BR76" s="63" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:130" ht="20">
-      <c r="C77" s="97">
+      <c r="C77" s="107">
         <v>10</v>
       </c>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97">
+      <c r="D77" s="107"/>
+      <c r="E77" s="107">
         <v>5</v>
       </c>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="92" t="s">
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I77" s="92"/>
-      <c r="J77" s="92"/>
-      <c r="K77" s="92"/>
-      <c r="L77" s="98">
+      <c r="I77" s="108"/>
+      <c r="J77" s="108"/>
+      <c r="K77" s="108"/>
+      <c r="L77" s="106">
         <v>93.2</v>
       </c>
-      <c r="M77" s="98"/>
-      <c r="N77" s="98"/>
-      <c r="P77" s="97">
+      <c r="M77" s="106"/>
+      <c r="N77" s="106"/>
+      <c r="P77" s="107">
         <f t="shared" si="2"/>
         <v>7720</v>
       </c>
-      <c r="Q77" s="97"/>
-      <c r="R77" s="97"/>
-      <c r="S77" s="97"/>
-      <c r="T77" s="97"/>
-      <c r="U77" s="97">
+      <c r="Q77" s="107"/>
+      <c r="R77" s="107"/>
+      <c r="S77" s="107"/>
+      <c r="T77" s="107"/>
+      <c r="U77" s="107">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="V77" s="97"/>
-      <c r="W77" s="97"/>
+      <c r="V77" s="107"/>
+      <c r="W77" s="107"/>
       <c r="X77" s="48"/>
-      <c r="AN77" s="97">
+      <c r="AN77" s="107">
         <v>4</v>
       </c>
-      <c r="AO77" s="97"/>
-      <c r="AP77" s="97">
+      <c r="AO77" s="107"/>
+      <c r="AP77" s="107">
         <v>56</v>
       </c>
-      <c r="AQ77" s="97"/>
-      <c r="AR77" s="97"/>
-      <c r="AS77" s="92">
+      <c r="AQ77" s="107"/>
+      <c r="AR77" s="107"/>
+      <c r="AS77" s="108">
         <v>12</v>
       </c>
-      <c r="AT77" s="92"/>
-      <c r="AU77" s="92"/>
-      <c r="AV77" s="92"/>
-      <c r="AW77" s="103">
+      <c r="AT77" s="108"/>
+      <c r="AU77" s="108"/>
+      <c r="AV77" s="108"/>
+      <c r="AW77" s="105">
         <v>15</v>
       </c>
-      <c r="AX77" s="103"/>
+      <c r="AX77" s="105"/>
       <c r="AY77" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="AZ77" s="103">
+      <c r="AZ77" s="105">
         <v>15</v>
       </c>
-      <c r="BA77" s="103"/>
-      <c r="BB77" s="101">
+      <c r="BA77" s="105"/>
+      <c r="BB77" s="97">
         <f>AP77*AW77*AZ77</f>
         <v>12600</v>
       </c>
-      <c r="BC77" s="101"/>
-      <c r="BD77" s="101"/>
-      <c r="BE77" s="101"/>
+      <c r="BC77" s="97"/>
+      <c r="BD77" s="97"/>
+      <c r="BE77" s="97"/>
       <c r="BF77" s="61"/>
-      <c r="BG77" s="102">
+      <c r="BG77" s="99">
         <v>5</v>
       </c>
-      <c r="BH77" s="102"/>
+      <c r="BH77" s="99"/>
       <c r="BI77" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="BJ77" s="102">
+      <c r="BJ77" s="99">
         <v>5</v>
       </c>
-      <c r="BK77" s="102"/>
-      <c r="BL77" s="101">
+      <c r="BK77" s="99"/>
+      <c r="BL77" s="97">
         <f>AS77*BG77*BJ77</f>
         <v>300</v>
       </c>
-      <c r="BM77" s="101"/>
-      <c r="BN77" s="101"/>
-      <c r="BO77" s="101"/>
+      <c r="BM77" s="97"/>
+      <c r="BN77" s="97"/>
+      <c r="BO77" s="97"/>
       <c r="BR77" s="63" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:130" ht="20">
-      <c r="C78" s="97">
+      <c r="C78" s="107">
         <v>12</v>
       </c>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97">
+      <c r="D78" s="107"/>
+      <c r="E78" s="107">
         <v>3</v>
       </c>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97" t="s">
+      <c r="F78" s="107"/>
+      <c r="G78" s="107"/>
+      <c r="H78" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="I78" s="97"/>
-      <c r="J78" s="97"/>
-      <c r="K78" s="97"/>
-      <c r="L78" s="98">
+      <c r="I78" s="107"/>
+      <c r="J78" s="107"/>
+      <c r="K78" s="107"/>
+      <c r="L78" s="106">
         <v>93.13</v>
       </c>
-      <c r="M78" s="98"/>
-      <c r="N78" s="98"/>
+      <c r="M78" s="106"/>
+      <c r="N78" s="106"/>
       <c r="O78" s="59"/>
-      <c r="P78" s="97">
+      <c r="P78" s="107">
         <f t="shared" si="2"/>
         <v>7692</v>
       </c>
-      <c r="Q78" s="97"/>
-      <c r="R78" s="97"/>
-      <c r="S78" s="97"/>
-      <c r="T78" s="97"/>
-      <c r="U78" s="97">
+      <c r="Q78" s="107"/>
+      <c r="R78" s="107"/>
+      <c r="S78" s="107"/>
+      <c r="T78" s="107"/>
+      <c r="U78" s="107">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="V78" s="97"/>
-      <c r="W78" s="97"/>
+      <c r="V78" s="107"/>
+      <c r="W78" s="107"/>
       <c r="X78" s="48"/>
-      <c r="AN78" s="107">
+      <c r="AN78" s="102">
         <v>5</v>
       </c>
-      <c r="AO78" s="107"/>
-      <c r="AP78" s="107">
+      <c r="AO78" s="102"/>
+      <c r="AP78" s="102">
         <v>12</v>
       </c>
-      <c r="AQ78" s="107"/>
-      <c r="AR78" s="107"/>
-      <c r="AS78" s="105">
+      <c r="AQ78" s="102"/>
+      <c r="AR78" s="102"/>
+      <c r="AS78" s="101">
         <v>10</v>
       </c>
-      <c r="AT78" s="105"/>
-      <c r="AU78" s="105"/>
-      <c r="AV78" s="105"/>
-      <c r="AW78" s="104">
+      <c r="AT78" s="101"/>
+      <c r="AU78" s="101"/>
+      <c r="AV78" s="101"/>
+      <c r="AW78" s="103">
         <v>5</v>
       </c>
-      <c r="AX78" s="104"/>
+      <c r="AX78" s="103"/>
       <c r="AY78" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AZ78" s="104">
+      <c r="AZ78" s="103">
         <v>5</v>
       </c>
-      <c r="BA78" s="104"/>
-      <c r="BB78" s="105">
+      <c r="BA78" s="103"/>
+      <c r="BB78" s="101">
         <f>AP78*AW78*AZ78</f>
         <v>300</v>
       </c>
-      <c r="BC78" s="105"/>
-      <c r="BD78" s="105"/>
-      <c r="BE78" s="105"/>
+      <c r="BC78" s="101"/>
+      <c r="BD78" s="101"/>
+      <c r="BE78" s="101"/>
       <c r="BF78" s="66"/>
-      <c r="BG78" s="106">
+      <c r="BG78" s="100">
         <v>1</v>
       </c>
-      <c r="BH78" s="106"/>
+      <c r="BH78" s="100"/>
       <c r="BI78" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="BJ78" s="106">
+      <c r="BJ78" s="100">
         <v>10</v>
       </c>
-      <c r="BK78" s="106"/>
-      <c r="BL78" s="105">
+      <c r="BK78" s="100"/>
+      <c r="BL78" s="101">
         <f>AS78*BG78*BJ78</f>
         <v>100</v>
       </c>
-      <c r="BM78" s="105"/>
-      <c r="BN78" s="105"/>
-      <c r="BO78" s="105"/>
+      <c r="BM78" s="101"/>
+      <c r="BN78" s="101"/>
+      <c r="BO78" s="101"/>
       <c r="BP78" s="68"/>
       <c r="BQ78" s="68"/>
       <c r="BR78" s="69" t="s">
@@ -11678,77 +11689,77 @@
       <c r="BT78" s="68"/>
     </row>
     <row r="79" spans="1:130" ht="21" thickBot="1">
-      <c r="C79" s="97">
+      <c r="C79" s="107">
         <v>12</v>
       </c>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97">
+      <c r="D79" s="107"/>
+      <c r="E79" s="107">
         <v>5</v>
       </c>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="92" t="s">
+      <c r="F79" s="107"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="I79" s="92"/>
-      <c r="J79" s="92"/>
-      <c r="K79" s="92"/>
-      <c r="L79" s="98">
+      <c r="I79" s="108"/>
+      <c r="J79" s="108"/>
+      <c r="K79" s="108"/>
+      <c r="L79" s="106">
         <v>93.23</v>
       </c>
-      <c r="M79" s="98"/>
-      <c r="N79" s="98"/>
-      <c r="P79" s="97">
+      <c r="M79" s="106"/>
+      <c r="N79" s="106"/>
+      <c r="P79" s="107">
         <f t="shared" si="2"/>
         <v>7692</v>
       </c>
-      <c r="Q79" s="97"/>
-      <c r="R79" s="97"/>
-      <c r="S79" s="97"/>
-      <c r="T79" s="97"/>
-      <c r="U79" s="97">
+      <c r="Q79" s="107"/>
+      <c r="R79" s="107"/>
+      <c r="S79" s="107"/>
+      <c r="T79" s="107"/>
+      <c r="U79" s="107">
         <f t="shared" si="3"/>
         <v>1080</v>
       </c>
-      <c r="V79" s="97"/>
-      <c r="W79" s="97"/>
+      <c r="V79" s="107"/>
+      <c r="W79" s="107"/>
       <c r="X79" s="48"/>
     </row>
     <row r="80" spans="1:130" ht="20">
-      <c r="C80" s="97">
+      <c r="C80" s="107">
         <v>15</v>
       </c>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97">
+      <c r="D80" s="107"/>
+      <c r="E80" s="107">
         <v>3</v>
       </c>
-      <c r="F80" s="97"/>
-      <c r="G80" s="97"/>
-      <c r="H80" s="92" t="s">
+      <c r="F80" s="107"/>
+      <c r="G80" s="107"/>
+      <c r="H80" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I80" s="92"/>
-      <c r="J80" s="92"/>
-      <c r="K80" s="92"/>
-      <c r="L80" s="98">
+      <c r="I80" s="108"/>
+      <c r="J80" s="108"/>
+      <c r="K80" s="108"/>
+      <c r="L80" s="106">
         <v>92.83</v>
       </c>
-      <c r="M80" s="98"/>
-      <c r="N80" s="98"/>
-      <c r="P80" s="97">
+      <c r="M80" s="106"/>
+      <c r="N80" s="106"/>
+      <c r="P80" s="107">
         <f t="shared" si="2"/>
         <v>7635</v>
       </c>
-      <c r="Q80" s="97"/>
-      <c r="R80" s="97"/>
-      <c r="S80" s="97"/>
-      <c r="T80" s="97"/>
-      <c r="U80" s="97">
+      <c r="Q80" s="107"/>
+      <c r="R80" s="107"/>
+      <c r="S80" s="107"/>
+      <c r="T80" s="107"/>
+      <c r="U80" s="107">
         <f t="shared" si="3"/>
         <v>3750</v>
       </c>
-      <c r="V80" s="97"/>
-      <c r="W80" s="97"/>
+      <c r="V80" s="107"/>
+      <c r="W80" s="107"/>
       <c r="X80" s="48"/>
       <c r="AL80" s="1"/>
       <c r="AM80" s="71"/>
@@ -11788,41 +11799,41 @@
       <c r="BU80" s="73"/>
     </row>
     <row r="81" spans="3:73" ht="20">
-      <c r="C81" s="97">
+      <c r="C81" s="107">
         <v>15</v>
       </c>
-      <c r="D81" s="97"/>
-      <c r="E81" s="97">
+      <c r="D81" s="107"/>
+      <c r="E81" s="107">
         <v>3</v>
       </c>
-      <c r="F81" s="97"/>
-      <c r="G81" s="97"/>
-      <c r="H81" s="97" t="s">
+      <c r="F81" s="107"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="I81" s="97"/>
-      <c r="J81" s="97"/>
-      <c r="K81" s="97"/>
-      <c r="L81" s="98">
+      <c r="I81" s="107"/>
+      <c r="J81" s="107"/>
+      <c r="K81" s="107"/>
+      <c r="L81" s="106">
         <v>93.45</v>
       </c>
-      <c r="M81" s="98"/>
-      <c r="N81" s="98"/>
+      <c r="M81" s="106"/>
+      <c r="N81" s="106"/>
       <c r="O81" s="59"/>
-      <c r="P81" s="97">
+      <c r="P81" s="107">
         <f t="shared" si="2"/>
         <v>7635</v>
       </c>
-      <c r="Q81" s="97"/>
-      <c r="R81" s="97"/>
-      <c r="S81" s="97"/>
-      <c r="T81" s="97"/>
-      <c r="U81" s="97">
+      <c r="Q81" s="107"/>
+      <c r="R81" s="107"/>
+      <c r="S81" s="107"/>
+      <c r="T81" s="107"/>
+      <c r="U81" s="107">
         <f t="shared" si="3"/>
         <v>3750</v>
       </c>
-      <c r="V81" s="97"/>
-      <c r="W81" s="97"/>
+      <c r="V81" s="107"/>
+      <c r="W81" s="107"/>
       <c r="X81" s="48"/>
       <c r="AL81" s="1"/>
       <c r="AM81" s="74"/>
@@ -11864,40 +11875,40 @@
       <c r="BU81" s="76"/>
     </row>
     <row r="82" spans="3:73" ht="20">
-      <c r="C82" s="97">
+      <c r="C82" s="107">
         <v>15</v>
       </c>
-      <c r="D82" s="97"/>
-      <c r="E82" s="97">
+      <c r="D82" s="107"/>
+      <c r="E82" s="107">
         <v>5</v>
       </c>
-      <c r="F82" s="97"/>
-      <c r="G82" s="97"/>
-      <c r="H82" s="92" t="s">
+      <c r="F82" s="107"/>
+      <c r="G82" s="107"/>
+      <c r="H82" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I82" s="92"/>
-      <c r="J82" s="92"/>
-      <c r="K82" s="92"/>
-      <c r="L82" s="98">
+      <c r="I82" s="108"/>
+      <c r="J82" s="108"/>
+      <c r="K82" s="108"/>
+      <c r="L82" s="106">
         <v>92.4</v>
       </c>
-      <c r="M82" s="98"/>
-      <c r="N82" s="98"/>
-      <c r="P82" s="97">
+      <c r="M82" s="106"/>
+      <c r="N82" s="106"/>
+      <c r="P82" s="107">
         <f t="shared" si="2"/>
         <v>7635</v>
       </c>
-      <c r="Q82" s="97"/>
-      <c r="R82" s="97"/>
-      <c r="S82" s="97"/>
-      <c r="T82" s="97"/>
-      <c r="U82" s="97">
+      <c r="Q82" s="107"/>
+      <c r="R82" s="107"/>
+      <c r="S82" s="107"/>
+      <c r="T82" s="107"/>
+      <c r="U82" s="107">
         <f t="shared" si="3"/>
         <v>1350</v>
       </c>
-      <c r="V82" s="97"/>
-      <c r="W82" s="97"/>
+      <c r="V82" s="107"/>
+      <c r="W82" s="107"/>
       <c r="X82" s="48"/>
       <c r="AL82" s="1"/>
       <c r="AM82" s="74"/>
@@ -11937,65 +11948,65 @@
       <c r="BU82" s="76"/>
     </row>
     <row r="83" spans="3:73" ht="20">
-      <c r="C83" s="92">
+      <c r="C83" s="108">
         <v>20</v>
       </c>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92">
+      <c r="D83" s="108"/>
+      <c r="E83" s="108">
         <v>3</v>
       </c>
-      <c r="F83" s="92"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="92" t="s">
+      <c r="F83" s="108"/>
+      <c r="G83" s="108"/>
+      <c r="H83" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I83" s="92"/>
-      <c r="J83" s="92"/>
-      <c r="K83" s="92"/>
-      <c r="L83" s="92">
+      <c r="I83" s="108"/>
+      <c r="J83" s="108"/>
+      <c r="K83" s="108"/>
+      <c r="L83" s="108">
         <v>93.23</v>
       </c>
-      <c r="M83" s="92"/>
-      <c r="N83" s="92"/>
-      <c r="P83" s="92">
+      <c r="M83" s="108"/>
+      <c r="N83" s="108"/>
+      <c r="P83" s="108">
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="Q83" s="92"/>
-      <c r="R83" s="92"/>
-      <c r="S83" s="92"/>
-      <c r="T83" s="92"/>
-      <c r="U83" s="97">
+      <c r="Q83" s="108"/>
+      <c r="R83" s="108"/>
+      <c r="S83" s="108"/>
+      <c r="T83" s="108"/>
+      <c r="U83" s="107">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="V83" s="97"/>
-      <c r="W83" s="97"/>
+      <c r="V83" s="107"/>
+      <c r="W83" s="107"/>
       <c r="X83" s="48"/>
       <c r="AL83" s="1"/>
       <c r="AM83" s="74"/>
-      <c r="AN83" s="96" t="s">
+      <c r="AN83" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AO83" s="96"/>
-      <c r="AP83" s="96" t="s">
+      <c r="AO83" s="104"/>
+      <c r="AP83" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="AQ83" s="96"/>
-      <c r="AR83" s="96"/>
-      <c r="AS83" s="96" t="s">
+      <c r="AQ83" s="104"/>
+      <c r="AR83" s="104"/>
+      <c r="AS83" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="AT83" s="96"/>
-      <c r="AU83" s="96"/>
-      <c r="AV83" s="96"/>
-      <c r="AW83" s="96" t="s">
+      <c r="AT83" s="104"/>
+      <c r="AU83" s="104"/>
+      <c r="AV83" s="104"/>
+      <c r="AW83" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="AX83" s="96"/>
-      <c r="AY83" s="96"/>
-      <c r="AZ83" s="96"/>
-      <c r="BA83" s="96"/>
+      <c r="AX83" s="104"/>
+      <c r="AY83" s="104"/>
+      <c r="AZ83" s="104"/>
+      <c r="BA83" s="104"/>
       <c r="BB83" s="58" t="s">
         <v>25</v>
       </c>
@@ -12003,13 +12014,13 @@
       <c r="BD83" s="58"/>
       <c r="BE83" s="58"/>
       <c r="BF83" s="47"/>
-      <c r="BG83" s="96" t="s">
+      <c r="BG83" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="BH83" s="96"/>
-      <c r="BI83" s="96"/>
-      <c r="BJ83" s="96"/>
-      <c r="BK83" s="96"/>
+      <c r="BH83" s="104"/>
+      <c r="BI83" s="104"/>
+      <c r="BJ83" s="104"/>
+      <c r="BK83" s="104"/>
       <c r="BL83" s="58" t="s">
         <v>26</v>
       </c>
@@ -12024,95 +12035,95 @@
       <c r="BU83" s="76"/>
     </row>
     <row r="84" spans="3:73" ht="20">
-      <c r="C84" s="92">
+      <c r="C84" s="108">
         <v>20</v>
       </c>
-      <c r="D84" s="92"/>
-      <c r="E84" s="92">
+      <c r="D84" s="108"/>
+      <c r="E84" s="108">
         <v>3</v>
       </c>
-      <c r="F84" s="92"/>
-      <c r="G84" s="92"/>
-      <c r="H84" s="92" t="s">
+      <c r="F84" s="108"/>
+      <c r="G84" s="108"/>
+      <c r="H84" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="I84" s="92"/>
-      <c r="J84" s="92"/>
-      <c r="K84" s="92"/>
-      <c r="L84" s="92">
+      <c r="I84" s="108"/>
+      <c r="J84" s="108"/>
+      <c r="K84" s="108"/>
+      <c r="L84" s="108">
         <v>92.73</v>
       </c>
-      <c r="M84" s="92"/>
-      <c r="N84" s="92"/>
-      <c r="P84" s="92">
+      <c r="M84" s="108"/>
+      <c r="N84" s="108"/>
+      <c r="P84" s="108">
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="Q84" s="92"/>
-      <c r="R84" s="92"/>
-      <c r="S84" s="92"/>
-      <c r="T84" s="92"/>
-      <c r="U84" s="97">
+      <c r="Q84" s="108"/>
+      <c r="R84" s="108"/>
+      <c r="S84" s="108"/>
+      <c r="T84" s="108"/>
+      <c r="U84" s="107">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="V84" s="97"/>
-      <c r="W84" s="97"/>
+      <c r="V84" s="107"/>
+      <c r="W84" s="107"/>
       <c r="X84" s="48"/>
       <c r="AL84" s="1"/>
       <c r="AM84" s="74"/>
-      <c r="AN84" s="101">
+      <c r="AN84" s="97">
         <v>1</v>
       </c>
-      <c r="AO84" s="101"/>
-      <c r="AP84" s="101">
+      <c r="AO84" s="97"/>
+      <c r="AP84" s="97">
         <v>1</v>
       </c>
-      <c r="AQ84" s="101"/>
-      <c r="AR84" s="101"/>
-      <c r="AS84" s="101">
+      <c r="AQ84" s="97"/>
+      <c r="AR84" s="97"/>
+      <c r="AS84" s="97">
         <v>60</v>
       </c>
-      <c r="AT84" s="101"/>
-      <c r="AU84" s="101"/>
-      <c r="AV84" s="101"/>
-      <c r="AW84" s="102">
+      <c r="AT84" s="97"/>
+      <c r="AU84" s="97"/>
+      <c r="AV84" s="97"/>
+      <c r="AW84" s="99">
         <v>28</v>
       </c>
-      <c r="AX84" s="102"/>
+      <c r="AX84" s="99"/>
       <c r="AY84" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="AZ84" s="102">
+      <c r="AZ84" s="99">
         <v>28</v>
       </c>
-      <c r="BA84" s="102"/>
-      <c r="BB84" s="101">
+      <c r="BA84" s="99"/>
+      <c r="BB84" s="97">
         <f>AP84*AW84*AZ84</f>
         <v>784</v>
       </c>
-      <c r="BC84" s="101"/>
-      <c r="BD84" s="101"/>
-      <c r="BE84" s="101"/>
+      <c r="BC84" s="97"/>
+      <c r="BD84" s="97"/>
+      <c r="BE84" s="97"/>
       <c r="BF84" s="77"/>
-      <c r="BG84" s="102">
+      <c r="BG84" s="99">
         <v>30</v>
       </c>
-      <c r="BH84" s="102"/>
+      <c r="BH84" s="99"/>
       <c r="BI84" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="BJ84" s="102">
+      <c r="BJ84" s="99">
         <v>30</v>
       </c>
-      <c r="BK84" s="102"/>
-      <c r="BL84" s="101">
+      <c r="BK84" s="99"/>
+      <c r="BL84" s="97">
         <f>AS84*BG84*BJ84</f>
         <v>54000</v>
       </c>
-      <c r="BM84" s="101"/>
-      <c r="BN84" s="101"/>
-      <c r="BO84" s="101"/>
+      <c r="BM84" s="97"/>
+      <c r="BN84" s="97"/>
+      <c r="BO84" s="97"/>
       <c r="BP84" s="1"/>
       <c r="BQ84" s="1"/>
       <c r="BR84" s="63" t="s">
@@ -12123,389 +12134,389 @@
       <c r="BU84" s="76"/>
     </row>
     <row r="85" spans="3:73" ht="20">
-      <c r="C85" s="97">
+      <c r="C85" s="107">
         <v>20</v>
       </c>
-      <c r="D85" s="97"/>
-      <c r="E85" s="97">
+      <c r="D85" s="107"/>
+      <c r="E85" s="107">
         <v>5</v>
       </c>
-      <c r="F85" s="97"/>
-      <c r="G85" s="97"/>
-      <c r="H85" s="92" t="s">
+      <c r="F85" s="107"/>
+      <c r="G85" s="107"/>
+      <c r="H85" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I85" s="92"/>
-      <c r="J85" s="92"/>
-      <c r="K85" s="92"/>
-      <c r="L85" s="97">
+      <c r="I85" s="108"/>
+      <c r="J85" s="108"/>
+      <c r="K85" s="108"/>
+      <c r="L85" s="107">
         <v>93.28</v>
       </c>
-      <c r="M85" s="97"/>
-      <c r="N85" s="97"/>
-      <c r="P85" s="97">
+      <c r="M85" s="107"/>
+      <c r="N85" s="107"/>
+      <c r="P85" s="107">
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="Q85" s="97"/>
-      <c r="R85" s="97"/>
-      <c r="S85" s="97"/>
-      <c r="T85" s="97"/>
-      <c r="U85" s="97">
+      <c r="Q85" s="107"/>
+      <c r="R85" s="107"/>
+      <c r="S85" s="107"/>
+      <c r="T85" s="107"/>
+      <c r="U85" s="107">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="V85" s="97"/>
-      <c r="W85" s="97"/>
+      <c r="V85" s="107"/>
+      <c r="W85" s="107"/>
       <c r="X85" s="48"/>
       <c r="AL85" s="1"/>
       <c r="AM85" s="74"/>
-      <c r="AN85" s="108">
+      <c r="AN85" s="95">
         <v>2</v>
       </c>
-      <c r="AO85" s="108"/>
-      <c r="AP85" s="108">
+      <c r="AO85" s="95"/>
+      <c r="AP85" s="95">
         <v>60</v>
       </c>
-      <c r="AQ85" s="108"/>
-      <c r="AR85" s="108"/>
-      <c r="AS85" s="101">
+      <c r="AQ85" s="95"/>
+      <c r="AR85" s="95"/>
+      <c r="AS85" s="97">
         <v>60</v>
       </c>
-      <c r="AT85" s="101"/>
-      <c r="AU85" s="101"/>
-      <c r="AV85" s="101"/>
-      <c r="AW85" s="109">
+      <c r="AT85" s="97"/>
+      <c r="AU85" s="97"/>
+      <c r="AV85" s="97"/>
+      <c r="AW85" s="98">
         <v>30</v>
       </c>
-      <c r="AX85" s="109"/>
+      <c r="AX85" s="98"/>
       <c r="AY85" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="AZ85" s="109">
+      <c r="AZ85" s="98">
         <v>30</v>
       </c>
-      <c r="BA85" s="109"/>
-      <c r="BB85" s="101">
+      <c r="BA85" s="98"/>
+      <c r="BB85" s="97">
         <f>AP85*AW85*AZ85</f>
         <v>54000</v>
       </c>
-      <c r="BC85" s="101"/>
-      <c r="BD85" s="101"/>
-      <c r="BE85" s="101"/>
+      <c r="BC85" s="97"/>
+      <c r="BD85" s="97"/>
+      <c r="BE85" s="97"/>
       <c r="BF85" s="77"/>
-      <c r="BG85" s="102">
+      <c r="BG85" s="99">
         <v>16</v>
       </c>
-      <c r="BH85" s="102"/>
+      <c r="BH85" s="99"/>
       <c r="BI85" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="BJ85" s="102">
+      <c r="BJ85" s="99">
         <v>16</v>
       </c>
-      <c r="BK85" s="102"/>
-      <c r="BL85" s="101">
+      <c r="BK85" s="99"/>
+      <c r="BL85" s="97">
         <f>AS85*BG85*BJ85</f>
         <v>15360</v>
       </c>
-      <c r="BM85" s="101"/>
-      <c r="BN85" s="101"/>
-      <c r="BO85" s="101"/>
+      <c r="BM85" s="97"/>
+      <c r="BN85" s="97"/>
+      <c r="BO85" s="97"/>
       <c r="BP85" s="1"/>
       <c r="BQ85" s="1"/>
       <c r="BR85" s="63" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="BS85" s="1"/>
       <c r="BT85" s="1"/>
       <c r="BU85" s="76"/>
     </row>
     <row r="86" spans="3:73" ht="20">
-      <c r="C86" s="92">
+      <c r="C86" s="108">
         <v>25</v>
       </c>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92">
+      <c r="D86" s="108"/>
+      <c r="E86" s="108">
         <v>5</v>
       </c>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="92" t="s">
+      <c r="F86" s="108"/>
+      <c r="G86" s="108"/>
+      <c r="H86" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I86" s="92"/>
-      <c r="J86" s="92"/>
-      <c r="K86" s="92"/>
-      <c r="L86" s="92">
+      <c r="I86" s="108"/>
+      <c r="J86" s="108"/>
+      <c r="K86" s="108"/>
+      <c r="L86" s="108">
         <v>92.43</v>
       </c>
-      <c r="M86" s="92"/>
-      <c r="N86" s="92"/>
-      <c r="P86" s="92">
+      <c r="M86" s="108"/>
+      <c r="N86" s="108"/>
+      <c r="P86" s="108">
         <f t="shared" si="2"/>
         <v>7315</v>
       </c>
-      <c r="Q86" s="92"/>
-      <c r="R86" s="92"/>
-      <c r="S86" s="92"/>
-      <c r="T86" s="92"/>
-      <c r="U86" s="97">
+      <c r="Q86" s="108"/>
+      <c r="R86" s="108"/>
+      <c r="S86" s="108"/>
+      <c r="T86" s="108"/>
+      <c r="U86" s="107">
         <f t="shared" si="3"/>
         <v>2250</v>
       </c>
-      <c r="V86" s="97"/>
-      <c r="W86" s="97"/>
+      <c r="V86" s="107"/>
+      <c r="W86" s="107"/>
       <c r="X86" s="48"/>
       <c r="AM86" s="74"/>
-      <c r="AN86" s="108">
+      <c r="AN86" s="95">
         <v>3</v>
       </c>
-      <c r="AO86" s="108"/>
-      <c r="AP86" s="108">
+      <c r="AO86" s="95"/>
+      <c r="AP86" s="95">
         <v>60</v>
       </c>
-      <c r="AQ86" s="108"/>
-      <c r="AR86" s="108"/>
-      <c r="AS86" s="101">
+      <c r="AQ86" s="95"/>
+      <c r="AR86" s="95"/>
+      <c r="AS86" s="97">
         <v>56</v>
       </c>
-      <c r="AT86" s="101"/>
-      <c r="AU86" s="101"/>
-      <c r="AV86" s="101"/>
-      <c r="AW86" s="109">
+      <c r="AT86" s="97"/>
+      <c r="AU86" s="97"/>
+      <c r="AV86" s="97"/>
+      <c r="AW86" s="98">
         <v>16</v>
       </c>
-      <c r="AX86" s="109"/>
+      <c r="AX86" s="98"/>
       <c r="AY86" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="AZ86" s="109">
+      <c r="AZ86" s="98">
         <v>16</v>
       </c>
-      <c r="BA86" s="109"/>
-      <c r="BB86" s="101">
+      <c r="BA86" s="98"/>
+      <c r="BB86" s="97">
         <f>AP86*AW86*AZ86</f>
         <v>15360</v>
       </c>
-      <c r="BC86" s="101"/>
-      <c r="BD86" s="101"/>
-      <c r="BE86" s="101"/>
+      <c r="BC86" s="97"/>
+      <c r="BD86" s="97"/>
+      <c r="BE86" s="97"/>
       <c r="BF86" s="77"/>
-      <c r="BG86" s="102">
-        <v>16</v>
-      </c>
-      <c r="BH86" s="102"/>
+      <c r="BG86" s="99">
+        <v>8</v>
+      </c>
+      <c r="BH86" s="99"/>
       <c r="BI86" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="BJ86" s="102">
-        <v>16</v>
-      </c>
-      <c r="BK86" s="102"/>
-      <c r="BL86" s="101">
+      <c r="BJ86" s="99">
+        <v>8</v>
+      </c>
+      <c r="BK86" s="99"/>
+      <c r="BL86" s="97">
         <f>AS86*BG86*BJ86</f>
-        <v>14336</v>
-      </c>
-      <c r="BM86" s="101"/>
-      <c r="BN86" s="101"/>
-      <c r="BO86" s="101"/>
+        <v>3584</v>
+      </c>
+      <c r="BM86" s="97"/>
+      <c r="BN86" s="97"/>
+      <c r="BO86" s="97"/>
       <c r="BP86" s="1"/>
       <c r="BQ86" s="1"/>
       <c r="BR86" s="63" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="BS86" s="1"/>
       <c r="BT86" s="1"/>
       <c r="BU86" s="76"/>
     </row>
     <row r="87" spans="3:73" ht="20">
-      <c r="C87" s="92">
+      <c r="C87" s="108">
         <v>30</v>
       </c>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92">
+      <c r="D87" s="108"/>
+      <c r="E87" s="108">
         <v>5</v>
       </c>
-      <c r="F87" s="92"/>
-      <c r="G87" s="92"/>
-      <c r="H87" s="92" t="s">
+      <c r="F87" s="108"/>
+      <c r="G87" s="108"/>
+      <c r="H87" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I87" s="92"/>
-      <c r="J87" s="92"/>
-      <c r="K87" s="92"/>
-      <c r="L87" s="92">
+      <c r="I87" s="108"/>
+      <c r="J87" s="108"/>
+      <c r="K87" s="108"/>
+      <c r="L87" s="108">
         <v>93.13</v>
       </c>
-      <c r="M87" s="92"/>
-      <c r="N87" s="92"/>
-      <c r="P87" s="92">
+      <c r="M87" s="108"/>
+      <c r="N87" s="108"/>
+      <c r="P87" s="108">
         <f t="shared" si="2"/>
         <v>7080</v>
       </c>
-      <c r="Q87" s="92"/>
-      <c r="R87" s="92"/>
-      <c r="S87" s="92"/>
-      <c r="T87" s="92"/>
-      <c r="U87" s="97">
+      <c r="Q87" s="108"/>
+      <c r="R87" s="108"/>
+      <c r="S87" s="108"/>
+      <c r="T87" s="108"/>
+      <c r="U87" s="107">
         <f t="shared" si="3"/>
         <v>2700</v>
       </c>
-      <c r="V87" s="97"/>
-      <c r="W87" s="97"/>
+      <c r="V87" s="107"/>
+      <c r="W87" s="107"/>
       <c r="X87" s="48"/>
       <c r="AM87" s="74"/>
-      <c r="AN87" s="108">
+      <c r="AN87" s="95">
         <v>4</v>
       </c>
-      <c r="AO87" s="108"/>
-      <c r="AP87" s="108">
+      <c r="AO87" s="95"/>
+      <c r="AP87" s="95">
         <v>56</v>
       </c>
-      <c r="AQ87" s="108"/>
-      <c r="AR87" s="108"/>
-      <c r="AS87" s="101">
+      <c r="AQ87" s="95"/>
+      <c r="AR87" s="95"/>
+      <c r="AS87" s="97">
         <v>12</v>
       </c>
-      <c r="AT87" s="101"/>
-      <c r="AU87" s="101"/>
-      <c r="AV87" s="101"/>
-      <c r="AW87" s="109">
-        <v>16</v>
-      </c>
-      <c r="AX87" s="109"/>
+      <c r="AT87" s="97"/>
+      <c r="AU87" s="97"/>
+      <c r="AV87" s="97"/>
+      <c r="AW87" s="98">
+        <v>8</v>
+      </c>
+      <c r="AX87" s="98"/>
       <c r="AY87" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="AZ87" s="109">
-        <v>16</v>
-      </c>
-      <c r="BA87" s="109"/>
-      <c r="BB87" s="101">
+      <c r="AZ87" s="98">
+        <v>8</v>
+      </c>
+      <c r="BA87" s="98"/>
+      <c r="BB87" s="97">
         <f>AP87*AW87*AZ87</f>
-        <v>14336</v>
-      </c>
-      <c r="BC87" s="101"/>
-      <c r="BD87" s="101"/>
-      <c r="BE87" s="101"/>
+        <v>3584</v>
+      </c>
+      <c r="BC87" s="97"/>
+      <c r="BD87" s="97"/>
+      <c r="BE87" s="97"/>
       <c r="BF87" s="77"/>
-      <c r="BG87" s="102">
+      <c r="BG87" s="99">
         <v>4</v>
       </c>
-      <c r="BH87" s="102"/>
+      <c r="BH87" s="99"/>
       <c r="BI87" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="BJ87" s="102">
+      <c r="BJ87" s="99">
         <v>4</v>
       </c>
-      <c r="BK87" s="102"/>
-      <c r="BL87" s="101">
+      <c r="BK87" s="99"/>
+      <c r="BL87" s="97">
         <f>AS87*BG87*BJ87</f>
         <v>192</v>
       </c>
-      <c r="BM87" s="101"/>
-      <c r="BN87" s="101"/>
-      <c r="BO87" s="101"/>
+      <c r="BM87" s="97"/>
+      <c r="BN87" s="97"/>
+      <c r="BO87" s="97"/>
       <c r="BP87" s="1"/>
       <c r="BQ87" s="1"/>
       <c r="BR87" s="63" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="BS87" s="1"/>
       <c r="BT87" s="1"/>
       <c r="BU87" s="76"/>
     </row>
     <row r="88" spans="3:73" ht="20">
-      <c r="C88" s="92">
+      <c r="C88" s="108">
         <v>34</v>
       </c>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92">
+      <c r="D88" s="108"/>
+      <c r="E88" s="108">
         <v>5</v>
       </c>
-      <c r="F88" s="92"/>
-      <c r="G88" s="92"/>
-      <c r="H88" s="92" t="s">
+      <c r="F88" s="108"/>
+      <c r="G88" s="108"/>
+      <c r="H88" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I88" s="92"/>
-      <c r="J88" s="92"/>
-      <c r="K88" s="92"/>
-      <c r="L88" s="92">
+      <c r="I88" s="108"/>
+      <c r="J88" s="108"/>
+      <c r="K88" s="108"/>
+      <c r="L88" s="108">
         <v>92.82</v>
       </c>
-      <c r="M88" s="92"/>
-      <c r="N88" s="92"/>
-      <c r="P88" s="92">
+      <c r="M88" s="108"/>
+      <c r="N88" s="108"/>
+      <c r="P88" s="108">
         <f t="shared" si="2"/>
         <v>6856</v>
       </c>
-      <c r="Q88" s="92"/>
-      <c r="R88" s="92"/>
-      <c r="S88" s="92"/>
-      <c r="T88" s="92"/>
-      <c r="U88" s="97">
+      <c r="Q88" s="108"/>
+      <c r="R88" s="108"/>
+      <c r="S88" s="108"/>
+      <c r="T88" s="108"/>
+      <c r="U88" s="107">
         <f t="shared" si="3"/>
         <v>3060</v>
       </c>
-      <c r="V88" s="97"/>
-      <c r="W88" s="97"/>
+      <c r="V88" s="107"/>
+      <c r="W88" s="107"/>
       <c r="X88" s="48"/>
       <c r="AM88" s="74"/>
-      <c r="AN88" s="107">
+      <c r="AN88" s="102">
         <v>5</v>
       </c>
-      <c r="AO88" s="107"/>
-      <c r="AP88" s="107">
+      <c r="AO88" s="102"/>
+      <c r="AP88" s="102">
         <v>12</v>
       </c>
-      <c r="AQ88" s="107"/>
-      <c r="AR88" s="107"/>
-      <c r="AS88" s="105">
+      <c r="AQ88" s="102"/>
+      <c r="AR88" s="102"/>
+      <c r="AS88" s="101">
         <v>10</v>
       </c>
-      <c r="AT88" s="105"/>
-      <c r="AU88" s="105"/>
-      <c r="AV88" s="105"/>
-      <c r="AW88" s="104">
+      <c r="AT88" s="101"/>
+      <c r="AU88" s="101"/>
+      <c r="AV88" s="101"/>
+      <c r="AW88" s="103">
         <v>4</v>
       </c>
-      <c r="AX88" s="104"/>
+      <c r="AX88" s="103"/>
       <c r="AY88" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AZ88" s="104">
+      <c r="AZ88" s="103">
         <v>4</v>
       </c>
-      <c r="BA88" s="104"/>
-      <c r="BB88" s="105">
+      <c r="BA88" s="103"/>
+      <c r="BB88" s="101">
         <f>AP88*AW88*AZ88</f>
         <v>192</v>
       </c>
-      <c r="BC88" s="105"/>
-      <c r="BD88" s="105"/>
-      <c r="BE88" s="105"/>
+      <c r="BC88" s="101"/>
+      <c r="BD88" s="101"/>
+      <c r="BE88" s="101"/>
       <c r="BF88" s="66"/>
-      <c r="BG88" s="106">
+      <c r="BG88" s="100">
         <v>1</v>
       </c>
-      <c r="BH88" s="106"/>
+      <c r="BH88" s="100"/>
       <c r="BI88" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="BJ88" s="106">
+      <c r="BJ88" s="100">
         <v>10</v>
       </c>
-      <c r="BK88" s="106"/>
-      <c r="BL88" s="105">
+      <c r="BK88" s="100"/>
+      <c r="BL88" s="101">
         <f>AS88*BG88*BJ88</f>
         <v>100</v>
       </c>
-      <c r="BM88" s="105"/>
-      <c r="BN88" s="105"/>
-      <c r="BO88" s="105"/>
+      <c r="BM88" s="101"/>
+      <c r="BN88" s="101"/>
+      <c r="BO88" s="101"/>
       <c r="BP88" s="68"/>
       <c r="BQ88" s="68"/>
       <c r="BR88" s="69" t="s">
@@ -12556,237 +12567,114 @@
       <c r="BU89" s="81"/>
     </row>
     <row r="90" spans="3:73" ht="20">
-      <c r="C90" s="99">
+      <c r="C90" s="109">
         <v>12</v>
       </c>
-      <c r="D90" s="99"/>
-      <c r="E90" s="99">
+      <c r="D90" s="109"/>
+      <c r="E90" s="109">
         <v>4</v>
       </c>
-      <c r="F90" s="99"/>
-      <c r="G90" s="99"/>
-      <c r="H90" s="99" t="s">
+      <c r="F90" s="109"/>
+      <c r="G90" s="109"/>
+      <c r="H90" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="I90" s="99"/>
-      <c r="J90" s="99"/>
-      <c r="K90" s="99"/>
-      <c r="L90" s="100">
+      <c r="I90" s="109"/>
+      <c r="J90" s="109"/>
+      <c r="K90" s="109"/>
+      <c r="L90" s="110">
         <v>93.1</v>
       </c>
-      <c r="M90" s="100"/>
-      <c r="N90" s="100"/>
+      <c r="M90" s="110"/>
+      <c r="N90" s="110"/>
       <c r="O90" s="70"/>
-      <c r="P90" s="99">
+      <c r="P90" s="109">
         <f>61*60+60*(68-C90)+(68-C90)*C90</f>
         <v>7692</v>
       </c>
-      <c r="Q90" s="99"/>
-      <c r="R90" s="99"/>
-      <c r="S90" s="99"/>
-      <c r="T90" s="99"/>
-      <c r="U90" s="99">
+      <c r="Q90" s="109"/>
+      <c r="R90" s="109"/>
+      <c r="S90" s="109"/>
+      <c r="T90" s="109"/>
+      <c r="U90" s="109">
         <f>C90*FLOOR(IF(E90=3,15,16)/E90,1)^2*10</f>
         <v>1920</v>
       </c>
-      <c r="V90" s="99"/>
-      <c r="W90" s="99"/>
+      <c r="V90" s="109"/>
+      <c r="W90" s="109"/>
     </row>
     <row r="91" spans="3:73" ht="20">
-      <c r="C91" s="99">
+      <c r="C91" s="109">
         <v>12</v>
       </c>
-      <c r="D91" s="99"/>
-      <c r="E91" s="99">
+      <c r="D91" s="109"/>
+      <c r="E91" s="109">
         <v>4</v>
       </c>
-      <c r="F91" s="99"/>
-      <c r="G91" s="99"/>
-      <c r="H91" s="99" t="s">
+      <c r="F91" s="109"/>
+      <c r="G91" s="109"/>
+      <c r="H91" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="I91" s="99"/>
-      <c r="J91" s="99"/>
-      <c r="K91" s="99"/>
-      <c r="L91" s="100">
+      <c r="I91" s="109"/>
+      <c r="J91" s="109"/>
+      <c r="K91" s="109"/>
+      <c r="L91" s="110">
         <v>93.07</v>
       </c>
-      <c r="M91" s="100"/>
-      <c r="N91" s="100"/>
+      <c r="M91" s="110"/>
+      <c r="N91" s="110"/>
       <c r="O91" s="70"/>
-      <c r="P91" s="99">
+      <c r="P91" s="109">
         <f>61*60+60*(68-C91)+(68-C91)*C91</f>
         <v>7692</v>
       </c>
-      <c r="Q91" s="99"/>
-      <c r="R91" s="99"/>
-      <c r="S91" s="99"/>
-      <c r="T91" s="99"/>
-      <c r="U91" s="99">
+      <c r="Q91" s="109"/>
+      <c r="R91" s="109"/>
+      <c r="S91" s="109"/>
+      <c r="T91" s="109"/>
+      <c r="U91" s="109">
         <f>C91*FLOOR(IF(E91=3,15,16)/E91,1)^2*10</f>
         <v>1920</v>
       </c>
-      <c r="V91" s="99"/>
-      <c r="W91" s="99"/>
+      <c r="V91" s="109"/>
+      <c r="W91" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="214">
-    <mergeCell ref="AN86:AO86"/>
-    <mergeCell ref="AP86:AR86"/>
-    <mergeCell ref="EB34:EB35"/>
-    <mergeCell ref="AN87:AO87"/>
-    <mergeCell ref="AP87:AR87"/>
-    <mergeCell ref="AS87:AV87"/>
-    <mergeCell ref="AW87:AX87"/>
-    <mergeCell ref="AZ87:BA87"/>
-    <mergeCell ref="BB87:BE87"/>
-    <mergeCell ref="BG87:BH87"/>
-    <mergeCell ref="BJ87:BK87"/>
-    <mergeCell ref="BL87:BO87"/>
-    <mergeCell ref="BG88:BH88"/>
-    <mergeCell ref="BJ88:BK88"/>
-    <mergeCell ref="BL88:BO88"/>
-    <mergeCell ref="AN88:AO88"/>
-    <mergeCell ref="AP88:AR88"/>
-    <mergeCell ref="AS88:AV88"/>
-    <mergeCell ref="AW88:AX88"/>
-    <mergeCell ref="AZ88:BA88"/>
-    <mergeCell ref="BB88:BE88"/>
-    <mergeCell ref="AS86:AV86"/>
-    <mergeCell ref="AW86:AX86"/>
-    <mergeCell ref="AZ86:BA86"/>
-    <mergeCell ref="BB86:BE86"/>
-    <mergeCell ref="BG86:BH86"/>
-    <mergeCell ref="BJ86:BK86"/>
-    <mergeCell ref="BG84:BH84"/>
-    <mergeCell ref="BJ84:BK84"/>
-    <mergeCell ref="BL84:BO84"/>
-    <mergeCell ref="BL86:BO86"/>
-    <mergeCell ref="BJ85:BK85"/>
-    <mergeCell ref="BL85:BO85"/>
-    <mergeCell ref="AN85:AO85"/>
-    <mergeCell ref="AP85:AR85"/>
-    <mergeCell ref="AS85:AV85"/>
-    <mergeCell ref="AW85:AX85"/>
-    <mergeCell ref="AZ85:BA85"/>
-    <mergeCell ref="BB85:BE85"/>
-    <mergeCell ref="BG85:BH85"/>
-    <mergeCell ref="AN84:AO84"/>
-    <mergeCell ref="AP84:AR84"/>
-    <mergeCell ref="AS84:AV84"/>
-    <mergeCell ref="AW84:AX84"/>
-    <mergeCell ref="AZ84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="AN83:AO83"/>
-    <mergeCell ref="AP83:AR83"/>
-    <mergeCell ref="AS83:AV83"/>
-    <mergeCell ref="AW83:BA83"/>
-    <mergeCell ref="BG83:BK83"/>
-    <mergeCell ref="BG77:BH77"/>
-    <mergeCell ref="BJ77:BK77"/>
-    <mergeCell ref="BL77:BO77"/>
-    <mergeCell ref="AZ78:BA78"/>
-    <mergeCell ref="BB78:BE78"/>
-    <mergeCell ref="BG78:BH78"/>
-    <mergeCell ref="BJ78:BK78"/>
-    <mergeCell ref="BL78:BO78"/>
-    <mergeCell ref="AW77:AX77"/>
-    <mergeCell ref="AW78:AX78"/>
-    <mergeCell ref="AZ77:BA77"/>
-    <mergeCell ref="BB77:BE77"/>
-    <mergeCell ref="AN78:AO78"/>
-    <mergeCell ref="AP78:AR78"/>
-    <mergeCell ref="AS78:AV78"/>
-    <mergeCell ref="AW74:AX74"/>
-    <mergeCell ref="AZ76:BA76"/>
-    <mergeCell ref="BB76:BE76"/>
-    <mergeCell ref="BG76:BH76"/>
-    <mergeCell ref="BJ76:BK76"/>
-    <mergeCell ref="BL76:BO76"/>
-    <mergeCell ref="BG73:BK73"/>
-    <mergeCell ref="BG74:BH74"/>
-    <mergeCell ref="BJ74:BK74"/>
-    <mergeCell ref="BL74:BO74"/>
-    <mergeCell ref="BB75:BE75"/>
-    <mergeCell ref="BG75:BH75"/>
-    <mergeCell ref="BJ75:BK75"/>
-    <mergeCell ref="BL75:BO75"/>
-    <mergeCell ref="AZ74:BA74"/>
-    <mergeCell ref="AZ75:BA75"/>
-    <mergeCell ref="AW73:BA73"/>
-    <mergeCell ref="BB74:BE74"/>
-    <mergeCell ref="AW75:AX75"/>
-    <mergeCell ref="AW76:AX76"/>
-    <mergeCell ref="AN73:AO73"/>
-    <mergeCell ref="AP73:AR73"/>
-    <mergeCell ref="AS73:AV73"/>
-    <mergeCell ref="AN74:AO74"/>
-    <mergeCell ref="AP74:AR74"/>
-    <mergeCell ref="AS74:AV74"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="U79:W79"/>
-    <mergeCell ref="U76:W76"/>
-    <mergeCell ref="AP76:AR76"/>
-    <mergeCell ref="AS76:AV76"/>
-    <mergeCell ref="AN77:AO77"/>
-    <mergeCell ref="AP77:AR77"/>
-    <mergeCell ref="AS77:AV77"/>
-    <mergeCell ref="AN75:AO75"/>
-    <mergeCell ref="AP75:AR75"/>
-    <mergeCell ref="AS75:AV75"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="U91:W91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="U90:W90"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="L81:N81"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="U81:W81"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="U82:W82"/>
-    <mergeCell ref="U83:W83"/>
-    <mergeCell ref="U85:W85"/>
-    <mergeCell ref="U86:W86"/>
-    <mergeCell ref="U87:W87"/>
-    <mergeCell ref="L82:N82"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="U84:W84"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="A35:A50"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="DT70:DU70"/>
+    <mergeCell ref="AF70:AG70"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
     <mergeCell ref="U88:W88"/>
     <mergeCell ref="U74:W74"/>
     <mergeCell ref="U75:W75"/>
@@ -12811,40 +12699,163 @@
     <mergeCell ref="P88:T88"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="E82:G82"/>
+    <mergeCell ref="U81:W81"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="U82:W82"/>
+    <mergeCell ref="U83:W83"/>
+    <mergeCell ref="U85:W85"/>
+    <mergeCell ref="U86:W86"/>
+    <mergeCell ref="U87:W87"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="U84:W84"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="L81:N81"/>
+    <mergeCell ref="P81:T81"/>
     <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="A51:A66"/>
-    <mergeCell ref="A35:A50"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="DT70:DU70"/>
-    <mergeCell ref="AF70:AG70"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="P85:T85"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="U91:W91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="U90:W90"/>
+    <mergeCell ref="AN73:AO73"/>
+    <mergeCell ref="AP73:AR73"/>
+    <mergeCell ref="AS73:AV73"/>
+    <mergeCell ref="AN74:AO74"/>
+    <mergeCell ref="AP74:AR74"/>
+    <mergeCell ref="AS74:AV74"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="U79:W79"/>
+    <mergeCell ref="U76:W76"/>
+    <mergeCell ref="AP76:AR76"/>
+    <mergeCell ref="AS76:AV76"/>
+    <mergeCell ref="AN77:AO77"/>
+    <mergeCell ref="AP77:AR77"/>
+    <mergeCell ref="AS77:AV77"/>
+    <mergeCell ref="AN75:AO75"/>
+    <mergeCell ref="AP75:AR75"/>
+    <mergeCell ref="AS75:AV75"/>
+    <mergeCell ref="AW74:AX74"/>
+    <mergeCell ref="AZ76:BA76"/>
+    <mergeCell ref="BB76:BE76"/>
+    <mergeCell ref="BG76:BH76"/>
+    <mergeCell ref="BJ76:BK76"/>
+    <mergeCell ref="BL76:BO76"/>
+    <mergeCell ref="BG73:BK73"/>
+    <mergeCell ref="BG74:BH74"/>
+    <mergeCell ref="BJ74:BK74"/>
+    <mergeCell ref="BL74:BO74"/>
+    <mergeCell ref="BB75:BE75"/>
+    <mergeCell ref="BG75:BH75"/>
+    <mergeCell ref="BJ75:BK75"/>
+    <mergeCell ref="BL75:BO75"/>
+    <mergeCell ref="AZ74:BA74"/>
+    <mergeCell ref="AZ75:BA75"/>
+    <mergeCell ref="AW73:BA73"/>
+    <mergeCell ref="BB74:BE74"/>
+    <mergeCell ref="AW75:AX75"/>
+    <mergeCell ref="AW76:AX76"/>
+    <mergeCell ref="AN83:AO83"/>
+    <mergeCell ref="AP83:AR83"/>
+    <mergeCell ref="AS83:AV83"/>
+    <mergeCell ref="AW83:BA83"/>
+    <mergeCell ref="BG83:BK83"/>
+    <mergeCell ref="BG77:BH77"/>
+    <mergeCell ref="BJ77:BK77"/>
+    <mergeCell ref="BL77:BO77"/>
+    <mergeCell ref="AZ78:BA78"/>
+    <mergeCell ref="BB78:BE78"/>
+    <mergeCell ref="BG78:BH78"/>
+    <mergeCell ref="BJ78:BK78"/>
+    <mergeCell ref="BL78:BO78"/>
+    <mergeCell ref="AW77:AX77"/>
+    <mergeCell ref="AW78:AX78"/>
+    <mergeCell ref="AZ77:BA77"/>
+    <mergeCell ref="BB77:BE77"/>
+    <mergeCell ref="AN78:AO78"/>
+    <mergeCell ref="AP78:AR78"/>
+    <mergeCell ref="AS78:AV78"/>
+    <mergeCell ref="AN85:AO85"/>
+    <mergeCell ref="AP85:AR85"/>
+    <mergeCell ref="AS85:AV85"/>
+    <mergeCell ref="AW85:AX85"/>
+    <mergeCell ref="AZ85:BA85"/>
+    <mergeCell ref="BB85:BE85"/>
+    <mergeCell ref="BG85:BH85"/>
+    <mergeCell ref="AN84:AO84"/>
+    <mergeCell ref="AP84:AR84"/>
+    <mergeCell ref="AS84:AV84"/>
+    <mergeCell ref="AW84:AX84"/>
+    <mergeCell ref="AZ84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BG88:BH88"/>
+    <mergeCell ref="BJ88:BK88"/>
+    <mergeCell ref="BL88:BO88"/>
+    <mergeCell ref="AN88:AO88"/>
+    <mergeCell ref="AP88:AR88"/>
+    <mergeCell ref="AS88:AV88"/>
+    <mergeCell ref="AW88:AX88"/>
+    <mergeCell ref="AZ88:BA88"/>
+    <mergeCell ref="BB88:BE88"/>
+    <mergeCell ref="AN86:AO86"/>
+    <mergeCell ref="AP86:AR86"/>
+    <mergeCell ref="EB34:EB35"/>
+    <mergeCell ref="AN87:AO87"/>
+    <mergeCell ref="AP87:AR87"/>
+    <mergeCell ref="AS87:AV87"/>
+    <mergeCell ref="AW87:AX87"/>
+    <mergeCell ref="AZ87:BA87"/>
+    <mergeCell ref="BB87:BE87"/>
+    <mergeCell ref="BG87:BH87"/>
+    <mergeCell ref="BJ87:BK87"/>
+    <mergeCell ref="BL87:BO87"/>
+    <mergeCell ref="AS86:AV86"/>
+    <mergeCell ref="AW86:AX86"/>
+    <mergeCell ref="AZ86:BA86"/>
+    <mergeCell ref="BB86:BE86"/>
+    <mergeCell ref="BG86:BH86"/>
+    <mergeCell ref="BJ86:BK86"/>
+    <mergeCell ref="BG84:BH84"/>
+    <mergeCell ref="BJ84:BK84"/>
+    <mergeCell ref="BL84:BO84"/>
+    <mergeCell ref="BL86:BO86"/>
+    <mergeCell ref="BJ85:BK85"/>
+    <mergeCell ref="BL85:BO85"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/ai84net.xlsx
+++ b/ai84net.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.muchsel/Documents/Source/ai84/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5BB142-7BE1-8C40-84EE-510F969FE137}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="460" windowWidth="45660" windowHeight="26220"/>
+    <workbookView xWindow="4060" yWindow="460" windowWidth="45660" windowHeight="26220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Weight Memory" sheetId="1" r:id="rId1"/>
+    <sheet name="Memory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -23,12 +26,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>conv1</t>
   </si>
@@ -90,12 +96,6 @@
     <t>n=12 shown</t>
   </si>
   <si>
-    <t>data | weight APB offset | input ↓</t>
-  </si>
-  <si>
-    <t>AI84 DATA AND WEIGHT MEMORY</t>
-  </si>
-  <si>
     <t>APB base = 50110000</t>
   </si>
   <si>
@@ -140,12 +140,33 @@
   <si>
     <t>kern sz</t>
   </si>
+  <si>
+    <t>input ↓</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>APB offsets</t>
+  </si>
+  <si>
+    <t>AI84 DATA, WEIGHT AND BIAS MEMORIES</t>
+  </si>
+  <si>
+    <t>C800</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -335,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -846,6 +867,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -976,7 +1043,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1102,49 +1169,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,8 +1181,9 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1180,9 +1209,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="127">
@@ -1331,15 +1446,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>15602</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>119</xdr:col>
+      <xdr:col>120</xdr:col>
       <xdr:colOff>181432</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>3662</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1347,7 +1462,7 @@
         <xdr:cNvPr id="2" name="Left Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{647526EF-81E9-1C4C-A444-4D5F9293B14C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647526EF-81E9-1C4C-A444-4D5F9293B14C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,15 +1517,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>120</xdr:col>
+      <xdr:col>121</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>118655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>131</xdr:col>
+      <xdr:col>132</xdr:col>
       <xdr:colOff>181431</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>192349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1418,7 +1533,7 @@
         <xdr:cNvPr id="3" name="Left Brace 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8E0E71A-9E22-BD4B-8278-4C6666001488}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E0E71A-9E22-BD4B-8278-4C6666001488}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,15 +1588,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>821145</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>118654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>3</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>192348</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1489,7 +1604,7 @@
         <xdr:cNvPr id="6" name="Left Brace 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44FA64B1-F2AC-AF4C-A323-23E4C412F8BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FA64B1-F2AC-AF4C-A323-23E4C412F8BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,15 +1659,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>132</xdr:col>
+      <xdr:col>133</xdr:col>
       <xdr:colOff>123354</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>217713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>132</xdr:col>
+      <xdr:col>133</xdr:col>
       <xdr:colOff>596190</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>36284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1560,7 +1675,7 @@
         <xdr:cNvPr id="12" name="Left Brace 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E55AFA1-5063-4A46-8502-38AE3178DE12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E55AFA1-5063-4A46-8502-38AE3178DE12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,924 +2020,802 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ED84"/>
+  <dimension ref="A1:EE85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="AD78" sqref="AD78"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="CM89" sqref="CM89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="6.875" customWidth="1"/>
-    <col min="4" max="4" width="2.625" style="4" customWidth="1"/>
-    <col min="5" max="132" width="2.875" customWidth="1"/>
+    <col min="1" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" style="4" customWidth="1"/>
+    <col min="6" max="133" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132">
+    <row r="1" spans="1:133">
       <c r="A1" s="81" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:132">
+    <row r="2" spans="1:133">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:132" s="3" customFormat="1" ht="15">
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="1:133" s="3" customFormat="1">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:132" s="3" customFormat="1" thickBot="1">
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5">
+    <row r="4" spans="1:133" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:133" s="3" customFormat="1" ht="17" thickBot="1">
+      <c r="A5" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="130"/>
+      <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="5">
-        <f>E4+1</f>
+      <c r="G5" s="5">
+        <f>F5+1</f>
         <v>1</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" ref="G4:EB4" si="0">F4+1</f>
+      <c r="H5" s="5">
+        <f t="shared" ref="H5:EC5" si="0">G5+1</f>
         <v>2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I4" s="5">
-        <f>H4+1</f>
+      <c r="J5" s="5">
+        <f>I5+1</f>
         <v>4</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L5" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M5" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N5" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O5" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P5" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q5" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R5" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="R4" s="5">
-        <f>Q4+1</f>
+      <c r="S5" s="5">
+        <f>R5+1</f>
         <v>13</v>
       </c>
-      <c r="S4" s="5">
+      <c r="T5" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T4" s="5">
+      <c r="U5" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V5" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W5" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="W4" s="5">
+      <c r="X5" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X4" s="5">
+      <c r="Y5" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Z5" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="AA5" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AB5" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AC5" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AD5" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AE5" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AF5" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AG5" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AH5" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AI5" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AJ5" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AJ4" s="5">
+      <c r="AK5" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AL5" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AM5" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AN5" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AN4" s="5">
+      <c r="AO5" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AP5" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AQ5" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AQ4" s="5">
+      <c r="AR5" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AR4" s="5">
+      <c r="AS5" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AS4" s="5">
+      <c r="AT5" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AT4" s="5">
+      <c r="AU5" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AU4" s="5">
+      <c r="AV5" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AV4" s="5">
+      <c r="AW5" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AW4" s="5">
+      <c r="AX5" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AX4" s="5">
+      <c r="AY5" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AY4" s="5">
+      <c r="AZ5" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AZ4" s="5">
+      <c r="BA5" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="BA4" s="5">
+      <c r="BB5" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="BB4" s="5">
+      <c r="BC5" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BC4" s="5">
+      <c r="BD5" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BD4" s="5">
+      <c r="BE5" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BE4" s="5">
+      <c r="BF5" s="5">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BF4" s="5">
+      <c r="BG5" s="5">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BG4" s="5">
+      <c r="BH5" s="5">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BH4" s="5">
+      <c r="BI5" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BI4" s="5">
+      <c r="BJ5" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BJ4" s="5">
+      <c r="BK5" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BK4" s="5">
+      <c r="BL5" s="5">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BL4" s="5">
+      <c r="BM5" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BM4" s="5">
+      <c r="BN5" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BN4" s="5">
+      <c r="BO5" s="5">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BO4" s="5">
+      <c r="BP5" s="5">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BP4" s="5">
+      <c r="BQ5" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BQ4" s="5">
+      <c r="BR5" s="5">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BR4" s="5">
+      <c r="BS5" s="5">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BS4" s="5">
+      <c r="BT5" s="5">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BT4" s="5">
+      <c r="BU5" s="5">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="BU4" s="5">
+      <c r="BV5" s="5">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="BV4" s="5">
+      <c r="BW5" s="5">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="BW4" s="5">
+      <c r="BX5" s="5">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="BX4" s="5">
+      <c r="BY5" s="5">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="BY4" s="5">
+      <c r="BZ5" s="5">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="BZ4" s="5">
+      <c r="CA5" s="5">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="CA4" s="5">
+      <c r="CB5" s="5">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="CB4" s="5">
+      <c r="CC5" s="5">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="CC4" s="5">
+      <c r="CD5" s="5">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="CD4" s="5">
+      <c r="CE5" s="5">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="CE4" s="5">
+      <c r="CF5" s="5">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="CF4" s="5">
+      <c r="CG5" s="5">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="CG4" s="5">
+      <c r="CH5" s="5">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="CH4" s="5">
+      <c r="CI5" s="5">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="CI4" s="5">
+      <c r="CJ5" s="5">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="CJ4" s="5">
+      <c r="CK5" s="5">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="CK4" s="5">
+      <c r="CL5" s="5">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="CL4" s="5">
+      <c r="CM5" s="5">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="CM4" s="5">
+      <c r="CN5" s="5">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="CN4" s="5">
+      <c r="CO5" s="5">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="CO4" s="5">
+      <c r="CP5" s="5">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="CP4" s="5">
+      <c r="CQ5" s="5">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="CQ4" s="5">
+      <c r="CR5" s="5">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="CR4" s="5">
+      <c r="CS5" s="5">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="CS4" s="5">
+      <c r="CT5" s="5">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="CT4" s="5">
+      <c r="CU5" s="5">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="CU4" s="5">
+      <c r="CV5" s="5">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="CV4" s="5">
+      <c r="CW5" s="5">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="CW4" s="5">
+      <c r="CX5" s="5">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="CX4" s="5">
+      <c r="CY5" s="5">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="CY4" s="5">
+      <c r="CZ5" s="5">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="CZ4" s="5">
+      <c r="DA5" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="DA4" s="5">
+      <c r="DB5" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="DB4" s="5">
+      <c r="DC5" s="5">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="DC4" s="5">
+      <c r="DD5" s="5">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="DD4" s="5">
+      <c r="DE5" s="5">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="DE4" s="5">
+      <c r="DF5" s="5">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="DF4" s="5">
+      <c r="DG5" s="5">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="DG4" s="5">
+      <c r="DH5" s="5">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="DH4" s="5">
+      <c r="DI5" s="5">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="DI4" s="5">
+      <c r="DJ5" s="5">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="DJ4" s="5">
+      <c r="DK5" s="5">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="DK4" s="5">
+      <c r="DL5" s="5">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="DL4" s="5">
+      <c r="DM5" s="5">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="DM4" s="5">
+      <c r="DN5" s="5">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="DN4" s="5">
+      <c r="DO5" s="5">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="DO4" s="5">
+      <c r="DP5" s="5">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="DP4" s="5">
+      <c r="DQ5" s="5">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="DQ4" s="5">
+      <c r="DR5" s="5">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="DR4" s="5">
+      <c r="DS5" s="5">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="DS4" s="5">
+      <c r="DT5" s="5">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="DT4" s="5">
+      <c r="DU5" s="5">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="DU4" s="5">
+      <c r="DV5" s="5">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="DV4" s="5">
+      <c r="DW5" s="5">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="DW4" s="5">
+      <c r="DX5" s="5">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="DX4" s="5">
+      <c r="DY5" s="5">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="DY4" s="5">
+      <c r="DZ5" s="5">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="DZ4" s="5">
+      <c r="EA5" s="5">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="EA4" s="5">
+      <c r="EB5" s="5">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="EB4" s="5">
+      <c r="EC5" s="5">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:132" ht="17" thickBot="1">
-      <c r="A5" s="120">
+    <row r="6" spans="1:133" ht="17" thickBot="1">
+      <c r="A6" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="108">
         <v>0</v>
       </c>
-      <c r="B5" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="82">
+      <c r="C6" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="82">
         <v>4800</v>
       </c>
-      <c r="D5" s="78">
+      <c r="E6" s="78">
         <v>0</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95" t="s">
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="94"/>
-      <c r="AM5" s="94"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="94"/>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="94"/>
-      <c r="AS5" s="94"/>
-      <c r="AT5" s="94"/>
-      <c r="AU5" s="94"/>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="94"/>
-      <c r="AX5" s="94"/>
-      <c r="AY5" s="94"/>
-      <c r="AZ5" s="94"/>
-      <c r="BA5" s="94"/>
-      <c r="BB5" s="94"/>
-      <c r="BC5" s="94"/>
-      <c r="BD5" s="94"/>
-      <c r="BE5" s="94"/>
-      <c r="BF5" s="94"/>
-      <c r="BG5" s="94"/>
-      <c r="BH5" s="94"/>
-      <c r="BI5" s="94"/>
-      <c r="BJ5" s="94"/>
-      <c r="BK5" s="94"/>
-      <c r="BL5" s="96"/>
-      <c r="BM5" s="71"/>
-      <c r="BN5" s="6"/>
-      <c r="BO5" s="6"/>
-      <c r="BP5" s="6"/>
-      <c r="BQ5" s="6"/>
-      <c r="BR5" s="6"/>
-      <c r="BS5" s="6"/>
-      <c r="BT5" s="6"/>
-      <c r="BU5" s="6"/>
-      <c r="BV5" s="6"/>
-      <c r="BW5" s="6"/>
-      <c r="BX5" s="6"/>
-      <c r="BY5" s="6"/>
-      <c r="BZ5" s="6"/>
-      <c r="CA5" s="6"/>
-      <c r="CB5" s="6"/>
-      <c r="CC5" s="6"/>
-      <c r="CD5" s="6"/>
-      <c r="CE5" s="6"/>
-      <c r="CF5" s="6"/>
-      <c r="CG5" s="6"/>
-      <c r="CH5" s="6"/>
-      <c r="CI5" s="6"/>
-      <c r="CJ5" s="6"/>
-      <c r="CK5" s="6"/>
-      <c r="CL5" s="6"/>
-      <c r="CM5" s="6"/>
-      <c r="CN5" s="6"/>
-      <c r="CO5" s="6"/>
-      <c r="CP5" s="6"/>
-      <c r="CQ5" s="6"/>
-      <c r="CR5" s="6"/>
-      <c r="CS5" s="6"/>
-      <c r="CT5" s="6"/>
-      <c r="CU5" s="6"/>
-      <c r="CV5" s="6"/>
-      <c r="CW5" s="6"/>
-      <c r="CX5" s="6"/>
-      <c r="CY5" s="6"/>
-      <c r="CZ5" s="6"/>
-      <c r="DA5" s="6"/>
-      <c r="DB5" s="6"/>
-      <c r="DC5" s="6"/>
-      <c r="DD5" s="6"/>
-      <c r="DE5" s="6"/>
-      <c r="DF5" s="6"/>
-      <c r="DG5" s="6"/>
-      <c r="DH5" s="6"/>
-      <c r="DI5" s="6"/>
-      <c r="DJ5" s="6"/>
-      <c r="DK5" s="6"/>
-      <c r="DL5" s="6"/>
-      <c r="DM5" s="6"/>
-      <c r="DN5" s="6"/>
-      <c r="DO5" s="6"/>
-      <c r="DP5" s="6"/>
-      <c r="DQ5" s="6"/>
-      <c r="DR5" s="6"/>
-      <c r="DS5" s="6"/>
-      <c r="DT5" s="6"/>
-      <c r="DU5" s="6"/>
-      <c r="DV5" s="6"/>
-      <c r="DW5" s="6"/>
-      <c r="DX5" s="6"/>
-      <c r="DY5" s="6"/>
-      <c r="DZ5" s="6"/>
-      <c r="EA5" s="6"/>
-      <c r="EB5" s="7"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="94"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="94"/>
+      <c r="AP6" s="94"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="94"/>
+      <c r="AS6" s="94"/>
+      <c r="AT6" s="94"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="94"/>
+      <c r="AW6" s="94"/>
+      <c r="AX6" s="94"/>
+      <c r="AY6" s="94"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="94"/>
+      <c r="BB6" s="94"/>
+      <c r="BC6" s="94"/>
+      <c r="BD6" s="94"/>
+      <c r="BE6" s="94"/>
+      <c r="BF6" s="94"/>
+      <c r="BG6" s="94"/>
+      <c r="BH6" s="94"/>
+      <c r="BI6" s="94"/>
+      <c r="BJ6" s="94"/>
+      <c r="BK6" s="94"/>
+      <c r="BL6" s="94"/>
+      <c r="BM6" s="96"/>
+      <c r="BN6" s="71"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="6"/>
+      <c r="BU6" s="6"/>
+      <c r="BV6" s="6"/>
+      <c r="BW6" s="6"/>
+      <c r="BX6" s="6"/>
+      <c r="BY6" s="6"/>
+      <c r="BZ6" s="6"/>
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="6"/>
+      <c r="CH6" s="6"/>
+      <c r="CI6" s="6"/>
+      <c r="CJ6" s="6"/>
+      <c r="CK6" s="6"/>
+      <c r="CL6" s="6"/>
+      <c r="CM6" s="6"/>
+      <c r="CN6" s="6"/>
+      <c r="CO6" s="6"/>
+      <c r="CP6" s="6"/>
+      <c r="CQ6" s="6"/>
+      <c r="CR6" s="6"/>
+      <c r="CS6" s="6"/>
+      <c r="CT6" s="6"/>
+      <c r="CU6" s="6"/>
+      <c r="CV6" s="6"/>
+      <c r="CW6" s="6"/>
+      <c r="CX6" s="6"/>
+      <c r="CY6" s="6"/>
+      <c r="CZ6" s="6"/>
+      <c r="DA6" s="6"/>
+      <c r="DB6" s="6"/>
+      <c r="DC6" s="6"/>
+      <c r="DD6" s="6"/>
+      <c r="DE6" s="6"/>
+      <c r="DF6" s="6"/>
+      <c r="DG6" s="6"/>
+      <c r="DH6" s="6"/>
+      <c r="DI6" s="6"/>
+      <c r="DJ6" s="6"/>
+      <c r="DK6" s="6"/>
+      <c r="DL6" s="6"/>
+      <c r="DM6" s="6"/>
+      <c r="DN6" s="6"/>
+      <c r="DO6" s="6"/>
+      <c r="DP6" s="6"/>
+      <c r="DQ6" s="6"/>
+      <c r="DR6" s="6"/>
+      <c r="DS6" s="6"/>
+      <c r="DT6" s="6"/>
+      <c r="DU6" s="6"/>
+      <c r="DV6" s="6"/>
+      <c r="DW6" s="6"/>
+      <c r="DX6" s="6"/>
+      <c r="DY6" s="6"/>
+      <c r="DZ6" s="6"/>
+      <c r="EA6" s="6"/>
+      <c r="EB6" s="6"/>
+      <c r="EC6" s="7"/>
     </row>
-    <row r="6" spans="1:132">
-      <c r="A6" s="121"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="83" t="str">
-        <f t="shared" ref="C6:C20" si="1">DEC2HEX(HEX2DEC(C$5)+FLOOR(D6/16,1)*1048576+MOD(D6,16)*128*16)</f>
+    <row r="7" spans="1:133">
+      <c r="A7" s="132"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="83" t="str">
+        <f t="shared" ref="D7:D21" si="1">DEC2HEX(HEX2DEC(D$6)+FLOOR(E7/16,1)*1048576+MOD(E7,16)*128*16)</f>
         <v>5000</v>
       </c>
-      <c r="D6" s="79">
-        <f>D5+1</f>
+      <c r="E7" s="79">
+        <f>E6+1</f>
         <v>1</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="123" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="90"/>
-      <c r="AH6" s="90"/>
-      <c r="AI6" s="90"/>
-      <c r="AJ6" s="90"/>
-      <c r="AK6" s="90"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="90"/>
-      <c r="AO6" s="90"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="90"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BI6" s="90"/>
-      <c r="BJ6" s="90"/>
-      <c r="BK6" s="90"/>
-      <c r="BL6" s="90"/>
-      <c r="BM6" s="72"/>
-      <c r="BN6" s="72"/>
-      <c r="BO6" s="72"/>
-      <c r="BP6" s="72"/>
-      <c r="BQ6" s="72"/>
-      <c r="BR6" s="72"/>
-      <c r="BS6" s="72"/>
-      <c r="BT6" s="72"/>
-      <c r="BU6" s="72"/>
-      <c r="BV6" s="72"/>
-      <c r="BW6" s="72"/>
-      <c r="BX6" s="72"/>
-      <c r="BY6" s="72"/>
-      <c r="BZ6" s="72"/>
-      <c r="CA6" s="72"/>
-      <c r="CB6" s="72"/>
-      <c r="CC6" s="72"/>
-      <c r="CD6" s="72"/>
-      <c r="CE6" s="72"/>
-      <c r="CF6" s="72"/>
-      <c r="CG6" s="72"/>
-      <c r="CH6" s="72"/>
-      <c r="CI6" s="72"/>
-      <c r="CJ6" s="72"/>
-      <c r="CK6" s="72"/>
-      <c r="CL6" s="72"/>
-      <c r="CM6" s="72"/>
-      <c r="CN6" s="72"/>
-      <c r="CO6" s="72"/>
-      <c r="CP6" s="72"/>
-      <c r="CQ6" s="72"/>
-      <c r="CR6" s="72"/>
-      <c r="CS6" s="72"/>
-      <c r="CT6" s="72"/>
-      <c r="CU6" s="72"/>
-      <c r="CV6" s="72"/>
-      <c r="CW6" s="72"/>
-      <c r="CX6" s="72"/>
-      <c r="CY6" s="72"/>
-      <c r="CZ6" s="72"/>
-      <c r="DA6" s="72"/>
-      <c r="DB6" s="72"/>
-      <c r="DC6" s="72"/>
-      <c r="DD6" s="72"/>
-      <c r="DE6" s="72"/>
-      <c r="DF6" s="72"/>
-      <c r="DG6" s="72"/>
-      <c r="DH6" s="72"/>
-      <c r="DI6" s="72"/>
-      <c r="DJ6" s="72"/>
-      <c r="DK6" s="72"/>
-      <c r="DL6" s="72"/>
-      <c r="DM6" s="72"/>
-      <c r="DN6" s="72"/>
-      <c r="DO6" s="72"/>
-      <c r="DP6" s="72"/>
-      <c r="DQ6" s="72"/>
-      <c r="DR6" s="72"/>
-      <c r="DS6" s="72"/>
-      <c r="DT6" s="72"/>
-      <c r="DU6" s="72"/>
-      <c r="DV6" s="72"/>
-      <c r="DW6" s="72"/>
-      <c r="DX6" s="72"/>
-      <c r="DY6" s="72"/>
-      <c r="DZ6" s="72"/>
-      <c r="EA6" s="72"/>
-      <c r="EB6" s="73"/>
-    </row>
-    <row r="7" spans="1:132">
-      <c r="A7" s="121"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="83" t="str">
-        <f t="shared" si="1"/>
-        <v>5800</v>
-      </c>
-      <c r="D7" s="79">
-        <f t="shared" ref="D7:D68" si="2">D6+1</f>
-        <v>2</v>
-      </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="90"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="92"/>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="92"/>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="92"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="92"/>
-      <c r="BE7" s="92"/>
-      <c r="BF7" s="92"/>
-      <c r="BG7" s="92"/>
-      <c r="BH7" s="92"/>
-      <c r="BI7" s="92"/>
-      <c r="BJ7" s="92"/>
-      <c r="BK7" s="92"/>
-      <c r="BL7" s="92"/>
-      <c r="BM7" s="72"/>
+      <c r="H7" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="90"/>
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="90"/>
+      <c r="BE7" s="90"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="90"/>
+      <c r="BJ7" s="90"/>
+      <c r="BK7" s="90"/>
+      <c r="BL7" s="90"/>
+      <c r="BM7" s="90"/>
       <c r="BN7" s="72"/>
       <c r="BO7" s="72"/>
       <c r="BP7" s="72"/>
@@ -2889,447 +2882,449 @@
       <c r="DY7" s="72"/>
       <c r="DZ7" s="72"/>
       <c r="EA7" s="72"/>
-      <c r="EB7" s="73"/>
+      <c r="EB7" s="72"/>
+      <c r="EC7" s="73"/>
     </row>
-    <row r="8" spans="1:132" ht="17" thickBot="1">
-      <c r="A8" s="122"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="83" t="str">
+    <row r="8" spans="1:133">
+      <c r="A8" s="132"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>5800</v>
+      </c>
+      <c r="E8" s="79">
+        <f t="shared" ref="E8:E69" si="2">E7+1</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="92"/>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="92"/>
+      <c r="BE8" s="92"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="92"/>
+      <c r="BH8" s="92"/>
+      <c r="BI8" s="92"/>
+      <c r="BJ8" s="92"/>
+      <c r="BK8" s="92"/>
+      <c r="BL8" s="92"/>
+      <c r="BM8" s="92"/>
+      <c r="BN8" s="72"/>
+      <c r="BO8" s="72"/>
+      <c r="BP8" s="72"/>
+      <c r="BQ8" s="72"/>
+      <c r="BR8" s="72"/>
+      <c r="BS8" s="72"/>
+      <c r="BT8" s="72"/>
+      <c r="BU8" s="72"/>
+      <c r="BV8" s="72"/>
+      <c r="BW8" s="72"/>
+      <c r="BX8" s="72"/>
+      <c r="BY8" s="72"/>
+      <c r="BZ8" s="72"/>
+      <c r="CA8" s="72"/>
+      <c r="CB8" s="72"/>
+      <c r="CC8" s="72"/>
+      <c r="CD8" s="72"/>
+      <c r="CE8" s="72"/>
+      <c r="CF8" s="72"/>
+      <c r="CG8" s="72"/>
+      <c r="CH8" s="72"/>
+      <c r="CI8" s="72"/>
+      <c r="CJ8" s="72"/>
+      <c r="CK8" s="72"/>
+      <c r="CL8" s="72"/>
+      <c r="CM8" s="72"/>
+      <c r="CN8" s="72"/>
+      <c r="CO8" s="72"/>
+      <c r="CP8" s="72"/>
+      <c r="CQ8" s="72"/>
+      <c r="CR8" s="72"/>
+      <c r="CS8" s="72"/>
+      <c r="CT8" s="72"/>
+      <c r="CU8" s="72"/>
+      <c r="CV8" s="72"/>
+      <c r="CW8" s="72"/>
+      <c r="CX8" s="72"/>
+      <c r="CY8" s="72"/>
+      <c r="CZ8" s="72"/>
+      <c r="DA8" s="72"/>
+      <c r="DB8" s="72"/>
+      <c r="DC8" s="72"/>
+      <c r="DD8" s="72"/>
+      <c r="DE8" s="72"/>
+      <c r="DF8" s="72"/>
+      <c r="DG8" s="72"/>
+      <c r="DH8" s="72"/>
+      <c r="DI8" s="72"/>
+      <c r="DJ8" s="72"/>
+      <c r="DK8" s="72"/>
+      <c r="DL8" s="72"/>
+      <c r="DM8" s="72"/>
+      <c r="DN8" s="72"/>
+      <c r="DO8" s="72"/>
+      <c r="DP8" s="72"/>
+      <c r="DQ8" s="72"/>
+      <c r="DR8" s="72"/>
+      <c r="DS8" s="72"/>
+      <c r="DT8" s="72"/>
+      <c r="DU8" s="72"/>
+      <c r="DV8" s="72"/>
+      <c r="DW8" s="72"/>
+      <c r="DX8" s="72"/>
+      <c r="DY8" s="72"/>
+      <c r="DZ8" s="72"/>
+      <c r="EA8" s="72"/>
+      <c r="EB8" s="72"/>
+      <c r="EC8" s="73"/>
+    </row>
+    <row r="9" spans="1:133" ht="17" thickBot="1">
+      <c r="A9" s="132"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="83" t="str">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="D8" s="79">
+      <c r="E9" s="79">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="75"/>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="75"/>
-      <c r="AQ8" s="75"/>
-      <c r="AR8" s="75"/>
-      <c r="AS8" s="75"/>
-      <c r="AT8" s="75"/>
-      <c r="AU8" s="75"/>
-      <c r="AV8" s="75"/>
-      <c r="AW8" s="75"/>
-      <c r="AX8" s="75"/>
-      <c r="AY8" s="75"/>
-      <c r="AZ8" s="75"/>
-      <c r="BA8" s="75"/>
-      <c r="BB8" s="75"/>
-      <c r="BC8" s="75"/>
-      <c r="BD8" s="75"/>
-      <c r="BE8" s="75"/>
-      <c r="BF8" s="75"/>
-      <c r="BG8" s="75"/>
-      <c r="BH8" s="75"/>
-      <c r="BI8" s="75"/>
-      <c r="BJ8" s="75"/>
-      <c r="BK8" s="75"/>
-      <c r="BL8" s="75"/>
-      <c r="BM8" s="75"/>
-      <c r="BN8" s="75"/>
-      <c r="BO8" s="75"/>
-      <c r="BP8" s="75"/>
-      <c r="BQ8" s="75"/>
-      <c r="BR8" s="75"/>
-      <c r="BS8" s="75"/>
-      <c r="BT8" s="75"/>
-      <c r="BU8" s="75"/>
-      <c r="BV8" s="75"/>
-      <c r="BW8" s="75"/>
-      <c r="BX8" s="75"/>
-      <c r="BY8" s="75"/>
-      <c r="BZ8" s="75"/>
-      <c r="CA8" s="75"/>
-      <c r="CB8" s="75"/>
-      <c r="CC8" s="75"/>
-      <c r="CD8" s="75"/>
-      <c r="CE8" s="75"/>
-      <c r="CF8" s="75"/>
-      <c r="CG8" s="75"/>
-      <c r="CH8" s="75"/>
-      <c r="CI8" s="75"/>
-      <c r="CJ8" s="75"/>
-      <c r="CK8" s="75"/>
-      <c r="CL8" s="75"/>
-      <c r="CM8" s="75"/>
-      <c r="CN8" s="75"/>
-      <c r="CO8" s="75"/>
-      <c r="CP8" s="75"/>
-      <c r="CQ8" s="75"/>
-      <c r="CR8" s="75"/>
-      <c r="CS8" s="75"/>
-      <c r="CT8" s="75"/>
-      <c r="CU8" s="75"/>
-      <c r="CV8" s="75"/>
-      <c r="CW8" s="75"/>
-      <c r="CX8" s="75"/>
-      <c r="CY8" s="75"/>
-      <c r="CZ8" s="75"/>
-      <c r="DA8" s="75"/>
-      <c r="DB8" s="75"/>
-      <c r="DC8" s="75"/>
-      <c r="DD8" s="75"/>
-      <c r="DE8" s="75"/>
-      <c r="DF8" s="75"/>
-      <c r="DG8" s="75"/>
-      <c r="DH8" s="75"/>
-      <c r="DI8" s="75"/>
-      <c r="DJ8" s="75"/>
-      <c r="DK8" s="75"/>
-      <c r="DL8" s="75"/>
-      <c r="DM8" s="75"/>
-      <c r="DN8" s="75"/>
-      <c r="DO8" s="75"/>
-      <c r="DP8" s="75"/>
-      <c r="DQ8" s="75"/>
-      <c r="DR8" s="75"/>
-      <c r="DS8" s="75"/>
-      <c r="DT8" s="75"/>
-      <c r="DU8" s="75"/>
-      <c r="DV8" s="75"/>
-      <c r="DW8" s="75"/>
-      <c r="DX8" s="75"/>
-      <c r="DY8" s="75"/>
-      <c r="DZ8" s="75"/>
-      <c r="EA8" s="75"/>
-      <c r="EB8" s="76"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="75"/>
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="75"/>
+      <c r="AU9" s="75"/>
+      <c r="AV9" s="75"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="75"/>
+      <c r="BA9" s="75"/>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="75"/>
+      <c r="BE9" s="75"/>
+      <c r="BF9" s="75"/>
+      <c r="BG9" s="75"/>
+      <c r="BH9" s="75"/>
+      <c r="BI9" s="75"/>
+      <c r="BJ9" s="75"/>
+      <c r="BK9" s="75"/>
+      <c r="BL9" s="75"/>
+      <c r="BM9" s="75"/>
+      <c r="BN9" s="75"/>
+      <c r="BO9" s="75"/>
+      <c r="BP9" s="75"/>
+      <c r="BQ9" s="75"/>
+      <c r="BR9" s="75"/>
+      <c r="BS9" s="75"/>
+      <c r="BT9" s="75"/>
+      <c r="BU9" s="75"/>
+      <c r="BV9" s="75"/>
+      <c r="BW9" s="75"/>
+      <c r="BX9" s="75"/>
+      <c r="BY9" s="75"/>
+      <c r="BZ9" s="75"/>
+      <c r="CA9" s="75"/>
+      <c r="CB9" s="75"/>
+      <c r="CC9" s="75"/>
+      <c r="CD9" s="75"/>
+      <c r="CE9" s="75"/>
+      <c r="CF9" s="75"/>
+      <c r="CG9" s="75"/>
+      <c r="CH9" s="75"/>
+      <c r="CI9" s="75"/>
+      <c r="CJ9" s="75"/>
+      <c r="CK9" s="75"/>
+      <c r="CL9" s="75"/>
+      <c r="CM9" s="75"/>
+      <c r="CN9" s="75"/>
+      <c r="CO9" s="75"/>
+      <c r="CP9" s="75"/>
+      <c r="CQ9" s="75"/>
+      <c r="CR9" s="75"/>
+      <c r="CS9" s="75"/>
+      <c r="CT9" s="75"/>
+      <c r="CU9" s="75"/>
+      <c r="CV9" s="75"/>
+      <c r="CW9" s="75"/>
+      <c r="CX9" s="75"/>
+      <c r="CY9" s="75"/>
+      <c r="CZ9" s="75"/>
+      <c r="DA9" s="75"/>
+      <c r="DB9" s="75"/>
+      <c r="DC9" s="75"/>
+      <c r="DD9" s="75"/>
+      <c r="DE9" s="75"/>
+      <c r="DF9" s="75"/>
+      <c r="DG9" s="75"/>
+      <c r="DH9" s="75"/>
+      <c r="DI9" s="75"/>
+      <c r="DJ9" s="75"/>
+      <c r="DK9" s="75"/>
+      <c r="DL9" s="75"/>
+      <c r="DM9" s="75"/>
+      <c r="DN9" s="75"/>
+      <c r="DO9" s="75"/>
+      <c r="DP9" s="75"/>
+      <c r="DQ9" s="75"/>
+      <c r="DR9" s="75"/>
+      <c r="DS9" s="75"/>
+      <c r="DT9" s="75"/>
+      <c r="DU9" s="75"/>
+      <c r="DV9" s="75"/>
+      <c r="DW9" s="75"/>
+      <c r="DX9" s="75"/>
+      <c r="DY9" s="75"/>
+      <c r="DZ9" s="75"/>
+      <c r="EA9" s="75"/>
+      <c r="EB9" s="75"/>
+      <c r="EC9" s="76"/>
     </row>
-    <row r="9" spans="1:132">
-      <c r="A9" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D9/16,1)*1048576+MOD(D9,16)*256*16)</f>
+    <row r="10" spans="1:133" ht="16" customHeight="1">
+      <c r="A10" s="132"/>
+      <c r="B10" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E10/16,1)*1048576+MOD(E10,16)*256*16)</f>
         <v>4000</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="83" t="str">
+      <c r="C10" s="123"/>
+      <c r="D10" s="83" t="str">
         <f t="shared" si="1"/>
         <v>6800</v>
       </c>
-      <c r="D9" s="79">
+      <c r="E10" s="79">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
-      <c r="BF9" s="10"/>
-      <c r="BG9" s="10"/>
-      <c r="BH9" s="10"/>
-      <c r="BI9" s="10"/>
-      <c r="BJ9" s="10"/>
-      <c r="BK9" s="10"/>
-      <c r="BL9" s="10"/>
-      <c r="BM9" s="11"/>
-      <c r="BN9" s="12"/>
-      <c r="BO9" s="12"/>
-      <c r="BP9" s="12"/>
-      <c r="BQ9" s="12"/>
-      <c r="BR9" s="12"/>
-      <c r="BS9" s="12"/>
-      <c r="BT9" s="12"/>
-      <c r="BU9" s="12"/>
-      <c r="BV9" s="12"/>
-      <c r="BW9" s="12"/>
-      <c r="BX9" s="12"/>
-      <c r="BY9" s="12"/>
-      <c r="BZ9" s="12"/>
-      <c r="CA9" s="12"/>
-      <c r="CB9" s="12"/>
-      <c r="CC9" s="12"/>
-      <c r="CD9" s="12"/>
-      <c r="CE9" s="12"/>
-      <c r="CF9" s="12"/>
-      <c r="CG9" s="12"/>
-      <c r="CH9" s="12"/>
-      <c r="CI9" s="12"/>
-      <c r="CJ9" s="12"/>
-      <c r="CK9" s="12"/>
-      <c r="CL9" s="12"/>
-      <c r="CM9" s="12"/>
-      <c r="CN9" s="12"/>
-      <c r="CO9" s="12"/>
-      <c r="CP9" s="12"/>
-      <c r="CQ9" s="12"/>
-      <c r="CR9" s="12"/>
-      <c r="CS9" s="12"/>
-      <c r="CT9" s="12"/>
-      <c r="CU9" s="12"/>
-      <c r="CV9" s="12"/>
-      <c r="CW9" s="12"/>
-      <c r="CX9" s="12"/>
-      <c r="CY9" s="12"/>
-      <c r="CZ9" s="12"/>
-      <c r="DA9" s="12"/>
-      <c r="DB9" s="12"/>
-      <c r="DC9" s="12"/>
-      <c r="DD9" s="12"/>
-      <c r="DE9" s="12"/>
-      <c r="DF9" s="12"/>
-      <c r="DG9" s="12"/>
-      <c r="DH9" s="12"/>
-      <c r="DI9" s="12"/>
-      <c r="DJ9" s="12"/>
-      <c r="DK9" s="12"/>
-      <c r="DL9" s="12"/>
-      <c r="DM9" s="12"/>
-      <c r="DN9" s="12"/>
-      <c r="DO9" s="12"/>
-      <c r="DP9" s="13"/>
-      <c r="DQ9" s="30"/>
-      <c r="DR9" s="29"/>
-      <c r="DS9" s="30"/>
-      <c r="DT9" s="29"/>
-      <c r="DU9" s="30"/>
-      <c r="DV9" s="29"/>
-      <c r="DW9" s="30"/>
-      <c r="DX9" s="30"/>
-      <c r="DY9" s="30"/>
-      <c r="DZ9" s="30"/>
-      <c r="EA9" s="30"/>
-      <c r="EB9" s="31"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10"/>
+      <c r="BG10" s="10"/>
+      <c r="BH10" s="10"/>
+      <c r="BI10" s="10"/>
+      <c r="BJ10" s="10"/>
+      <c r="BK10" s="10"/>
+      <c r="BL10" s="10"/>
+      <c r="BM10" s="10"/>
+      <c r="BN10" s="11"/>
+      <c r="BO10" s="12"/>
+      <c r="BP10" s="12"/>
+      <c r="BQ10" s="12"/>
+      <c r="BR10" s="12"/>
+      <c r="BS10" s="12"/>
+      <c r="BT10" s="12"/>
+      <c r="BU10" s="12"/>
+      <c r="BV10" s="12"/>
+      <c r="BW10" s="12"/>
+      <c r="BX10" s="12"/>
+      <c r="BY10" s="12"/>
+      <c r="BZ10" s="12"/>
+      <c r="CA10" s="12"/>
+      <c r="CB10" s="12"/>
+      <c r="CC10" s="12"/>
+      <c r="CD10" s="12"/>
+      <c r="CE10" s="12"/>
+      <c r="CF10" s="12"/>
+      <c r="CG10" s="12"/>
+      <c r="CH10" s="12"/>
+      <c r="CI10" s="12"/>
+      <c r="CJ10" s="12"/>
+      <c r="CK10" s="12"/>
+      <c r="CL10" s="12"/>
+      <c r="CM10" s="12"/>
+      <c r="CN10" s="12"/>
+      <c r="CO10" s="12"/>
+      <c r="CP10" s="12"/>
+      <c r="CQ10" s="12"/>
+      <c r="CR10" s="12"/>
+      <c r="CS10" s="12"/>
+      <c r="CT10" s="12"/>
+      <c r="CU10" s="12"/>
+      <c r="CV10" s="12"/>
+      <c r="CW10" s="12"/>
+      <c r="CX10" s="12"/>
+      <c r="CY10" s="12"/>
+      <c r="CZ10" s="12"/>
+      <c r="DA10" s="12"/>
+      <c r="DB10" s="12"/>
+      <c r="DC10" s="12"/>
+      <c r="DD10" s="12"/>
+      <c r="DE10" s="12"/>
+      <c r="DF10" s="12"/>
+      <c r="DG10" s="12"/>
+      <c r="DH10" s="12"/>
+      <c r="DI10" s="12"/>
+      <c r="DJ10" s="12"/>
+      <c r="DK10" s="12"/>
+      <c r="DL10" s="12"/>
+      <c r="DM10" s="12"/>
+      <c r="DN10" s="12"/>
+      <c r="DO10" s="12"/>
+      <c r="DP10" s="12"/>
+      <c r="DQ10" s="13"/>
+      <c r="DR10" s="30"/>
+      <c r="DS10" s="29"/>
+      <c r="DT10" s="30"/>
+      <c r="DU10" s="29"/>
+      <c r="DV10" s="30"/>
+      <c r="DW10" s="29"/>
+      <c r="DX10" s="30"/>
+      <c r="DY10" s="30"/>
+      <c r="DZ10" s="30"/>
+      <c r="EA10" s="30"/>
+      <c r="EB10" s="30"/>
+      <c r="EC10" s="31"/>
     </row>
-    <row r="10" spans="1:132">
-      <c r="A10" s="116"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="83" t="str">
+    <row r="11" spans="1:133" ht="16" customHeight="1">
+      <c r="A11" s="132"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="83" t="str">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="D10" s="79">
+      <c r="E11" s="79">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="15"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="15"/>
-      <c r="BG10" s="15"/>
-      <c r="BH10" s="15"/>
-      <c r="BI10" s="15"/>
-      <c r="BJ10" s="15"/>
-      <c r="BK10" s="15"/>
-      <c r="BL10" s="15"/>
-      <c r="BM10" s="16"/>
-      <c r="BN10" s="17"/>
-      <c r="BO10" s="17"/>
-      <c r="BP10" s="17"/>
-      <c r="BQ10" s="17"/>
-      <c r="BR10" s="17"/>
-      <c r="BS10" s="17"/>
-      <c r="BT10" s="17"/>
-      <c r="BU10" s="17"/>
-      <c r="BV10" s="17"/>
-      <c r="BW10" s="17"/>
-      <c r="BX10" s="17"/>
-      <c r="BY10" s="17"/>
-      <c r="BZ10" s="17"/>
-      <c r="CA10" s="17"/>
-      <c r="CB10" s="17"/>
-      <c r="CC10" s="17"/>
-      <c r="CD10" s="17"/>
-      <c r="CE10" s="17"/>
-      <c r="CF10" s="17"/>
-      <c r="CG10" s="17"/>
-      <c r="CH10" s="17"/>
-      <c r="CI10" s="17"/>
-      <c r="CJ10" s="17"/>
-      <c r="CK10" s="17"/>
-      <c r="CL10" s="17"/>
-      <c r="CM10" s="17"/>
-      <c r="CN10" s="17"/>
-      <c r="CO10" s="17"/>
-      <c r="CP10" s="17"/>
-      <c r="CQ10" s="17"/>
-      <c r="CR10" s="17"/>
-      <c r="CS10" s="17"/>
-      <c r="CT10" s="17"/>
-      <c r="CU10" s="17"/>
-      <c r="CV10" s="17"/>
-      <c r="CW10" s="17"/>
-      <c r="CX10" s="17"/>
-      <c r="CY10" s="17"/>
-      <c r="CZ10" s="17"/>
-      <c r="DA10" s="17"/>
-      <c r="DB10" s="17"/>
-      <c r="DC10" s="17"/>
-      <c r="DD10" s="17"/>
-      <c r="DE10" s="17"/>
-      <c r="DF10" s="17"/>
-      <c r="DG10" s="17"/>
-      <c r="DH10" s="17"/>
-      <c r="DI10" s="17"/>
-      <c r="DJ10" s="17"/>
-      <c r="DK10" s="17"/>
-      <c r="DL10" s="17"/>
-      <c r="DM10" s="17"/>
-      <c r="DN10" s="17"/>
-      <c r="DO10" s="17"/>
-      <c r="DP10" s="18"/>
-      <c r="DQ10" s="33"/>
-      <c r="DR10" s="32"/>
-      <c r="DS10" s="33"/>
-      <c r="DT10" s="32"/>
-      <c r="DU10" s="33"/>
-      <c r="DV10" s="32"/>
-      <c r="DW10" s="33"/>
-      <c r="DX10" s="33"/>
-      <c r="DY10" s="33"/>
-      <c r="DZ10" s="33"/>
-      <c r="EA10" s="33"/>
-      <c r="EB10" s="34"/>
-    </row>
-    <row r="11" spans="1:132">
-      <c r="A11" s="116"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="83" t="str">
-        <f t="shared" si="1"/>
-        <v>7800</v>
-      </c>
-      <c r="D11" s="79">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="19" t="s">
-        <v>6</v>
-      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -3387,11 +3382,9 @@
       <c r="BJ11" s="15"/>
       <c r="BK11" s="15"/>
       <c r="BL11" s="15"/>
-      <c r="BM11" s="16"/>
-      <c r="BN11" s="17"/>
-      <c r="BO11" s="20" t="s">
-        <v>6</v>
-      </c>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="17"/>
       <c r="BP11" s="17"/>
       <c r="BQ11" s="17"/>
       <c r="BR11" s="17"/>
@@ -3444,39 +3437,38 @@
       <c r="DM11" s="17"/>
       <c r="DN11" s="17"/>
       <c r="DO11" s="17"/>
-      <c r="DP11" s="18"/>
-      <c r="DQ11" s="33"/>
-      <c r="DR11" s="32"/>
-      <c r="DS11" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="DT11" s="32"/>
-      <c r="DU11" s="33"/>
-      <c r="DV11" s="32"/>
-      <c r="DW11" s="33"/>
+      <c r="DP11" s="17"/>
+      <c r="DQ11" s="18"/>
+      <c r="DR11" s="33"/>
+      <c r="DS11" s="32"/>
+      <c r="DT11" s="33"/>
+      <c r="DU11" s="32"/>
+      <c r="DV11" s="33"/>
+      <c r="DW11" s="32"/>
       <c r="DX11" s="33"/>
       <c r="DY11" s="33"/>
       <c r="DZ11" s="33"/>
       <c r="EA11" s="33"/>
-      <c r="EB11" s="34"/>
+      <c r="EB11" s="33"/>
+      <c r="EC11" s="34"/>
     </row>
-    <row r="12" spans="1:132">
-      <c r="A12" s="117"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="83" t="str">
+    <row r="12" spans="1:133">
+      <c r="A12" s="132"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="83" t="str">
         <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="D12" s="79">
+        <v>7800</v>
+      </c>
+      <c r="E12" s="79">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -3533,12 +3525,12 @@
       <c r="BJ12" s="15"/>
       <c r="BK12" s="15"/>
       <c r="BL12" s="15"/>
-      <c r="BM12" s="16"/>
-      <c r="BN12" s="17"/>
-      <c r="BO12" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP12" s="17"/>
+      <c r="BM12" s="15"/>
+      <c r="BN12" s="16"/>
+      <c r="BO12" s="17"/>
+      <c r="BP12" s="20" t="s">
+        <v>6</v>
+      </c>
       <c r="BQ12" s="17"/>
       <c r="BR12" s="17"/>
       <c r="BS12" s="17"/>
@@ -3573,7 +3565,7 @@
       <c r="CV12" s="17"/>
       <c r="CW12" s="17"/>
       <c r="CX12" s="17"/>
-      <c r="CY12" s="20"/>
+      <c r="CY12" s="17"/>
       <c r="CZ12" s="17"/>
       <c r="DA12" s="17"/>
       <c r="DB12" s="17"/>
@@ -3590,40 +3582,40 @@
       <c r="DM12" s="17"/>
       <c r="DN12" s="17"/>
       <c r="DO12" s="17"/>
-      <c r="DP12" s="18"/>
-      <c r="DQ12" s="33"/>
-      <c r="DR12" s="32"/>
-      <c r="DS12" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="DT12" s="32"/>
-      <c r="DU12" s="33"/>
-      <c r="DV12" s="32"/>
+      <c r="DP12" s="17"/>
+      <c r="DQ12" s="18"/>
+      <c r="DR12" s="33"/>
+      <c r="DS12" s="32"/>
+      <c r="DT12" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="DU12" s="32"/>
+      <c r="DV12" s="33"/>
       <c r="DW12" s="32"/>
       <c r="DX12" s="33"/>
       <c r="DY12" s="33"/>
       <c r="DZ12" s="33"/>
       <c r="EA12" s="33"/>
-      <c r="EB12" s="34"/>
+      <c r="EB12" s="33"/>
+      <c r="EC12" s="34"/>
     </row>
-    <row r="13" spans="1:132">
-      <c r="A13" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D13/16,1)*1048576+MOD(D13,16)*256*16)</f>
+    <row r="13" spans="1:133">
+      <c r="A13" s="132"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="83" t="str">
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="83" t="str">
-        <f t="shared" si="1"/>
-        <v>8800</v>
-      </c>
-      <c r="D13" s="79">
+      <c r="E13" s="79">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+        <v>7</v>
+      </c>
+      <c r="F13" s="14"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="H13" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -3680,10 +3672,12 @@
       <c r="BJ13" s="15"/>
       <c r="BK13" s="15"/>
       <c r="BL13" s="15"/>
-      <c r="BM13" s="16"/>
-      <c r="BN13" s="17"/>
+      <c r="BM13" s="15"/>
+      <c r="BN13" s="16"/>
       <c r="BO13" s="17"/>
-      <c r="BP13" s="17"/>
+      <c r="BP13" s="20" t="s">
+        <v>3</v>
+      </c>
       <c r="BQ13" s="17"/>
       <c r="BR13" s="17"/>
       <c r="BS13" s="17"/>
@@ -3718,8 +3712,8 @@
       <c r="CV13" s="17"/>
       <c r="CW13" s="17"/>
       <c r="CX13" s="17"/>
-      <c r="CY13" s="20"/>
-      <c r="CZ13" s="17"/>
+      <c r="CY13" s="17"/>
+      <c r="CZ13" s="20"/>
       <c r="DA13" s="17"/>
       <c r="DB13" s="17"/>
       <c r="DC13" s="17"/>
@@ -3735,33 +3729,39 @@
       <c r="DM13" s="17"/>
       <c r="DN13" s="17"/>
       <c r="DO13" s="17"/>
-      <c r="DP13" s="18"/>
-      <c r="DQ13" s="33"/>
-      <c r="DR13" s="32"/>
-      <c r="DS13" s="33"/>
-      <c r="DT13" s="32"/>
-      <c r="DU13" s="33"/>
-      <c r="DV13" s="32"/>
+      <c r="DP13" s="17"/>
+      <c r="DQ13" s="18"/>
+      <c r="DR13" s="33"/>
+      <c r="DS13" s="32"/>
+      <c r="DT13" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="DU13" s="32"/>
+      <c r="DV13" s="33"/>
       <c r="DW13" s="32"/>
-      <c r="DX13" s="33"/>
+      <c r="DX13" s="32"/>
       <c r="DY13" s="33"/>
       <c r="DZ13" s="33"/>
       <c r="EA13" s="33"/>
-      <c r="EB13" s="34"/>
+      <c r="EB13" s="33"/>
+      <c r="EC13" s="34"/>
     </row>
-    <row r="14" spans="1:132">
-      <c r="A14" s="116"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="83" t="str">
+    <row r="14" spans="1:133" ht="16" customHeight="1">
+      <c r="A14" s="132"/>
+      <c r="B14" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E14/16,1)*1048576+MOD(E14,16)*256*16)</f>
+        <v>8000</v>
+      </c>
+      <c r="C14" s="123"/>
+      <c r="D14" s="83" t="str">
         <f t="shared" si="1"/>
-        <v>9000</v>
-      </c>
-      <c r="D14" s="79">
+        <v>8800</v>
+      </c>
+      <c r="E14" s="79">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -3820,8 +3820,8 @@
       <c r="BJ14" s="15"/>
       <c r="BK14" s="15"/>
       <c r="BL14" s="15"/>
-      <c r="BM14" s="16"/>
-      <c r="BN14" s="17"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="16"/>
       <c r="BO14" s="17"/>
       <c r="BP14" s="17"/>
       <c r="BQ14" s="17"/>
@@ -3859,7 +3859,7 @@
       <c r="CW14" s="17"/>
       <c r="CX14" s="17"/>
       <c r="CY14" s="17"/>
-      <c r="CZ14" s="17"/>
+      <c r="CZ14" s="20"/>
       <c r="DA14" s="17"/>
       <c r="DB14" s="17"/>
       <c r="DC14" s="17"/>
@@ -3875,33 +3875,34 @@
       <c r="DM14" s="17"/>
       <c r="DN14" s="17"/>
       <c r="DO14" s="17"/>
-      <c r="DP14" s="18"/>
-      <c r="DQ14" s="33"/>
-      <c r="DR14" s="32"/>
-      <c r="DS14" s="33"/>
-      <c r="DT14" s="32"/>
-      <c r="DU14" s="33"/>
-      <c r="DV14" s="32"/>
-      <c r="DW14" s="33"/>
-      <c r="DX14" s="33"/>
+      <c r="DP14" s="17"/>
+      <c r="DQ14" s="18"/>
+      <c r="DR14" s="33"/>
+      <c r="DS14" s="32"/>
+      <c r="DT14" s="33"/>
+      <c r="DU14" s="32"/>
+      <c r="DV14" s="33"/>
+      <c r="DW14" s="32"/>
+      <c r="DX14" s="32"/>
       <c r="DY14" s="33"/>
       <c r="DZ14" s="33"/>
       <c r="EA14" s="33"/>
-      <c r="EB14" s="34"/>
+      <c r="EB14" s="33"/>
+      <c r="EC14" s="34"/>
     </row>
-    <row r="15" spans="1:132">
-      <c r="A15" s="116"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="83" t="str">
+    <row r="15" spans="1:133" ht="16" customHeight="1">
+      <c r="A15" s="132"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="83" t="str">
         <f t="shared" si="1"/>
-        <v>9800</v>
-      </c>
-      <c r="D15" s="79">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="79">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -3960,8 +3961,8 @@
       <c r="BJ15" s="15"/>
       <c r="BK15" s="15"/>
       <c r="BL15" s="15"/>
-      <c r="BM15" s="16"/>
-      <c r="BN15" s="17"/>
+      <c r="BM15" s="15"/>
+      <c r="BN15" s="16"/>
       <c r="BO15" s="17"/>
       <c r="BP15" s="17"/>
       <c r="BQ15" s="17"/>
@@ -4015,33 +4016,34 @@
       <c r="DM15" s="17"/>
       <c r="DN15" s="17"/>
       <c r="DO15" s="17"/>
-      <c r="DP15" s="18"/>
-      <c r="DQ15" s="33"/>
-      <c r="DR15" s="32"/>
-      <c r="DS15" s="33"/>
-      <c r="DT15" s="32"/>
-      <c r="DU15" s="33"/>
-      <c r="DV15" s="32"/>
-      <c r="DW15" s="33"/>
+      <c r="DP15" s="17"/>
+      <c r="DQ15" s="18"/>
+      <c r="DR15" s="33"/>
+      <c r="DS15" s="32"/>
+      <c r="DT15" s="33"/>
+      <c r="DU15" s="32"/>
+      <c r="DV15" s="33"/>
+      <c r="DW15" s="32"/>
       <c r="DX15" s="33"/>
       <c r="DY15" s="33"/>
       <c r="DZ15" s="33"/>
       <c r="EA15" s="33"/>
-      <c r="EB15" s="34"/>
+      <c r="EB15" s="33"/>
+      <c r="EC15" s="34"/>
     </row>
-    <row r="16" spans="1:132">
-      <c r="A16" s="117"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="83" t="str">
+    <row r="16" spans="1:133">
+      <c r="A16" s="132"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="83" t="str">
         <f t="shared" si="1"/>
-        <v>A000</v>
-      </c>
-      <c r="D16" s="79">
+        <v>9800</v>
+      </c>
+      <c r="E16" s="79">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -4100,8 +4102,8 @@
       <c r="BJ16" s="15"/>
       <c r="BK16" s="15"/>
       <c r="BL16" s="15"/>
-      <c r="BM16" s="16"/>
-      <c r="BN16" s="17"/>
+      <c r="BM16" s="15"/>
+      <c r="BN16" s="16"/>
       <c r="BO16" s="17"/>
       <c r="BP16" s="17"/>
       <c r="BQ16" s="17"/>
@@ -4155,36 +4157,34 @@
       <c r="DM16" s="17"/>
       <c r="DN16" s="17"/>
       <c r="DO16" s="17"/>
-      <c r="DP16" s="40"/>
-      <c r="DQ16" s="36"/>
-      <c r="DR16" s="35"/>
-      <c r="DS16" s="36"/>
-      <c r="DT16" s="35"/>
-      <c r="DU16" s="36"/>
-      <c r="DV16" s="35"/>
-      <c r="DW16" s="36"/>
-      <c r="DX16" s="36"/>
-      <c r="DY16" s="36"/>
-      <c r="DZ16" s="36"/>
-      <c r="EA16" s="36"/>
-      <c r="EB16" s="34"/>
+      <c r="DP16" s="17"/>
+      <c r="DQ16" s="18"/>
+      <c r="DR16" s="33"/>
+      <c r="DS16" s="32"/>
+      <c r="DT16" s="33"/>
+      <c r="DU16" s="32"/>
+      <c r="DV16" s="33"/>
+      <c r="DW16" s="32"/>
+      <c r="DX16" s="33"/>
+      <c r="DY16" s="33"/>
+      <c r="DZ16" s="33"/>
+      <c r="EA16" s="33"/>
+      <c r="EB16" s="33"/>
+      <c r="EC16" s="34"/>
     </row>
-    <row r="17" spans="1:132">
-      <c r="A17" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D17/16,1)*1048576+MOD(D17,16)*256*16)</f>
-        <v>C000</v>
-      </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="83" t="str">
+    <row r="17" spans="1:133">
+      <c r="A17" s="132"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="83" t="str">
         <f t="shared" si="1"/>
-        <v>A800</v>
-      </c>
-      <c r="D17" s="79">
+        <v>A000</v>
+      </c>
+      <c r="E17" s="79">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -4243,8 +4243,8 @@
       <c r="BJ17" s="15"/>
       <c r="BK17" s="15"/>
       <c r="BL17" s="15"/>
-      <c r="BM17" s="16"/>
-      <c r="BN17" s="17"/>
+      <c r="BM17" s="15"/>
+      <c r="BN17" s="16"/>
       <c r="BO17" s="17"/>
       <c r="BP17" s="17"/>
       <c r="BQ17" s="17"/>
@@ -4298,33 +4298,37 @@
       <c r="DM17" s="17"/>
       <c r="DN17" s="17"/>
       <c r="DO17" s="17"/>
-      <c r="DP17" s="41"/>
-      <c r="DQ17" s="33"/>
-      <c r="DR17" s="32"/>
-      <c r="DS17" s="33"/>
-      <c r="DT17" s="32"/>
-      <c r="DU17" s="33"/>
-      <c r="DV17" s="32"/>
-      <c r="DW17" s="33"/>
-      <c r="DX17" s="33"/>
-      <c r="DY17" s="33"/>
-      <c r="DZ17" s="33"/>
-      <c r="EA17" s="33"/>
-      <c r="EB17" s="34"/>
+      <c r="DP17" s="17"/>
+      <c r="DQ17" s="40"/>
+      <c r="DR17" s="36"/>
+      <c r="DS17" s="35"/>
+      <c r="DT17" s="36"/>
+      <c r="DU17" s="35"/>
+      <c r="DV17" s="36"/>
+      <c r="DW17" s="35"/>
+      <c r="DX17" s="36"/>
+      <c r="DY17" s="36"/>
+      <c r="DZ17" s="36"/>
+      <c r="EA17" s="36"/>
+      <c r="EB17" s="36"/>
+      <c r="EC17" s="34"/>
     </row>
-    <row r="18" spans="1:132">
-      <c r="A18" s="116"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="83" t="str">
+    <row r="18" spans="1:133" ht="16" customHeight="1">
+      <c r="A18" s="132"/>
+      <c r="B18" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E18/16,1)*1048576+MOD(E18,16)*256*16)</f>
+        <v>C000</v>
+      </c>
+      <c r="C18" s="123"/>
+      <c r="D18" s="83" t="str">
         <f t="shared" si="1"/>
-        <v>B000</v>
-      </c>
-      <c r="D18" s="79">
+        <v>A800</v>
+      </c>
+      <c r="E18" s="79">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -4383,8 +4387,8 @@
       <c r="BJ18" s="15"/>
       <c r="BK18" s="15"/>
       <c r="BL18" s="15"/>
-      <c r="BM18" s="16"/>
-      <c r="BN18" s="17"/>
+      <c r="BM18" s="15"/>
+      <c r="BN18" s="16"/>
       <c r="BO18" s="17"/>
       <c r="BP18" s="17"/>
       <c r="BQ18" s="17"/>
@@ -4438,33 +4442,34 @@
       <c r="DM18" s="17"/>
       <c r="DN18" s="17"/>
       <c r="DO18" s="17"/>
-      <c r="DP18" s="41"/>
-      <c r="DQ18" s="33"/>
-      <c r="DR18" s="32"/>
-      <c r="DS18" s="33"/>
-      <c r="DT18" s="32"/>
-      <c r="DU18" s="33"/>
-      <c r="DV18" s="32"/>
-      <c r="DW18" s="33"/>
+      <c r="DP18" s="17"/>
+      <c r="DQ18" s="41"/>
+      <c r="DR18" s="33"/>
+      <c r="DS18" s="32"/>
+      <c r="DT18" s="33"/>
+      <c r="DU18" s="32"/>
+      <c r="DV18" s="33"/>
+      <c r="DW18" s="32"/>
       <c r="DX18" s="33"/>
       <c r="DY18" s="33"/>
       <c r="DZ18" s="33"/>
       <c r="EA18" s="33"/>
-      <c r="EB18" s="34"/>
+      <c r="EB18" s="33"/>
+      <c r="EC18" s="34"/>
     </row>
-    <row r="19" spans="1:132">
-      <c r="A19" s="116"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="83" t="str">
+    <row r="19" spans="1:133" ht="16" customHeight="1">
+      <c r="A19" s="132"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="83" t="str">
         <f t="shared" si="1"/>
-        <v>B800</v>
-      </c>
-      <c r="D19" s="79">
+        <v>B000</v>
+      </c>
+      <c r="E19" s="79">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -4523,8 +4528,8 @@
       <c r="BJ19" s="15"/>
       <c r="BK19" s="15"/>
       <c r="BL19" s="15"/>
-      <c r="BM19" s="16"/>
-      <c r="BN19" s="17"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="16"/>
       <c r="BO19" s="17"/>
       <c r="BP19" s="17"/>
       <c r="BQ19" s="17"/>
@@ -4578,33 +4583,34 @@
       <c r="DM19" s="17"/>
       <c r="DN19" s="17"/>
       <c r="DO19" s="17"/>
-      <c r="DP19" s="41"/>
-      <c r="DQ19" s="33"/>
-      <c r="DR19" s="32"/>
-      <c r="DS19" s="33"/>
-      <c r="DT19" s="32"/>
-      <c r="DU19" s="33"/>
-      <c r="DV19" s="32"/>
-      <c r="DW19" s="33"/>
+      <c r="DP19" s="17"/>
+      <c r="DQ19" s="41"/>
+      <c r="DR19" s="33"/>
+      <c r="DS19" s="32"/>
+      <c r="DT19" s="33"/>
+      <c r="DU19" s="32"/>
+      <c r="DV19" s="33"/>
+      <c r="DW19" s="32"/>
       <c r="DX19" s="33"/>
       <c r="DY19" s="33"/>
       <c r="DZ19" s="33"/>
       <c r="EA19" s="33"/>
-      <c r="EB19" s="34"/>
+      <c r="EB19" s="33"/>
+      <c r="EC19" s="34"/>
     </row>
-    <row r="20" spans="1:132" ht="17" thickBot="1">
-      <c r="A20" s="118"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="84" t="str">
+    <row r="20" spans="1:133">
+      <c r="A20" s="132"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="83" t="str">
         <f t="shared" si="1"/>
-        <v>C000</v>
-      </c>
-      <c r="D20" s="80">
+        <v>B800</v>
+      </c>
+      <c r="E20" s="79">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -4663,8 +4669,8 @@
       <c r="BJ20" s="15"/>
       <c r="BK20" s="15"/>
       <c r="BL20" s="15"/>
-      <c r="BM20" s="16"/>
-      <c r="BN20" s="17"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="16"/>
       <c r="BO20" s="17"/>
       <c r="BP20" s="17"/>
       <c r="BQ20" s="17"/>
@@ -4718,38 +4724,34 @@
       <c r="DM20" s="17"/>
       <c r="DN20" s="17"/>
       <c r="DO20" s="17"/>
-      <c r="DP20" s="41"/>
-      <c r="DQ20" s="33"/>
-      <c r="DR20" s="32"/>
-      <c r="DS20" s="33"/>
-      <c r="DT20" s="32"/>
-      <c r="DU20" s="33"/>
-      <c r="DV20" s="32"/>
-      <c r="DW20" s="33"/>
+      <c r="DP20" s="17"/>
+      <c r="DQ20" s="41"/>
+      <c r="DR20" s="33"/>
+      <c r="DS20" s="32"/>
+      <c r="DT20" s="33"/>
+      <c r="DU20" s="32"/>
+      <c r="DV20" s="33"/>
+      <c r="DW20" s="32"/>
       <c r="DX20" s="33"/>
       <c r="DY20" s="33"/>
       <c r="DZ20" s="33"/>
       <c r="EA20" s="33"/>
-      <c r="EB20" s="34"/>
+      <c r="EB20" s="33"/>
+      <c r="EC20" s="34"/>
     </row>
-    <row r="21" spans="1:132">
-      <c r="A21" s="119" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D21/16,1)*1048576+MOD(D21,16)*256*16)</f>
-        <v>100000</v>
-      </c>
-      <c r="B21" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="82" t="str">
-        <f t="shared" ref="C21:C68" si="3">DEC2HEX(HEX2DEC(C$5)+FLOOR(D21/16,1)*1048576+MOD(D21,16)*128*16)</f>
-        <v>104800</v>
-      </c>
-      <c r="D21" s="78">
+    <row r="21" spans="1:133" ht="17" thickBot="1">
+      <c r="A21" s="133"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>C000</v>
+      </c>
+      <c r="E21" s="80">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
@@ -4808,8 +4810,8 @@
       <c r="BJ21" s="15"/>
       <c r="BK21" s="15"/>
       <c r="BL21" s="15"/>
-      <c r="BM21" s="16"/>
-      <c r="BN21" s="17"/>
+      <c r="BM21" s="15"/>
+      <c r="BN21" s="16"/>
       <c r="BO21" s="17"/>
       <c r="BP21" s="17"/>
       <c r="BQ21" s="17"/>
@@ -4863,33 +4865,42 @@
       <c r="DM21" s="17"/>
       <c r="DN21" s="17"/>
       <c r="DO21" s="17"/>
-      <c r="DP21" s="41"/>
-      <c r="DQ21" s="33"/>
-      <c r="DR21" s="32"/>
-      <c r="DS21" s="33"/>
-      <c r="DT21" s="32"/>
-      <c r="DU21" s="33"/>
-      <c r="DV21" s="32"/>
-      <c r="DW21" s="33"/>
+      <c r="DP21" s="17"/>
+      <c r="DQ21" s="41"/>
+      <c r="DR21" s="33"/>
+      <c r="DS21" s="32"/>
+      <c r="DT21" s="33"/>
+      <c r="DU21" s="32"/>
+      <c r="DV21" s="33"/>
+      <c r="DW21" s="32"/>
       <c r="DX21" s="33"/>
       <c r="DY21" s="33"/>
       <c r="DZ21" s="33"/>
       <c r="EA21" s="33"/>
-      <c r="EB21" s="34"/>
+      <c r="EB21" s="33"/>
+      <c r="EC21" s="34"/>
     </row>
-    <row r="22" spans="1:132">
-      <c r="A22" s="116"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="83" t="str">
-        <f t="shared" si="3"/>
-        <v>105000</v>
-      </c>
-      <c r="D22" s="79">
+    <row r="22" spans="1:133" ht="16" customHeight="1">
+      <c r="A22" s="134" t="str">
+        <f>DEC2HEX(HEX2DEC(A$6)+FLOOR(E22/16,1)*1048576+MOD(E22,16)*256*16)</f>
+        <v>10C800</v>
+      </c>
+      <c r="B22" s="107" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E22/16,1)*1048576+MOD(E22,16)*256*16)</f>
+        <v>100000</v>
+      </c>
+      <c r="C22" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="82" t="str">
+        <f t="shared" ref="D22:D69" si="3">DEC2HEX(HEX2DEC(D$6)+FLOOR(E22/16,1)*1048576+MOD(E22,16)*128*16)</f>
+        <v>104800</v>
+      </c>
+      <c r="E22" s="78">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -4948,8 +4959,8 @@
       <c r="BJ22" s="15"/>
       <c r="BK22" s="15"/>
       <c r="BL22" s="15"/>
-      <c r="BM22" s="16"/>
-      <c r="BN22" s="17"/>
+      <c r="BM22" s="15"/>
+      <c r="BN22" s="16"/>
       <c r="BO22" s="17"/>
       <c r="BP22" s="17"/>
       <c r="BQ22" s="17"/>
@@ -5003,33 +5014,34 @@
       <c r="DM22" s="17"/>
       <c r="DN22" s="17"/>
       <c r="DO22" s="17"/>
-      <c r="DP22" s="41"/>
-      <c r="DQ22" s="33"/>
-      <c r="DR22" s="32"/>
-      <c r="DS22" s="33"/>
-      <c r="DT22" s="32"/>
-      <c r="DU22" s="33"/>
-      <c r="DV22" s="35"/>
-      <c r="DW22" s="36"/>
-      <c r="DX22" s="36"/>
-      <c r="DY22" s="36"/>
-      <c r="DZ22" s="36"/>
-      <c r="EA22" s="36"/>
-      <c r="EB22" s="34"/>
+      <c r="DP22" s="17"/>
+      <c r="DQ22" s="41"/>
+      <c r="DR22" s="33"/>
+      <c r="DS22" s="32"/>
+      <c r="DT22" s="33"/>
+      <c r="DU22" s="32"/>
+      <c r="DV22" s="33"/>
+      <c r="DW22" s="32"/>
+      <c r="DX22" s="33"/>
+      <c r="DY22" s="33"/>
+      <c r="DZ22" s="33"/>
+      <c r="EA22" s="33"/>
+      <c r="EB22" s="33"/>
+      <c r="EC22" s="34"/>
     </row>
-    <row r="23" spans="1:132">
-      <c r="A23" s="116"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="83" t="str">
+    <row r="23" spans="1:133" ht="16" customHeight="1">
+      <c r="A23" s="135"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>105800</v>
-      </c>
-      <c r="D23" s="79">
+        <v>105000</v>
+      </c>
+      <c r="E23" s="79">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -5088,8 +5100,8 @@
       <c r="BJ23" s="15"/>
       <c r="BK23" s="15"/>
       <c r="BL23" s="15"/>
-      <c r="BM23" s="16"/>
-      <c r="BN23" s="17"/>
+      <c r="BM23" s="15"/>
+      <c r="BN23" s="16"/>
       <c r="BO23" s="17"/>
       <c r="BP23" s="17"/>
       <c r="BQ23" s="17"/>
@@ -5143,33 +5155,34 @@
       <c r="DM23" s="17"/>
       <c r="DN23" s="17"/>
       <c r="DO23" s="17"/>
-      <c r="DP23" s="40"/>
-      <c r="DQ23" s="36"/>
-      <c r="DR23" s="35"/>
-      <c r="DS23" s="36"/>
-      <c r="DT23" s="35"/>
-      <c r="DU23" s="36"/>
-      <c r="DV23" s="32"/>
-      <c r="DW23" s="33"/>
-      <c r="DX23" s="33"/>
-      <c r="DY23" s="33"/>
-      <c r="DZ23" s="33"/>
-      <c r="EA23" s="33"/>
-      <c r="EB23" s="34"/>
+      <c r="DP23" s="17"/>
+      <c r="DQ23" s="41"/>
+      <c r="DR23" s="33"/>
+      <c r="DS23" s="32"/>
+      <c r="DT23" s="33"/>
+      <c r="DU23" s="32"/>
+      <c r="DV23" s="33"/>
+      <c r="DW23" s="35"/>
+      <c r="DX23" s="36"/>
+      <c r="DY23" s="36"/>
+      <c r="DZ23" s="36"/>
+      <c r="EA23" s="36"/>
+      <c r="EB23" s="36"/>
+      <c r="EC23" s="34"/>
     </row>
-    <row r="24" spans="1:132">
-      <c r="A24" s="117"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="83" t="str">
+    <row r="24" spans="1:133">
+      <c r="A24" s="135"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>106000</v>
-      </c>
-      <c r="D24" s="79">
+        <v>105800</v>
+      </c>
+      <c r="E24" s="79">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -5228,8 +5241,8 @@
       <c r="BJ24" s="15"/>
       <c r="BK24" s="15"/>
       <c r="BL24" s="15"/>
-      <c r="BM24" s="16"/>
-      <c r="BN24" s="17"/>
+      <c r="BM24" s="15"/>
+      <c r="BN24" s="16"/>
       <c r="BO24" s="17"/>
       <c r="BP24" s="17"/>
       <c r="BQ24" s="17"/>
@@ -5283,36 +5296,34 @@
       <c r="DM24" s="17"/>
       <c r="DN24" s="17"/>
       <c r="DO24" s="17"/>
-      <c r="DP24" s="41"/>
-      <c r="DQ24" s="33"/>
-      <c r="DR24" s="32"/>
-      <c r="DS24" s="33"/>
-      <c r="DT24" s="32"/>
-      <c r="DU24" s="33"/>
-      <c r="DV24" s="32"/>
-      <c r="DW24" s="33"/>
+      <c r="DP24" s="17"/>
+      <c r="DQ24" s="40"/>
+      <c r="DR24" s="36"/>
+      <c r="DS24" s="35"/>
+      <c r="DT24" s="36"/>
+      <c r="DU24" s="35"/>
+      <c r="DV24" s="36"/>
+      <c r="DW24" s="32"/>
       <c r="DX24" s="33"/>
       <c r="DY24" s="33"/>
       <c r="DZ24" s="33"/>
       <c r="EA24" s="33"/>
-      <c r="EB24" s="34"/>
+      <c r="EB24" s="33"/>
+      <c r="EC24" s="34"/>
     </row>
-    <row r="25" spans="1:132">
-      <c r="A25" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D25/16,1)*1048576+MOD(D25,16)*256*16)</f>
-        <v>104000</v>
-      </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="83" t="str">
+    <row r="25" spans="1:133">
+      <c r="A25" s="135"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>106800</v>
-      </c>
-      <c r="D25" s="79">
+        <v>106000</v>
+      </c>
+      <c r="E25" s="79">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -5371,8 +5382,8 @@
       <c r="BJ25" s="15"/>
       <c r="BK25" s="15"/>
       <c r="BL25" s="15"/>
-      <c r="BM25" s="16"/>
-      <c r="BN25" s="17"/>
+      <c r="BM25" s="15"/>
+      <c r="BN25" s="16"/>
       <c r="BO25" s="17"/>
       <c r="BP25" s="17"/>
       <c r="BQ25" s="17"/>
@@ -5426,33 +5437,37 @@
       <c r="DM25" s="17"/>
       <c r="DN25" s="17"/>
       <c r="DO25" s="17"/>
-      <c r="DP25" s="41"/>
-      <c r="DQ25" s="33"/>
-      <c r="DR25" s="32"/>
-      <c r="DS25" s="33"/>
-      <c r="DT25" s="32"/>
-      <c r="DU25" s="33"/>
-      <c r="DV25" s="32"/>
-      <c r="DW25" s="33"/>
+      <c r="DP25" s="17"/>
+      <c r="DQ25" s="41"/>
+      <c r="DR25" s="33"/>
+      <c r="DS25" s="32"/>
+      <c r="DT25" s="33"/>
+      <c r="DU25" s="32"/>
+      <c r="DV25" s="33"/>
+      <c r="DW25" s="32"/>
       <c r="DX25" s="33"/>
       <c r="DY25" s="33"/>
       <c r="DZ25" s="33"/>
       <c r="EA25" s="33"/>
-      <c r="EB25" s="34"/>
+      <c r="EB25" s="33"/>
+      <c r="EC25" s="34"/>
     </row>
-    <row r="26" spans="1:132">
-      <c r="A26" s="116"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="83" t="str">
+    <row r="26" spans="1:133" ht="16" customHeight="1">
+      <c r="A26" s="135"/>
+      <c r="B26" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E26/16,1)*1048576+MOD(E26,16)*256*16)</f>
+        <v>104000</v>
+      </c>
+      <c r="C26" s="126"/>
+      <c r="D26" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>107000</v>
-      </c>
-      <c r="D26" s="79">
+        <v>106800</v>
+      </c>
+      <c r="E26" s="79">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
@@ -5511,8 +5526,8 @@
       <c r="BJ26" s="15"/>
       <c r="BK26" s="15"/>
       <c r="BL26" s="15"/>
-      <c r="BM26" s="16"/>
-      <c r="BN26" s="17"/>
+      <c r="BM26" s="15"/>
+      <c r="BN26" s="16"/>
       <c r="BO26" s="17"/>
       <c r="BP26" s="17"/>
       <c r="BQ26" s="17"/>
@@ -5566,33 +5581,34 @@
       <c r="DM26" s="17"/>
       <c r="DN26" s="17"/>
       <c r="DO26" s="17"/>
-      <c r="DP26" s="41"/>
-      <c r="DQ26" s="33"/>
-      <c r="DR26" s="32"/>
-      <c r="DS26" s="33"/>
-      <c r="DT26" s="32"/>
-      <c r="DU26" s="33"/>
-      <c r="DV26" s="32"/>
-      <c r="DW26" s="33"/>
+      <c r="DP26" s="17"/>
+      <c r="DQ26" s="41"/>
+      <c r="DR26" s="33"/>
+      <c r="DS26" s="32"/>
+      <c r="DT26" s="33"/>
+      <c r="DU26" s="32"/>
+      <c r="DV26" s="33"/>
+      <c r="DW26" s="32"/>
       <c r="DX26" s="33"/>
       <c r="DY26" s="33"/>
       <c r="DZ26" s="33"/>
       <c r="EA26" s="33"/>
-      <c r="EB26" s="34"/>
+      <c r="EB26" s="33"/>
+      <c r="EC26" s="34"/>
     </row>
-    <row r="27" spans="1:132">
-      <c r="A27" s="116"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="83" t="str">
+    <row r="27" spans="1:133" ht="16" customHeight="1">
+      <c r="A27" s="135"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>107800</v>
-      </c>
-      <c r="D27" s="79">
+        <v>107000</v>
+      </c>
+      <c r="E27" s="79">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -5651,8 +5667,8 @@
       <c r="BJ27" s="15"/>
       <c r="BK27" s="15"/>
       <c r="BL27" s="15"/>
-      <c r="BM27" s="16"/>
-      <c r="BN27" s="17"/>
+      <c r="BM27" s="15"/>
+      <c r="BN27" s="16"/>
       <c r="BO27" s="17"/>
       <c r="BP27" s="17"/>
       <c r="BQ27" s="17"/>
@@ -5706,33 +5722,34 @@
       <c r="DM27" s="17"/>
       <c r="DN27" s="17"/>
       <c r="DO27" s="17"/>
-      <c r="DP27" s="41"/>
-      <c r="DQ27" s="33"/>
-      <c r="DR27" s="32"/>
-      <c r="DS27" s="33"/>
-      <c r="DT27" s="32"/>
-      <c r="DU27" s="33"/>
-      <c r="DV27" s="32"/>
-      <c r="DW27" s="33"/>
+      <c r="DP27" s="17"/>
+      <c r="DQ27" s="41"/>
+      <c r="DR27" s="33"/>
+      <c r="DS27" s="32"/>
+      <c r="DT27" s="33"/>
+      <c r="DU27" s="32"/>
+      <c r="DV27" s="33"/>
+      <c r="DW27" s="32"/>
       <c r="DX27" s="33"/>
       <c r="DY27" s="33"/>
       <c r="DZ27" s="33"/>
       <c r="EA27" s="33"/>
-      <c r="EB27" s="34"/>
+      <c r="EB27" s="33"/>
+      <c r="EC27" s="34"/>
     </row>
-    <row r="28" spans="1:132">
-      <c r="A28" s="117"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="83" t="str">
+    <row r="28" spans="1:133">
+      <c r="A28" s="135"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>108000</v>
-      </c>
-      <c r="D28" s="79">
+        <v>107800</v>
+      </c>
+      <c r="E28" s="79">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -5791,8 +5808,8 @@
       <c r="BJ28" s="15"/>
       <c r="BK28" s="15"/>
       <c r="BL28" s="15"/>
-      <c r="BM28" s="16"/>
-      <c r="BN28" s="17"/>
+      <c r="BM28" s="15"/>
+      <c r="BN28" s="16"/>
       <c r="BO28" s="17"/>
       <c r="BP28" s="17"/>
       <c r="BQ28" s="17"/>
@@ -5846,36 +5863,34 @@
       <c r="DM28" s="17"/>
       <c r="DN28" s="17"/>
       <c r="DO28" s="17"/>
-      <c r="DP28" s="41"/>
-      <c r="DQ28" s="33"/>
-      <c r="DR28" s="32"/>
-      <c r="DS28" s="33"/>
-      <c r="DT28" s="32"/>
-      <c r="DU28" s="33"/>
-      <c r="DV28" s="32"/>
-      <c r="DW28" s="33"/>
+      <c r="DP28" s="17"/>
+      <c r="DQ28" s="41"/>
+      <c r="DR28" s="33"/>
+      <c r="DS28" s="32"/>
+      <c r="DT28" s="33"/>
+      <c r="DU28" s="32"/>
+      <c r="DV28" s="33"/>
+      <c r="DW28" s="32"/>
       <c r="DX28" s="33"/>
       <c r="DY28" s="33"/>
       <c r="DZ28" s="33"/>
       <c r="EA28" s="33"/>
-      <c r="EB28" s="34"/>
+      <c r="EB28" s="33"/>
+      <c r="EC28" s="34"/>
     </row>
-    <row r="29" spans="1:132">
-      <c r="A29" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D29/16,1)*1048576+MOD(D29,16)*256*16)</f>
+    <row r="29" spans="1:133">
+      <c r="A29" s="135"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="83" t="str">
+        <f t="shared" si="3"/>
         <v>108000</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="83" t="str">
-        <f t="shared" si="3"/>
-        <v>108800</v>
-      </c>
-      <c r="D29" s="79">
+      <c r="E29" s="79">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -5934,8 +5949,8 @@
       <c r="BJ29" s="15"/>
       <c r="BK29" s="15"/>
       <c r="BL29" s="15"/>
-      <c r="BM29" s="16"/>
-      <c r="BN29" s="17"/>
+      <c r="BM29" s="15"/>
+      <c r="BN29" s="16"/>
       <c r="BO29" s="17"/>
       <c r="BP29" s="17"/>
       <c r="BQ29" s="17"/>
@@ -5989,33 +6004,37 @@
       <c r="DM29" s="17"/>
       <c r="DN29" s="17"/>
       <c r="DO29" s="17"/>
-      <c r="DP29" s="41"/>
-      <c r="DQ29" s="33"/>
-      <c r="DR29" s="32"/>
-      <c r="DS29" s="33"/>
-      <c r="DT29" s="32"/>
-      <c r="DU29" s="33"/>
-      <c r="DV29" s="32"/>
-      <c r="DW29" s="33"/>
+      <c r="DP29" s="17"/>
+      <c r="DQ29" s="41"/>
+      <c r="DR29" s="33"/>
+      <c r="DS29" s="32"/>
+      <c r="DT29" s="33"/>
+      <c r="DU29" s="32"/>
+      <c r="DV29" s="33"/>
+      <c r="DW29" s="32"/>
       <c r="DX29" s="33"/>
       <c r="DY29" s="33"/>
       <c r="DZ29" s="33"/>
       <c r="EA29" s="33"/>
-      <c r="EB29" s="34"/>
+      <c r="EB29" s="33"/>
+      <c r="EC29" s="34"/>
     </row>
-    <row r="30" spans="1:132">
-      <c r="A30" s="116"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="83" t="str">
+    <row r="30" spans="1:133" ht="16" customHeight="1">
+      <c r="A30" s="135"/>
+      <c r="B30" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E30/16,1)*1048576+MOD(E30,16)*256*16)</f>
+        <v>108000</v>
+      </c>
+      <c r="C30" s="126"/>
+      <c r="D30" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>109000</v>
-      </c>
-      <c r="D30" s="79">
+        <v>108800</v>
+      </c>
+      <c r="E30" s="79">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="F30" s="14"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -6074,8 +6093,8 @@
       <c r="BJ30" s="15"/>
       <c r="BK30" s="15"/>
       <c r="BL30" s="15"/>
-      <c r="BM30" s="16"/>
-      <c r="BN30" s="17"/>
+      <c r="BM30" s="15"/>
+      <c r="BN30" s="16"/>
       <c r="BO30" s="17"/>
       <c r="BP30" s="17"/>
       <c r="BQ30" s="17"/>
@@ -6129,33 +6148,34 @@
       <c r="DM30" s="17"/>
       <c r="DN30" s="17"/>
       <c r="DO30" s="17"/>
-      <c r="DP30" s="40"/>
-      <c r="DQ30" s="36"/>
-      <c r="DR30" s="35"/>
-      <c r="DS30" s="36"/>
-      <c r="DT30" s="35"/>
-      <c r="DU30" s="36"/>
-      <c r="DV30" s="32"/>
-      <c r="DW30" s="33"/>
+      <c r="DP30" s="17"/>
+      <c r="DQ30" s="41"/>
+      <c r="DR30" s="33"/>
+      <c r="DS30" s="32"/>
+      <c r="DT30" s="33"/>
+      <c r="DU30" s="32"/>
+      <c r="DV30" s="33"/>
+      <c r="DW30" s="32"/>
       <c r="DX30" s="33"/>
       <c r="DY30" s="33"/>
       <c r="DZ30" s="33"/>
       <c r="EA30" s="33"/>
-      <c r="EB30" s="34"/>
+      <c r="EB30" s="33"/>
+      <c r="EC30" s="34"/>
     </row>
-    <row r="31" spans="1:132">
-      <c r="A31" s="116"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="83" t="str">
+    <row r="31" spans="1:133" ht="16" customHeight="1">
+      <c r="A31" s="135"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>109800</v>
-      </c>
-      <c r="D31" s="79">
+        <v>109000</v>
+      </c>
+      <c r="E31" s="79">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
@@ -6214,8 +6234,8 @@
       <c r="BJ31" s="15"/>
       <c r="BK31" s="15"/>
       <c r="BL31" s="15"/>
-      <c r="BM31" s="16"/>
-      <c r="BN31" s="17"/>
+      <c r="BM31" s="15"/>
+      <c r="BN31" s="16"/>
       <c r="BO31" s="17"/>
       <c r="BP31" s="17"/>
       <c r="BQ31" s="17"/>
@@ -6269,33 +6289,34 @@
       <c r="DM31" s="17"/>
       <c r="DN31" s="17"/>
       <c r="DO31" s="17"/>
-      <c r="DP31" s="41"/>
-      <c r="DQ31" s="33"/>
-      <c r="DR31" s="32"/>
-      <c r="DS31" s="33"/>
-      <c r="DT31" s="32"/>
-      <c r="DU31" s="33"/>
-      <c r="DV31" s="32"/>
-      <c r="DW31" s="33"/>
+      <c r="DP31" s="17"/>
+      <c r="DQ31" s="40"/>
+      <c r="DR31" s="36"/>
+      <c r="DS31" s="35"/>
+      <c r="DT31" s="36"/>
+      <c r="DU31" s="35"/>
+      <c r="DV31" s="36"/>
+      <c r="DW31" s="32"/>
       <c r="DX31" s="33"/>
       <c r="DY31" s="33"/>
       <c r="DZ31" s="33"/>
       <c r="EA31" s="33"/>
-      <c r="EB31" s="34"/>
+      <c r="EB31" s="33"/>
+      <c r="EC31" s="34"/>
     </row>
-    <row r="32" spans="1:132">
-      <c r="A32" s="117"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="83" t="str">
+    <row r="32" spans="1:133">
+      <c r="A32" s="135"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>10A000</v>
-      </c>
-      <c r="D32" s="79">
+        <v>109800</v>
+      </c>
+      <c r="E32" s="79">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
@@ -6354,8 +6375,8 @@
       <c r="BJ32" s="15"/>
       <c r="BK32" s="15"/>
       <c r="BL32" s="15"/>
-      <c r="BM32" s="16"/>
-      <c r="BN32" s="17"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="16"/>
       <c r="BO32" s="17"/>
       <c r="BP32" s="17"/>
       <c r="BQ32" s="17"/>
@@ -6409,36 +6430,34 @@
       <c r="DM32" s="17"/>
       <c r="DN32" s="17"/>
       <c r="DO32" s="17"/>
-      <c r="DP32" s="41"/>
-      <c r="DQ32" s="33"/>
-      <c r="DR32" s="32"/>
-      <c r="DS32" s="33"/>
-      <c r="DT32" s="32"/>
-      <c r="DU32" s="33"/>
-      <c r="DV32" s="32"/>
-      <c r="DW32" s="33"/>
+      <c r="DP32" s="17"/>
+      <c r="DQ32" s="41"/>
+      <c r="DR32" s="33"/>
+      <c r="DS32" s="32"/>
+      <c r="DT32" s="33"/>
+      <c r="DU32" s="32"/>
+      <c r="DV32" s="33"/>
+      <c r="DW32" s="32"/>
       <c r="DX32" s="33"/>
       <c r="DY32" s="33"/>
       <c r="DZ32" s="33"/>
       <c r="EA32" s="33"/>
-      <c r="EB32" s="34"/>
+      <c r="EB32" s="33"/>
+      <c r="EC32" s="34"/>
     </row>
-    <row r="33" spans="1:134">
-      <c r="A33" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D33/16,1)*1048576+MOD(D33,16)*256*16)</f>
-        <v>10C000</v>
-      </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="83" t="str">
+    <row r="33" spans="1:135">
+      <c r="A33" s="135"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>10A800</v>
-      </c>
-      <c r="D33" s="79">
+        <v>10A000</v>
+      </c>
+      <c r="E33" s="79">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -6497,8 +6516,8 @@
       <c r="BJ33" s="15"/>
       <c r="BK33" s="15"/>
       <c r="BL33" s="15"/>
-      <c r="BM33" s="16"/>
-      <c r="BN33" s="17"/>
+      <c r="BM33" s="15"/>
+      <c r="BN33" s="16"/>
       <c r="BO33" s="17"/>
       <c r="BP33" s="17"/>
       <c r="BQ33" s="17"/>
@@ -6552,33 +6571,37 @@
       <c r="DM33" s="17"/>
       <c r="DN33" s="17"/>
       <c r="DO33" s="17"/>
-      <c r="DP33" s="41"/>
-      <c r="DQ33" s="33"/>
-      <c r="DR33" s="32"/>
-      <c r="DS33" s="33"/>
-      <c r="DT33" s="32"/>
-      <c r="DU33" s="33"/>
-      <c r="DV33" s="32"/>
-      <c r="DW33" s="33"/>
+      <c r="DP33" s="17"/>
+      <c r="DQ33" s="41"/>
+      <c r="DR33" s="33"/>
+      <c r="DS33" s="32"/>
+      <c r="DT33" s="33"/>
+      <c r="DU33" s="32"/>
+      <c r="DV33" s="33"/>
+      <c r="DW33" s="32"/>
       <c r="DX33" s="33"/>
       <c r="DY33" s="33"/>
       <c r="DZ33" s="33"/>
       <c r="EA33" s="33"/>
-      <c r="EB33" s="34"/>
+      <c r="EB33" s="33"/>
+      <c r="EC33" s="34"/>
     </row>
-    <row r="34" spans="1:134">
-      <c r="A34" s="116"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="83" t="str">
+    <row r="34" spans="1:135" ht="16" customHeight="1">
+      <c r="A34" s="135"/>
+      <c r="B34" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E34/16,1)*1048576+MOD(E34,16)*256*16)</f>
+        <v>10C000</v>
+      </c>
+      <c r="C34" s="126"/>
+      <c r="D34" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>10B000</v>
-      </c>
-      <c r="D34" s="79">
+        <v>10A800</v>
+      </c>
+      <c r="E34" s="79">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
@@ -6637,8 +6660,8 @@
       <c r="BJ34" s="15"/>
       <c r="BK34" s="15"/>
       <c r="BL34" s="15"/>
-      <c r="BM34" s="16"/>
-      <c r="BN34" s="17"/>
+      <c r="BM34" s="15"/>
+      <c r="BN34" s="16"/>
       <c r="BO34" s="17"/>
       <c r="BP34" s="17"/>
       <c r="BQ34" s="17"/>
@@ -6692,33 +6715,34 @@
       <c r="DM34" s="17"/>
       <c r="DN34" s="17"/>
       <c r="DO34" s="17"/>
-      <c r="DP34" s="41"/>
-      <c r="DQ34" s="33"/>
-      <c r="DR34" s="32"/>
-      <c r="DS34" s="33"/>
-      <c r="DT34" s="32"/>
-      <c r="DU34" s="33"/>
-      <c r="DV34" s="32"/>
-      <c r="DW34" s="33"/>
+      <c r="DP34" s="17"/>
+      <c r="DQ34" s="41"/>
+      <c r="DR34" s="33"/>
+      <c r="DS34" s="32"/>
+      <c r="DT34" s="33"/>
+      <c r="DU34" s="32"/>
+      <c r="DV34" s="33"/>
+      <c r="DW34" s="32"/>
       <c r="DX34" s="33"/>
       <c r="DY34" s="33"/>
       <c r="DZ34" s="33"/>
       <c r="EA34" s="33"/>
-      <c r="EB34" s="34"/>
+      <c r="EB34" s="33"/>
+      <c r="EC34" s="34"/>
     </row>
-    <row r="35" spans="1:134">
-      <c r="A35" s="116"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="83" t="str">
+    <row r="35" spans="1:135" ht="16" customHeight="1">
+      <c r="A35" s="135"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>10B800</v>
-      </c>
-      <c r="D35" s="79">
+        <v>10B000</v>
+      </c>
+      <c r="E35" s="79">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -6777,8 +6801,8 @@
       <c r="BJ35" s="15"/>
       <c r="BK35" s="15"/>
       <c r="BL35" s="15"/>
-      <c r="BM35" s="16"/>
-      <c r="BN35" s="17"/>
+      <c r="BM35" s="15"/>
+      <c r="BN35" s="16"/>
       <c r="BO35" s="17"/>
       <c r="BP35" s="17"/>
       <c r="BQ35" s="17"/>
@@ -6832,33 +6856,34 @@
       <c r="DM35" s="17"/>
       <c r="DN35" s="17"/>
       <c r="DO35" s="17"/>
-      <c r="DP35" s="41"/>
-      <c r="DQ35" s="33"/>
-      <c r="DR35" s="32"/>
-      <c r="DS35" s="33"/>
-      <c r="DT35" s="32"/>
-      <c r="DU35" s="33"/>
-      <c r="DV35" s="35"/>
-      <c r="DW35" s="36"/>
-      <c r="DX35" s="36"/>
-      <c r="DY35" s="36"/>
-      <c r="DZ35" s="36"/>
-      <c r="EA35" s="36"/>
-      <c r="EB35" s="34"/>
+      <c r="DP35" s="17"/>
+      <c r="DQ35" s="41"/>
+      <c r="DR35" s="33"/>
+      <c r="DS35" s="32"/>
+      <c r="DT35" s="33"/>
+      <c r="DU35" s="32"/>
+      <c r="DV35" s="33"/>
+      <c r="DW35" s="32"/>
+      <c r="DX35" s="33"/>
+      <c r="DY35" s="33"/>
+      <c r="DZ35" s="33"/>
+      <c r="EA35" s="33"/>
+      <c r="EB35" s="33"/>
+      <c r="EC35" s="34"/>
     </row>
-    <row r="36" spans="1:134" ht="17" customHeight="1" thickBot="1">
-      <c r="A36" s="118"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="84" t="str">
+    <row r="36" spans="1:135">
+      <c r="A36" s="135"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>10C000</v>
-      </c>
-      <c r="D36" s="80">
+        <v>10B800</v>
+      </c>
+      <c r="E36" s="79">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
@@ -6917,8 +6942,8 @@
       <c r="BJ36" s="15"/>
       <c r="BK36" s="15"/>
       <c r="BL36" s="15"/>
-      <c r="BM36" s="16"/>
-      <c r="BN36" s="17"/>
+      <c r="BM36" s="15"/>
+      <c r="BN36" s="16"/>
       <c r="BO36" s="17"/>
       <c r="BP36" s="17"/>
       <c r="BQ36" s="17"/>
@@ -6972,41 +6997,34 @@
       <c r="DM36" s="17"/>
       <c r="DN36" s="17"/>
       <c r="DO36" s="17"/>
-      <c r="DP36" s="41"/>
-      <c r="DQ36" s="33"/>
-      <c r="DR36" s="32"/>
-      <c r="DS36" s="33"/>
-      <c r="DT36" s="32"/>
-      <c r="DU36" s="33"/>
-      <c r="DV36" s="32"/>
-      <c r="DW36" s="33"/>
-      <c r="DX36" s="33"/>
-      <c r="DY36" s="33"/>
-      <c r="DZ36" s="33"/>
-      <c r="EA36" s="33"/>
-      <c r="EB36" s="34"/>
-      <c r="ED36" s="114" t="s">
-        <v>11</v>
-      </c>
+      <c r="DP36" s="17"/>
+      <c r="DQ36" s="41"/>
+      <c r="DR36" s="33"/>
+      <c r="DS36" s="32"/>
+      <c r="DT36" s="33"/>
+      <c r="DU36" s="32"/>
+      <c r="DV36" s="33"/>
+      <c r="DW36" s="35"/>
+      <c r="DX36" s="36"/>
+      <c r="DY36" s="36"/>
+      <c r="DZ36" s="36"/>
+      <c r="EA36" s="36"/>
+      <c r="EB36" s="36"/>
+      <c r="EC36" s="34"/>
     </row>
-    <row r="37" spans="1:134" ht="17" customHeight="1">
-      <c r="A37" s="119" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D37/16,1)*1048576+MOD(D37,16)*256*16)</f>
-        <v>200000</v>
-      </c>
-      <c r="B37" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="82" t="str">
+    <row r="37" spans="1:135" ht="17" customHeight="1" thickBot="1">
+      <c r="A37" s="136"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="84" t="str">
         <f t="shared" si="3"/>
-        <v>204800</v>
-      </c>
-      <c r="D37" s="78">
+        <v>10C000</v>
+      </c>
+      <c r="E37" s="80">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
@@ -7065,8 +7083,8 @@
       <c r="BJ37" s="15"/>
       <c r="BK37" s="15"/>
       <c r="BL37" s="15"/>
-      <c r="BM37" s="16"/>
-      <c r="BN37" s="17"/>
+      <c r="BM37" s="15"/>
+      <c r="BN37" s="16"/>
       <c r="BO37" s="17"/>
       <c r="BP37" s="17"/>
       <c r="BQ37" s="17"/>
@@ -7120,34 +7138,45 @@
       <c r="DM37" s="17"/>
       <c r="DN37" s="17"/>
       <c r="DO37" s="17"/>
-      <c r="DP37" s="40"/>
-      <c r="DQ37" s="36"/>
-      <c r="DR37" s="35"/>
-      <c r="DS37" s="36"/>
-      <c r="DT37" s="35"/>
-      <c r="DU37" s="36"/>
-      <c r="DV37" s="32"/>
-      <c r="DW37" s="33"/>
+      <c r="DP37" s="17"/>
+      <c r="DQ37" s="41"/>
+      <c r="DR37" s="33"/>
+      <c r="DS37" s="32"/>
+      <c r="DT37" s="33"/>
+      <c r="DU37" s="32"/>
+      <c r="DV37" s="33"/>
+      <c r="DW37" s="32"/>
       <c r="DX37" s="33"/>
       <c r="DY37" s="33"/>
       <c r="DZ37" s="33"/>
       <c r="EA37" s="33"/>
-      <c r="EB37" s="34"/>
-      <c r="ED37" s="114"/>
+      <c r="EB37" s="33"/>
+      <c r="EC37" s="34"/>
+      <c r="EE37" s="112" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="38" spans="1:134">
-      <c r="A38" s="116"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="83" t="str">
+    <row r="38" spans="1:135" ht="17" customHeight="1">
+      <c r="A38" s="134" t="str">
+        <f>DEC2HEX(HEX2DEC(A$6)+FLOOR(E38/16,1)*1048576+MOD(E38,16)*256*16)</f>
+        <v>20C800</v>
+      </c>
+      <c r="B38" s="107" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E38/16,1)*1048576+MOD(E38,16)*256*16)</f>
+        <v>200000</v>
+      </c>
+      <c r="C38" s="122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="82" t="str">
         <f t="shared" si="3"/>
-        <v>205000</v>
-      </c>
-      <c r="D38" s="79">
+        <v>204800</v>
+      </c>
+      <c r="E38" s="78">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -7206,8 +7235,8 @@
       <c r="BJ38" s="15"/>
       <c r="BK38" s="15"/>
       <c r="BL38" s="15"/>
-      <c r="BM38" s="16"/>
-      <c r="BN38" s="17"/>
+      <c r="BM38" s="15"/>
+      <c r="BN38" s="16"/>
       <c r="BO38" s="17"/>
       <c r="BP38" s="17"/>
       <c r="BQ38" s="17"/>
@@ -7261,33 +7290,35 @@
       <c r="DM38" s="17"/>
       <c r="DN38" s="17"/>
       <c r="DO38" s="17"/>
-      <c r="DP38" s="41"/>
-      <c r="DQ38" s="35"/>
-      <c r="DR38" s="32"/>
+      <c r="DP38" s="17"/>
+      <c r="DQ38" s="40"/>
+      <c r="DR38" s="36"/>
       <c r="DS38" s="35"/>
-      <c r="DT38" s="32"/>
+      <c r="DT38" s="36"/>
       <c r="DU38" s="35"/>
-      <c r="DV38" s="32"/>
-      <c r="DW38" s="33"/>
+      <c r="DV38" s="36"/>
+      <c r="DW38" s="32"/>
       <c r="DX38" s="33"/>
       <c r="DY38" s="33"/>
       <c r="DZ38" s="33"/>
       <c r="EA38" s="33"/>
-      <c r="EB38" s="34"/>
+      <c r="EB38" s="33"/>
+      <c r="EC38" s="34"/>
+      <c r="EE38" s="112"/>
     </row>
-    <row r="39" spans="1:134">
-      <c r="A39" s="116"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="83" t="str">
+    <row r="39" spans="1:135" ht="16" customHeight="1">
+      <c r="A39" s="135"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>205800</v>
-      </c>
-      <c r="D39" s="79">
+        <v>205000</v>
+      </c>
+      <c r="E39" s="79">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -7346,8 +7377,8 @@
       <c r="BJ39" s="15"/>
       <c r="BK39" s="15"/>
       <c r="BL39" s="15"/>
-      <c r="BM39" s="16"/>
-      <c r="BN39" s="17"/>
+      <c r="BM39" s="15"/>
+      <c r="BN39" s="16"/>
       <c r="BO39" s="17"/>
       <c r="BP39" s="17"/>
       <c r="BQ39" s="17"/>
@@ -7401,33 +7432,34 @@
       <c r="DM39" s="17"/>
       <c r="DN39" s="17"/>
       <c r="DO39" s="17"/>
-      <c r="DP39" s="41"/>
-      <c r="DQ39" s="32"/>
-      <c r="DR39" s="32"/>
+      <c r="DP39" s="17"/>
+      <c r="DQ39" s="41"/>
+      <c r="DR39" s="35"/>
       <c r="DS39" s="32"/>
-      <c r="DT39" s="32"/>
+      <c r="DT39" s="35"/>
       <c r="DU39" s="32"/>
-      <c r="DV39" s="32"/>
-      <c r="DW39" s="33"/>
+      <c r="DV39" s="35"/>
+      <c r="DW39" s="32"/>
       <c r="DX39" s="33"/>
       <c r="DY39" s="33"/>
       <c r="DZ39" s="33"/>
       <c r="EA39" s="33"/>
-      <c r="EB39" s="34"/>
+      <c r="EB39" s="33"/>
+      <c r="EC39" s="34"/>
     </row>
-    <row r="40" spans="1:134">
-      <c r="A40" s="117"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="83" t="str">
+    <row r="40" spans="1:135">
+      <c r="A40" s="135"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>206000</v>
-      </c>
-      <c r="D40" s="79">
+        <v>205800</v>
+      </c>
+      <c r="E40" s="79">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="F40" s="14"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
@@ -7486,8 +7518,8 @@
       <c r="BJ40" s="15"/>
       <c r="BK40" s="15"/>
       <c r="BL40" s="15"/>
-      <c r="BM40" s="16"/>
-      <c r="BN40" s="17"/>
+      <c r="BM40" s="15"/>
+      <c r="BN40" s="16"/>
       <c r="BO40" s="17"/>
       <c r="BP40" s="17"/>
       <c r="BQ40" s="17"/>
@@ -7541,36 +7573,34 @@
       <c r="DM40" s="17"/>
       <c r="DN40" s="17"/>
       <c r="DO40" s="17"/>
-      <c r="DP40" s="41"/>
-      <c r="DQ40" s="32"/>
+      <c r="DP40" s="17"/>
+      <c r="DQ40" s="41"/>
       <c r="DR40" s="32"/>
       <c r="DS40" s="32"/>
       <c r="DT40" s="32"/>
       <c r="DU40" s="32"/>
       <c r="DV40" s="32"/>
-      <c r="DW40" s="33"/>
+      <c r="DW40" s="32"/>
       <c r="DX40" s="33"/>
       <c r="DY40" s="33"/>
       <c r="DZ40" s="33"/>
       <c r="EA40" s="33"/>
-      <c r="EB40" s="34"/>
+      <c r="EB40" s="33"/>
+      <c r="EC40" s="34"/>
     </row>
-    <row r="41" spans="1:134">
-      <c r="A41" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D41/16,1)*1048576+MOD(D41,16)*256*16)</f>
-        <v>204000</v>
-      </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="83" t="str">
+    <row r="41" spans="1:135">
+      <c r="A41" s="135"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>206800</v>
-      </c>
-      <c r="D41" s="79">
+        <v>206000</v>
+      </c>
+      <c r="E41" s="79">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
@@ -7629,8 +7659,8 @@
       <c r="BJ41" s="15"/>
       <c r="BK41" s="15"/>
       <c r="BL41" s="15"/>
-      <c r="BM41" s="16"/>
-      <c r="BN41" s="17"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="16"/>
       <c r="BO41" s="17"/>
       <c r="BP41" s="17"/>
       <c r="BQ41" s="17"/>
@@ -7684,33 +7714,37 @@
       <c r="DM41" s="17"/>
       <c r="DN41" s="17"/>
       <c r="DO41" s="17"/>
-      <c r="DP41" s="41"/>
-      <c r="DQ41" s="32"/>
+      <c r="DP41" s="17"/>
+      <c r="DQ41" s="41"/>
       <c r="DR41" s="32"/>
       <c r="DS41" s="32"/>
       <c r="DT41" s="32"/>
       <c r="DU41" s="32"/>
       <c r="DV41" s="32"/>
-      <c r="DW41" s="33"/>
+      <c r="DW41" s="32"/>
       <c r="DX41" s="33"/>
       <c r="DY41" s="33"/>
       <c r="DZ41" s="33"/>
       <c r="EA41" s="33"/>
-      <c r="EB41" s="34"/>
+      <c r="EB41" s="33"/>
+      <c r="EC41" s="34"/>
     </row>
-    <row r="42" spans="1:134">
-      <c r="A42" s="116"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="83" t="str">
+    <row r="42" spans="1:135" ht="16" customHeight="1">
+      <c r="A42" s="135"/>
+      <c r="B42" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E42/16,1)*1048576+MOD(E42,16)*256*16)</f>
+        <v>204000</v>
+      </c>
+      <c r="C42" s="123"/>
+      <c r="D42" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>207000</v>
-      </c>
-      <c r="D42" s="79">
+        <v>206800</v>
+      </c>
+      <c r="E42" s="79">
         <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -7769,8 +7803,8 @@
       <c r="BJ42" s="15"/>
       <c r="BK42" s="15"/>
       <c r="BL42" s="15"/>
-      <c r="BM42" s="16"/>
-      <c r="BN42" s="17"/>
+      <c r="BM42" s="15"/>
+      <c r="BN42" s="16"/>
       <c r="BO42" s="17"/>
       <c r="BP42" s="17"/>
       <c r="BQ42" s="17"/>
@@ -7824,33 +7858,34 @@
       <c r="DM42" s="17"/>
       <c r="DN42" s="17"/>
       <c r="DO42" s="17"/>
-      <c r="DP42" s="41"/>
-      <c r="DQ42" s="32"/>
+      <c r="DP42" s="17"/>
+      <c r="DQ42" s="41"/>
       <c r="DR42" s="32"/>
       <c r="DS42" s="32"/>
       <c r="DT42" s="32"/>
       <c r="DU42" s="32"/>
       <c r="DV42" s="32"/>
-      <c r="DW42" s="33"/>
+      <c r="DW42" s="32"/>
       <c r="DX42" s="33"/>
       <c r="DY42" s="33"/>
       <c r="DZ42" s="33"/>
       <c r="EA42" s="33"/>
-      <c r="EB42" s="34"/>
+      <c r="EB42" s="33"/>
+      <c r="EC42" s="34"/>
     </row>
-    <row r="43" spans="1:134">
-      <c r="A43" s="116"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="83" t="str">
+    <row r="43" spans="1:135" ht="16" customHeight="1">
+      <c r="A43" s="135"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>207800</v>
-      </c>
-      <c r="D43" s="79">
+        <v>207000</v>
+      </c>
+      <c r="E43" s="79">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
@@ -7909,11 +7944,11 @@
       <c r="BJ43" s="15"/>
       <c r="BK43" s="15"/>
       <c r="BL43" s="15"/>
-      <c r="BM43" s="16"/>
-      <c r="BN43" s="17"/>
+      <c r="BM43" s="15"/>
+      <c r="BN43" s="16"/>
       <c r="BO43" s="17"/>
       <c r="BP43" s="17"/>
-      <c r="BQ43" s="20"/>
+      <c r="BQ43" s="17"/>
       <c r="BR43" s="17"/>
       <c r="BS43" s="17"/>
       <c r="BT43" s="17"/>
@@ -7964,33 +7999,34 @@
       <c r="DM43" s="17"/>
       <c r="DN43" s="17"/>
       <c r="DO43" s="17"/>
-      <c r="DP43" s="41"/>
-      <c r="DQ43" s="32"/>
+      <c r="DP43" s="17"/>
+      <c r="DQ43" s="41"/>
       <c r="DR43" s="32"/>
       <c r="DS43" s="32"/>
       <c r="DT43" s="32"/>
       <c r="DU43" s="32"/>
       <c r="DV43" s="32"/>
-      <c r="DW43" s="33"/>
+      <c r="DW43" s="32"/>
       <c r="DX43" s="33"/>
       <c r="DY43" s="33"/>
       <c r="DZ43" s="33"/>
       <c r="EA43" s="33"/>
-      <c r="EB43" s="34"/>
+      <c r="EB43" s="33"/>
+      <c r="EC43" s="34"/>
     </row>
-    <row r="44" spans="1:134">
-      <c r="A44" s="117"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="83" t="str">
+    <row r="44" spans="1:135">
+      <c r="A44" s="135"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>208000</v>
-      </c>
-      <c r="D44" s="79">
+        <v>207800</v>
+      </c>
+      <c r="E44" s="79">
         <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -8049,12 +8085,12 @@
       <c r="BJ44" s="15"/>
       <c r="BK44" s="15"/>
       <c r="BL44" s="15"/>
-      <c r="BM44" s="16"/>
-      <c r="BN44" s="17"/>
+      <c r="BM44" s="15"/>
+      <c r="BN44" s="16"/>
       <c r="BO44" s="17"/>
       <c r="BP44" s="17"/>
-      <c r="BQ44" s="20"/>
-      <c r="BR44" s="17"/>
+      <c r="BQ44" s="17"/>
+      <c r="BR44" s="20"/>
       <c r="BS44" s="17"/>
       <c r="BT44" s="17"/>
       <c r="BU44" s="17"/>
@@ -8104,36 +8140,34 @@
       <c r="DM44" s="17"/>
       <c r="DN44" s="17"/>
       <c r="DO44" s="17"/>
-      <c r="DP44" s="18"/>
-      <c r="DQ44" s="32"/>
-      <c r="DR44" s="37"/>
+      <c r="DP44" s="17"/>
+      <c r="DQ44" s="41"/>
+      <c r="DR44" s="32"/>
       <c r="DS44" s="32"/>
-      <c r="DT44" s="37"/>
+      <c r="DT44" s="32"/>
       <c r="DU44" s="32"/>
-      <c r="DV44" s="33"/>
-      <c r="DW44" s="33"/>
+      <c r="DV44" s="32"/>
+      <c r="DW44" s="32"/>
       <c r="DX44" s="33"/>
       <c r="DY44" s="33"/>
       <c r="DZ44" s="33"/>
-      <c r="EA44" s="37"/>
-      <c r="EB44" s="34"/>
+      <c r="EA44" s="33"/>
+      <c r="EB44" s="33"/>
+      <c r="EC44" s="34"/>
     </row>
-    <row r="45" spans="1:134">
-      <c r="A45" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D45/16,1)*1048576+MOD(D45,16)*256*16)</f>
+    <row r="45" spans="1:135">
+      <c r="A45" s="135"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="83" t="str">
+        <f t="shared" si="3"/>
         <v>208000</v>
       </c>
-      <c r="B45" s="98"/>
-      <c r="C45" s="83" t="str">
-        <f t="shared" si="3"/>
-        <v>208800</v>
-      </c>
-      <c r="D45" s="79">
+      <c r="E45" s="79">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
@@ -8192,12 +8226,12 @@
       <c r="BJ45" s="15"/>
       <c r="BK45" s="15"/>
       <c r="BL45" s="15"/>
-      <c r="BM45" s="16"/>
-      <c r="BN45" s="17"/>
+      <c r="BM45" s="15"/>
+      <c r="BN45" s="16"/>
       <c r="BO45" s="17"/>
       <c r="BP45" s="17"/>
       <c r="BQ45" s="17"/>
-      <c r="BR45" s="17"/>
+      <c r="BR45" s="20"/>
       <c r="BS45" s="17"/>
       <c r="BT45" s="17"/>
       <c r="BU45" s="17"/>
@@ -8247,33 +8281,37 @@
       <c r="DM45" s="17"/>
       <c r="DN45" s="17"/>
       <c r="DO45" s="17"/>
-      <c r="DP45" s="18"/>
-      <c r="DQ45" s="37"/>
-      <c r="DR45" s="37"/>
+      <c r="DP45" s="17"/>
+      <c r="DQ45" s="18"/>
+      <c r="DR45" s="32"/>
       <c r="DS45" s="37"/>
-      <c r="DT45" s="37"/>
+      <c r="DT45" s="32"/>
       <c r="DU45" s="37"/>
-      <c r="DV45" s="37"/>
-      <c r="DW45" s="37"/>
-      <c r="DX45" s="37"/>
-      <c r="DY45" s="37"/>
-      <c r="DZ45" s="37"/>
-      <c r="EA45" s="37"/>
-      <c r="EB45" s="34"/>
+      <c r="DV45" s="32"/>
+      <c r="DW45" s="33"/>
+      <c r="DX45" s="33"/>
+      <c r="DY45" s="33"/>
+      <c r="DZ45" s="33"/>
+      <c r="EA45" s="33"/>
+      <c r="EB45" s="37"/>
+      <c r="EC45" s="34"/>
     </row>
-    <row r="46" spans="1:134">
-      <c r="A46" s="116"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="83" t="str">
+    <row r="46" spans="1:135" ht="16" customHeight="1">
+      <c r="A46" s="135"/>
+      <c r="B46" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E46/16,1)*1048576+MOD(E46,16)*256*16)</f>
+        <v>208000</v>
+      </c>
+      <c r="C46" s="123"/>
+      <c r="D46" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>209000</v>
-      </c>
-      <c r="D46" s="79">
+        <v>208800</v>
+      </c>
+      <c r="E46" s="79">
         <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
@@ -8332,8 +8370,8 @@
       <c r="BJ46" s="15"/>
       <c r="BK46" s="15"/>
       <c r="BL46" s="15"/>
-      <c r="BM46" s="16"/>
-      <c r="BN46" s="17"/>
+      <c r="BM46" s="15"/>
+      <c r="BN46" s="16"/>
       <c r="BO46" s="17"/>
       <c r="BP46" s="17"/>
       <c r="BQ46" s="17"/>
@@ -8387,8 +8425,8 @@
       <c r="DM46" s="17"/>
       <c r="DN46" s="17"/>
       <c r="DO46" s="17"/>
-      <c r="DP46" s="18"/>
-      <c r="DQ46" s="37"/>
+      <c r="DP46" s="17"/>
+      <c r="DQ46" s="18"/>
       <c r="DR46" s="37"/>
       <c r="DS46" s="37"/>
       <c r="DT46" s="37"/>
@@ -8399,21 +8437,22 @@
       <c r="DY46" s="37"/>
       <c r="DZ46" s="37"/>
       <c r="EA46" s="37"/>
-      <c r="EB46" s="34"/>
+      <c r="EB46" s="37"/>
+      <c r="EC46" s="34"/>
     </row>
-    <row r="47" spans="1:134">
-      <c r="A47" s="116"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="83" t="str">
+    <row r="47" spans="1:135" ht="16" customHeight="1">
+      <c r="A47" s="135"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>209800</v>
-      </c>
-      <c r="D47" s="79">
+        <v>209000</v>
+      </c>
+      <c r="E47" s="79">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
+        <v>41</v>
+      </c>
+      <c r="F47" s="14"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
@@ -8472,8 +8511,8 @@
       <c r="BJ47" s="15"/>
       <c r="BK47" s="15"/>
       <c r="BL47" s="15"/>
-      <c r="BM47" s="16"/>
-      <c r="BN47" s="17"/>
+      <c r="BM47" s="15"/>
+      <c r="BN47" s="16"/>
       <c r="BO47" s="17"/>
       <c r="BP47" s="17"/>
       <c r="BQ47" s="17"/>
@@ -8527,8 +8566,8 @@
       <c r="DM47" s="17"/>
       <c r="DN47" s="17"/>
       <c r="DO47" s="17"/>
-      <c r="DP47" s="18"/>
-      <c r="DQ47" s="37"/>
+      <c r="DP47" s="17"/>
+      <c r="DQ47" s="18"/>
       <c r="DR47" s="37"/>
       <c r="DS47" s="37"/>
       <c r="DT47" s="37"/>
@@ -8539,21 +8578,22 @@
       <c r="DY47" s="37"/>
       <c r="DZ47" s="37"/>
       <c r="EA47" s="37"/>
-      <c r="EB47" s="34"/>
+      <c r="EB47" s="37"/>
+      <c r="EC47" s="34"/>
     </row>
-    <row r="48" spans="1:134">
-      <c r="A48" s="117"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="83" t="str">
+    <row r="48" spans="1:135">
+      <c r="A48" s="135"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>20A000</v>
-      </c>
-      <c r="D48" s="79">
+        <v>209800</v>
+      </c>
+      <c r="E48" s="79">
         <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
@@ -8612,8 +8652,8 @@
       <c r="BJ48" s="15"/>
       <c r="BK48" s="15"/>
       <c r="BL48" s="15"/>
-      <c r="BM48" s="16"/>
-      <c r="BN48" s="17"/>
+      <c r="BM48" s="15"/>
+      <c r="BN48" s="16"/>
       <c r="BO48" s="17"/>
       <c r="BP48" s="17"/>
       <c r="BQ48" s="17"/>
@@ -8667,8 +8707,8 @@
       <c r="DM48" s="17"/>
       <c r="DN48" s="17"/>
       <c r="DO48" s="17"/>
-      <c r="DP48" s="18"/>
-      <c r="DQ48" s="37"/>
+      <c r="DP48" s="17"/>
+      <c r="DQ48" s="18"/>
       <c r="DR48" s="37"/>
       <c r="DS48" s="37"/>
       <c r="DT48" s="37"/>
@@ -8679,24 +8719,22 @@
       <c r="DY48" s="37"/>
       <c r="DZ48" s="37"/>
       <c r="EA48" s="37"/>
-      <c r="EB48" s="34"/>
+      <c r="EB48" s="37"/>
+      <c r="EC48" s="34"/>
     </row>
-    <row r="49" spans="1:132">
-      <c r="A49" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D49/16,1)*1048576+MOD(D49,16)*256*16)</f>
-        <v>20C000</v>
-      </c>
-      <c r="B49" s="98"/>
-      <c r="C49" s="83" t="str">
+    <row r="49" spans="1:133">
+      <c r="A49" s="135"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>20A800</v>
-      </c>
-      <c r="D49" s="79">
+        <v>20A000</v>
+      </c>
+      <c r="E49" s="79">
         <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
@@ -8755,8 +8793,8 @@
       <c r="BJ49" s="15"/>
       <c r="BK49" s="15"/>
       <c r="BL49" s="15"/>
-      <c r="BM49" s="16"/>
-      <c r="BN49" s="17"/>
+      <c r="BM49" s="15"/>
+      <c r="BN49" s="16"/>
       <c r="BO49" s="17"/>
       <c r="BP49" s="17"/>
       <c r="BQ49" s="17"/>
@@ -8810,8 +8848,8 @@
       <c r="DM49" s="17"/>
       <c r="DN49" s="17"/>
       <c r="DO49" s="17"/>
-      <c r="DP49" s="18"/>
-      <c r="DQ49" s="37"/>
+      <c r="DP49" s="17"/>
+      <c r="DQ49" s="18"/>
       <c r="DR49" s="37"/>
       <c r="DS49" s="37"/>
       <c r="DT49" s="37"/>
@@ -8822,21 +8860,25 @@
       <c r="DY49" s="37"/>
       <c r="DZ49" s="37"/>
       <c r="EA49" s="37"/>
-      <c r="EB49" s="34"/>
+      <c r="EB49" s="37"/>
+      <c r="EC49" s="34"/>
     </row>
-    <row r="50" spans="1:132">
-      <c r="A50" s="116"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="83" t="str">
+    <row r="50" spans="1:133" ht="16" customHeight="1">
+      <c r="A50" s="135"/>
+      <c r="B50" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E50/16,1)*1048576+MOD(E50,16)*256*16)</f>
+        <v>20C000</v>
+      </c>
+      <c r="C50" s="123"/>
+      <c r="D50" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>20B000</v>
-      </c>
-      <c r="D50" s="79">
+        <v>20A800</v>
+      </c>
+      <c r="E50" s="79">
         <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -8895,8 +8937,8 @@
       <c r="BJ50" s="15"/>
       <c r="BK50" s="15"/>
       <c r="BL50" s="15"/>
-      <c r="BM50" s="16"/>
-      <c r="BN50" s="17"/>
+      <c r="BM50" s="15"/>
+      <c r="BN50" s="16"/>
       <c r="BO50" s="17"/>
       <c r="BP50" s="17"/>
       <c r="BQ50" s="17"/>
@@ -8950,8 +8992,8 @@
       <c r="DM50" s="17"/>
       <c r="DN50" s="17"/>
       <c r="DO50" s="17"/>
-      <c r="DP50" s="18"/>
-      <c r="DQ50" s="37"/>
+      <c r="DP50" s="17"/>
+      <c r="DQ50" s="18"/>
       <c r="DR50" s="37"/>
       <c r="DS50" s="37"/>
       <c r="DT50" s="37"/>
@@ -8962,21 +9004,22 @@
       <c r="DY50" s="37"/>
       <c r="DZ50" s="37"/>
       <c r="EA50" s="37"/>
-      <c r="EB50" s="34"/>
+      <c r="EB50" s="37"/>
+      <c r="EC50" s="34"/>
     </row>
-    <row r="51" spans="1:132">
-      <c r="A51" s="116"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="83" t="str">
+    <row r="51" spans="1:133" ht="16" customHeight="1">
+      <c r="A51" s="135"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>20B800</v>
-      </c>
-      <c r="D51" s="79">
+        <v>20B000</v>
+      </c>
+      <c r="E51" s="79">
         <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -9035,8 +9078,8 @@
       <c r="BJ51" s="15"/>
       <c r="BK51" s="15"/>
       <c r="BL51" s="15"/>
-      <c r="BM51" s="16"/>
-      <c r="BN51" s="17"/>
+      <c r="BM51" s="15"/>
+      <c r="BN51" s="16"/>
       <c r="BO51" s="17"/>
       <c r="BP51" s="17"/>
       <c r="BQ51" s="17"/>
@@ -9090,8 +9133,8 @@
       <c r="DM51" s="17"/>
       <c r="DN51" s="17"/>
       <c r="DO51" s="17"/>
-      <c r="DP51" s="18"/>
-      <c r="DQ51" s="37"/>
+      <c r="DP51" s="17"/>
+      <c r="DQ51" s="18"/>
       <c r="DR51" s="37"/>
       <c r="DS51" s="37"/>
       <c r="DT51" s="37"/>
@@ -9102,21 +9145,22 @@
       <c r="DY51" s="37"/>
       <c r="DZ51" s="37"/>
       <c r="EA51" s="37"/>
-      <c r="EB51" s="34"/>
+      <c r="EB51" s="37"/>
+      <c r="EC51" s="34"/>
     </row>
-    <row r="52" spans="1:132" ht="17" thickBot="1">
-      <c r="A52" s="118"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="84" t="str">
+    <row r="52" spans="1:133">
+      <c r="A52" s="135"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>20C000</v>
-      </c>
-      <c r="D52" s="80">
+        <v>20B800</v>
+      </c>
+      <c r="E52" s="79">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -9175,8 +9219,8 @@
       <c r="BJ52" s="15"/>
       <c r="BK52" s="15"/>
       <c r="BL52" s="15"/>
-      <c r="BM52" s="16"/>
-      <c r="BN52" s="17"/>
+      <c r="BM52" s="15"/>
+      <c r="BN52" s="16"/>
       <c r="BO52" s="17"/>
       <c r="BP52" s="17"/>
       <c r="BQ52" s="17"/>
@@ -9230,8 +9274,8 @@
       <c r="DM52" s="17"/>
       <c r="DN52" s="17"/>
       <c r="DO52" s="17"/>
-      <c r="DP52" s="18"/>
-      <c r="DQ52" s="37"/>
+      <c r="DP52" s="17"/>
+      <c r="DQ52" s="18"/>
       <c r="DR52" s="37"/>
       <c r="DS52" s="37"/>
       <c r="DT52" s="37"/>
@@ -9242,26 +9286,22 @@
       <c r="DY52" s="37"/>
       <c r="DZ52" s="37"/>
       <c r="EA52" s="37"/>
-      <c r="EB52" s="34"/>
+      <c r="EB52" s="37"/>
+      <c r="EC52" s="34"/>
     </row>
-    <row r="53" spans="1:132">
-      <c r="A53" s="119" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D53/16,1)*1048576+MOD(D53,16)*256*16)</f>
-        <v>300000</v>
-      </c>
-      <c r="B53" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="82" t="str">
+    <row r="53" spans="1:133" ht="17" thickBot="1">
+      <c r="A53" s="136"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="84" t="str">
         <f t="shared" si="3"/>
-        <v>304800</v>
-      </c>
-      <c r="D53" s="78">
+        <v>20C000</v>
+      </c>
+      <c r="E53" s="80">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
@@ -9320,8 +9360,8 @@
       <c r="BJ53" s="15"/>
       <c r="BK53" s="15"/>
       <c r="BL53" s="15"/>
-      <c r="BM53" s="16"/>
-      <c r="BN53" s="17"/>
+      <c r="BM53" s="15"/>
+      <c r="BN53" s="16"/>
       <c r="BO53" s="17"/>
       <c r="BP53" s="17"/>
       <c r="BQ53" s="17"/>
@@ -9375,8 +9415,8 @@
       <c r="DM53" s="17"/>
       <c r="DN53" s="17"/>
       <c r="DO53" s="17"/>
-      <c r="DP53" s="18"/>
-      <c r="DQ53" s="37"/>
+      <c r="DP53" s="17"/>
+      <c r="DQ53" s="18"/>
       <c r="DR53" s="37"/>
       <c r="DS53" s="37"/>
       <c r="DT53" s="37"/>
@@ -9387,21 +9427,30 @@
       <c r="DY53" s="37"/>
       <c r="DZ53" s="37"/>
       <c r="EA53" s="37"/>
-      <c r="EB53" s="34"/>
+      <c r="EB53" s="37"/>
+      <c r="EC53" s="34"/>
     </row>
-    <row r="54" spans="1:132">
-      <c r="A54" s="116"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="83" t="str">
+    <row r="54" spans="1:133" ht="16" customHeight="1">
+      <c r="A54" s="134" t="str">
+        <f>DEC2HEX(HEX2DEC(A$6)+FLOOR(E54/16,1)*1048576+MOD(E54,16)*256*16)</f>
+        <v>30C800</v>
+      </c>
+      <c r="B54" s="107" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E54/16,1)*1048576+MOD(E54,16)*256*16)</f>
+        <v>300000</v>
+      </c>
+      <c r="C54" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="82" t="str">
         <f t="shared" si="3"/>
-        <v>305000</v>
-      </c>
-      <c r="D54" s="79">
+        <v>304800</v>
+      </c>
+      <c r="E54" s="78">
         <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
@@ -9460,8 +9509,8 @@
       <c r="BJ54" s="15"/>
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
-      <c r="BM54" s="16"/>
-      <c r="BN54" s="17"/>
+      <c r="BM54" s="15"/>
+      <c r="BN54" s="16"/>
       <c r="BO54" s="17"/>
       <c r="BP54" s="17"/>
       <c r="BQ54" s="17"/>
@@ -9515,8 +9564,8 @@
       <c r="DM54" s="17"/>
       <c r="DN54" s="17"/>
       <c r="DO54" s="17"/>
-      <c r="DP54" s="18"/>
-      <c r="DQ54" s="37"/>
+      <c r="DP54" s="17"/>
+      <c r="DQ54" s="18"/>
       <c r="DR54" s="37"/>
       <c r="DS54" s="37"/>
       <c r="DT54" s="37"/>
@@ -9527,21 +9576,22 @@
       <c r="DY54" s="37"/>
       <c r="DZ54" s="37"/>
       <c r="EA54" s="37"/>
-      <c r="EB54" s="34"/>
+      <c r="EB54" s="37"/>
+      <c r="EC54" s="34"/>
     </row>
-    <row r="55" spans="1:132">
-      <c r="A55" s="116"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="83" t="str">
+    <row r="55" spans="1:133" ht="16" customHeight="1">
+      <c r="A55" s="135"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>305800</v>
-      </c>
-      <c r="D55" s="79">
+        <v>305000</v>
+      </c>
+      <c r="E55" s="79">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -9600,8 +9650,8 @@
       <c r="BJ55" s="15"/>
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
-      <c r="BM55" s="16"/>
-      <c r="BN55" s="17"/>
+      <c r="BM55" s="15"/>
+      <c r="BN55" s="16"/>
       <c r="BO55" s="17"/>
       <c r="BP55" s="17"/>
       <c r="BQ55" s="17"/>
@@ -9655,8 +9705,8 @@
       <c r="DM55" s="17"/>
       <c r="DN55" s="17"/>
       <c r="DO55" s="17"/>
-      <c r="DP55" s="18"/>
-      <c r="DQ55" s="37"/>
+      <c r="DP55" s="17"/>
+      <c r="DQ55" s="18"/>
       <c r="DR55" s="37"/>
       <c r="DS55" s="37"/>
       <c r="DT55" s="37"/>
@@ -9667,21 +9717,22 @@
       <c r="DY55" s="37"/>
       <c r="DZ55" s="37"/>
       <c r="EA55" s="37"/>
-      <c r="EB55" s="34"/>
+      <c r="EB55" s="37"/>
+      <c r="EC55" s="34"/>
     </row>
-    <row r="56" spans="1:132">
-      <c r="A56" s="117"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="83" t="str">
+    <row r="56" spans="1:133">
+      <c r="A56" s="135"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>306000</v>
-      </c>
-      <c r="D56" s="79">
+        <v>305800</v>
+      </c>
+      <c r="E56" s="79">
         <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
@@ -9740,8 +9791,8 @@
       <c r="BJ56" s="15"/>
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
-      <c r="BM56" s="16"/>
-      <c r="BN56" s="17"/>
+      <c r="BM56" s="15"/>
+      <c r="BN56" s="16"/>
       <c r="BO56" s="17"/>
       <c r="BP56" s="17"/>
       <c r="BQ56" s="17"/>
@@ -9795,8 +9846,8 @@
       <c r="DM56" s="17"/>
       <c r="DN56" s="17"/>
       <c r="DO56" s="17"/>
-      <c r="DP56" s="18"/>
-      <c r="DQ56" s="37"/>
+      <c r="DP56" s="17"/>
+      <c r="DQ56" s="18"/>
       <c r="DR56" s="37"/>
       <c r="DS56" s="37"/>
       <c r="DT56" s="37"/>
@@ -9807,24 +9858,22 @@
       <c r="DY56" s="37"/>
       <c r="DZ56" s="37"/>
       <c r="EA56" s="37"/>
-      <c r="EB56" s="34"/>
+      <c r="EB56" s="37"/>
+      <c r="EC56" s="34"/>
     </row>
-    <row r="57" spans="1:132">
-      <c r="A57" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D57/16,1)*1048576+MOD(D57,16)*256*16)</f>
-        <v>304000</v>
-      </c>
-      <c r="B57" s="101"/>
-      <c r="C57" s="83" t="str">
+    <row r="57" spans="1:133">
+      <c r="A57" s="135"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>306800</v>
-      </c>
-      <c r="D57" s="79">
+        <v>306000</v>
+      </c>
+      <c r="E57" s="79">
         <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -9883,8 +9932,8 @@
       <c r="BJ57" s="15"/>
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
-      <c r="BM57" s="16"/>
-      <c r="BN57" s="17"/>
+      <c r="BM57" s="15"/>
+      <c r="BN57" s="16"/>
       <c r="BO57" s="17"/>
       <c r="BP57" s="17"/>
       <c r="BQ57" s="17"/>
@@ -9938,8 +9987,8 @@
       <c r="DM57" s="17"/>
       <c r="DN57" s="17"/>
       <c r="DO57" s="17"/>
-      <c r="DP57" s="18"/>
-      <c r="DQ57" s="37"/>
+      <c r="DP57" s="17"/>
+      <c r="DQ57" s="18"/>
       <c r="DR57" s="37"/>
       <c r="DS57" s="37"/>
       <c r="DT57" s="37"/>
@@ -9950,21 +9999,25 @@
       <c r="DY57" s="37"/>
       <c r="DZ57" s="37"/>
       <c r="EA57" s="37"/>
-      <c r="EB57" s="34"/>
+      <c r="EB57" s="37"/>
+      <c r="EC57" s="34"/>
     </row>
-    <row r="58" spans="1:132">
-      <c r="A58" s="116"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="83" t="str">
+    <row r="58" spans="1:133" ht="16" customHeight="1">
+      <c r="A58" s="135"/>
+      <c r="B58" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E58/16,1)*1048576+MOD(E58,16)*256*16)</f>
+        <v>304000</v>
+      </c>
+      <c r="C58" s="126"/>
+      <c r="D58" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>307000</v>
-      </c>
-      <c r="D58" s="79">
+        <v>306800</v>
+      </c>
+      <c r="E58" s="79">
         <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
@@ -10023,8 +10076,8 @@
       <c r="BJ58" s="15"/>
       <c r="BK58" s="15"/>
       <c r="BL58" s="15"/>
-      <c r="BM58" s="16"/>
-      <c r="BN58" s="17"/>
+      <c r="BM58" s="15"/>
+      <c r="BN58" s="16"/>
       <c r="BO58" s="17"/>
       <c r="BP58" s="17"/>
       <c r="BQ58" s="17"/>
@@ -10078,8 +10131,8 @@
       <c r="DM58" s="17"/>
       <c r="DN58" s="17"/>
       <c r="DO58" s="17"/>
-      <c r="DP58" s="18"/>
-      <c r="DQ58" s="37"/>
+      <c r="DP58" s="17"/>
+      <c r="DQ58" s="18"/>
       <c r="DR58" s="37"/>
       <c r="DS58" s="37"/>
       <c r="DT58" s="37"/>
@@ -10090,21 +10143,22 @@
       <c r="DY58" s="37"/>
       <c r="DZ58" s="37"/>
       <c r="EA58" s="37"/>
-      <c r="EB58" s="34"/>
+      <c r="EB58" s="37"/>
+      <c r="EC58" s="34"/>
     </row>
-    <row r="59" spans="1:132">
-      <c r="A59" s="116"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="83" t="str">
+    <row r="59" spans="1:133" ht="16" customHeight="1">
+      <c r="A59" s="135"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>307800</v>
-      </c>
-      <c r="D59" s="79">
+        <v>307000</v>
+      </c>
+      <c r="E59" s="79">
         <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
@@ -10163,8 +10217,8 @@
       <c r="BJ59" s="15"/>
       <c r="BK59" s="15"/>
       <c r="BL59" s="15"/>
-      <c r="BM59" s="16"/>
-      <c r="BN59" s="17"/>
+      <c r="BM59" s="15"/>
+      <c r="BN59" s="16"/>
       <c r="BO59" s="17"/>
       <c r="BP59" s="17"/>
       <c r="BQ59" s="17"/>
@@ -10218,8 +10272,8 @@
       <c r="DM59" s="17"/>
       <c r="DN59" s="17"/>
       <c r="DO59" s="17"/>
-      <c r="DP59" s="18"/>
-      <c r="DQ59" s="37"/>
+      <c r="DP59" s="17"/>
+      <c r="DQ59" s="18"/>
       <c r="DR59" s="37"/>
       <c r="DS59" s="37"/>
       <c r="DT59" s="37"/>
@@ -10230,21 +10284,22 @@
       <c r="DY59" s="37"/>
       <c r="DZ59" s="37"/>
       <c r="EA59" s="37"/>
-      <c r="EB59" s="34"/>
+      <c r="EB59" s="37"/>
+      <c r="EC59" s="34"/>
     </row>
-    <row r="60" spans="1:132">
-      <c r="A60" s="117"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="83" t="str">
+    <row r="60" spans="1:133">
+      <c r="A60" s="135"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>308000</v>
-      </c>
-      <c r="D60" s="79">
+        <v>307800</v>
+      </c>
+      <c r="E60" s="79">
         <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
@@ -10303,8 +10358,8 @@
       <c r="BJ60" s="15"/>
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
-      <c r="BM60" s="16"/>
-      <c r="BN60" s="17"/>
+      <c r="BM60" s="15"/>
+      <c r="BN60" s="16"/>
       <c r="BO60" s="17"/>
       <c r="BP60" s="17"/>
       <c r="BQ60" s="17"/>
@@ -10358,8 +10413,8 @@
       <c r="DM60" s="17"/>
       <c r="DN60" s="17"/>
       <c r="DO60" s="17"/>
-      <c r="DP60" s="18"/>
-      <c r="DQ60" s="37"/>
+      <c r="DP60" s="17"/>
+      <c r="DQ60" s="18"/>
       <c r="DR60" s="37"/>
       <c r="DS60" s="37"/>
       <c r="DT60" s="37"/>
@@ -10370,24 +10425,22 @@
       <c r="DY60" s="37"/>
       <c r="DZ60" s="37"/>
       <c r="EA60" s="37"/>
-      <c r="EB60" s="34"/>
+      <c r="EB60" s="37"/>
+      <c r="EC60" s="34"/>
     </row>
-    <row r="61" spans="1:132">
-      <c r="A61" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D61/16,1)*1048576+MOD(D61,16)*256*16)</f>
+    <row r="61" spans="1:133">
+      <c r="A61" s="135"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="83" t="str">
+        <f t="shared" si="3"/>
         <v>308000</v>
       </c>
-      <c r="B61" s="101"/>
-      <c r="C61" s="83" t="str">
-        <f t="shared" si="3"/>
-        <v>308800</v>
-      </c>
-      <c r="D61" s="79">
+      <c r="E61" s="79">
         <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
@@ -10446,8 +10499,8 @@
       <c r="BJ61" s="15"/>
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
-      <c r="BM61" s="16"/>
-      <c r="BN61" s="17"/>
+      <c r="BM61" s="15"/>
+      <c r="BN61" s="16"/>
       <c r="BO61" s="17"/>
       <c r="BP61" s="17"/>
       <c r="BQ61" s="17"/>
@@ -10501,8 +10554,8 @@
       <c r="DM61" s="17"/>
       <c r="DN61" s="17"/>
       <c r="DO61" s="17"/>
-      <c r="DP61" s="18"/>
-      <c r="DQ61" s="37"/>
+      <c r="DP61" s="17"/>
+      <c r="DQ61" s="18"/>
       <c r="DR61" s="37"/>
       <c r="DS61" s="37"/>
       <c r="DT61" s="37"/>
@@ -10513,21 +10566,25 @@
       <c r="DY61" s="37"/>
       <c r="DZ61" s="37"/>
       <c r="EA61" s="37"/>
-      <c r="EB61" s="34"/>
+      <c r="EB61" s="37"/>
+      <c r="EC61" s="34"/>
     </row>
-    <row r="62" spans="1:132">
-      <c r="A62" s="116"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="83" t="str">
+    <row r="62" spans="1:133" ht="16" customHeight="1">
+      <c r="A62" s="135"/>
+      <c r="B62" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E62/16,1)*1048576+MOD(E62,16)*256*16)</f>
+        <v>308000</v>
+      </c>
+      <c r="C62" s="126"/>
+      <c r="D62" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>309000</v>
-      </c>
-      <c r="D62" s="79">
+        <v>308800</v>
+      </c>
+      <c r="E62" s="79">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
@@ -10586,8 +10643,8 @@
       <c r="BJ62" s="15"/>
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
-      <c r="BM62" s="16"/>
-      <c r="BN62" s="17"/>
+      <c r="BM62" s="15"/>
+      <c r="BN62" s="16"/>
       <c r="BO62" s="17"/>
       <c r="BP62" s="17"/>
       <c r="BQ62" s="17"/>
@@ -10641,8 +10698,8 @@
       <c r="DM62" s="17"/>
       <c r="DN62" s="17"/>
       <c r="DO62" s="17"/>
-      <c r="DP62" s="18"/>
-      <c r="DQ62" s="37"/>
+      <c r="DP62" s="17"/>
+      <c r="DQ62" s="18"/>
       <c r="DR62" s="37"/>
       <c r="DS62" s="37"/>
       <c r="DT62" s="37"/>
@@ -10653,21 +10710,22 @@
       <c r="DY62" s="37"/>
       <c r="DZ62" s="37"/>
       <c r="EA62" s="37"/>
-      <c r="EB62" s="34"/>
+      <c r="EB62" s="37"/>
+      <c r="EC62" s="34"/>
     </row>
-    <row r="63" spans="1:132">
-      <c r="A63" s="116"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="83" t="str">
+    <row r="63" spans="1:133" ht="16" customHeight="1">
+      <c r="A63" s="135"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>309800</v>
-      </c>
-      <c r="D63" s="79">
+        <v>309000</v>
+      </c>
+      <c r="E63" s="79">
         <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
@@ -10726,8 +10784,8 @@
       <c r="BJ63" s="15"/>
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
-      <c r="BM63" s="16"/>
-      <c r="BN63" s="17"/>
+      <c r="BM63" s="15"/>
+      <c r="BN63" s="16"/>
       <c r="BO63" s="17"/>
       <c r="BP63" s="17"/>
       <c r="BQ63" s="17"/>
@@ -10781,8 +10839,8 @@
       <c r="DM63" s="17"/>
       <c r="DN63" s="17"/>
       <c r="DO63" s="17"/>
-      <c r="DP63" s="18"/>
-      <c r="DQ63" s="37"/>
+      <c r="DP63" s="17"/>
+      <c r="DQ63" s="18"/>
       <c r="DR63" s="37"/>
       <c r="DS63" s="37"/>
       <c r="DT63" s="37"/>
@@ -10793,21 +10851,22 @@
       <c r="DY63" s="37"/>
       <c r="DZ63" s="37"/>
       <c r="EA63" s="37"/>
-      <c r="EB63" s="34"/>
+      <c r="EB63" s="37"/>
+      <c r="EC63" s="34"/>
     </row>
-    <row r="64" spans="1:132" ht="17" thickBot="1">
-      <c r="A64" s="117"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="83" t="str">
+    <row r="64" spans="1:133">
+      <c r="A64" s="135"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>30A000</v>
-      </c>
-      <c r="D64" s="79">
+        <v>309800</v>
+      </c>
+      <c r="E64" s="79">
         <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
@@ -10866,8 +10925,8 @@
       <c r="BJ64" s="15"/>
       <c r="BK64" s="15"/>
       <c r="BL64" s="15"/>
-      <c r="BM64" s="16"/>
-      <c r="BN64" s="17"/>
+      <c r="BM64" s="15"/>
+      <c r="BN64" s="16"/>
       <c r="BO64" s="17"/>
       <c r="BP64" s="17"/>
       <c r="BQ64" s="17"/>
@@ -10921,36 +10980,34 @@
       <c r="DM64" s="17"/>
       <c r="DN64" s="17"/>
       <c r="DO64" s="17"/>
-      <c r="DP64" s="18"/>
-      <c r="DQ64" s="38"/>
-      <c r="DR64" s="38"/>
-      <c r="DS64" s="38"/>
-      <c r="DT64" s="38"/>
-      <c r="DU64" s="38"/>
-      <c r="DV64" s="38"/>
-      <c r="DW64" s="38"/>
-      <c r="DX64" s="38"/>
-      <c r="DY64" s="38"/>
-      <c r="DZ64" s="38"/>
-      <c r="EA64" s="38"/>
-      <c r="EB64" s="39"/>
+      <c r="DP64" s="17"/>
+      <c r="DQ64" s="18"/>
+      <c r="DR64" s="37"/>
+      <c r="DS64" s="37"/>
+      <c r="DT64" s="37"/>
+      <c r="DU64" s="37"/>
+      <c r="DV64" s="37"/>
+      <c r="DW64" s="37"/>
+      <c r="DX64" s="37"/>
+      <c r="DY64" s="37"/>
+      <c r="DZ64" s="37"/>
+      <c r="EA64" s="37"/>
+      <c r="EB64" s="37"/>
+      <c r="EC64" s="34"/>
     </row>
-    <row r="65" spans="1:132">
-      <c r="A65" s="115" t="str">
-        <f>DEC2HEX(HEX2DEC(A$5)+FLOOR(D65/16,1)*1048576+MOD(D65,16)*256*16)</f>
-        <v>30C000</v>
-      </c>
-      <c r="B65" s="101"/>
-      <c r="C65" s="83" t="str">
+    <row r="65" spans="1:133" ht="17" thickBot="1">
+      <c r="A65" s="135"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>30A800</v>
-      </c>
-      <c r="D65" s="79">
+        <v>30A000</v>
+      </c>
+      <c r="E65" s="79">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
@@ -11009,8 +11066,8 @@
       <c r="BJ65" s="15"/>
       <c r="BK65" s="15"/>
       <c r="BL65" s="15"/>
-      <c r="BM65" s="16"/>
-      <c r="BN65" s="17"/>
+      <c r="BM65" s="15"/>
+      <c r="BN65" s="16"/>
       <c r="BO65" s="17"/>
       <c r="BP65" s="17"/>
       <c r="BQ65" s="17"/>
@@ -11064,33 +11121,37 @@
       <c r="DM65" s="17"/>
       <c r="DN65" s="17"/>
       <c r="DO65" s="17"/>
-      <c r="DP65" s="18"/>
-      <c r="DQ65" s="8"/>
-      <c r="DR65" s="8"/>
-      <c r="DS65" s="8"/>
-      <c r="DT65" s="8"/>
-      <c r="DU65" s="8"/>
-      <c r="DV65" s="8"/>
-      <c r="DW65" s="8"/>
-      <c r="DX65" s="8"/>
-      <c r="DY65" s="8"/>
-      <c r="DZ65" s="8"/>
-      <c r="EA65" s="8"/>
-      <c r="EB65" s="28"/>
+      <c r="DP65" s="17"/>
+      <c r="DQ65" s="18"/>
+      <c r="DR65" s="38"/>
+      <c r="DS65" s="38"/>
+      <c r="DT65" s="38"/>
+      <c r="DU65" s="38"/>
+      <c r="DV65" s="38"/>
+      <c r="DW65" s="38"/>
+      <c r="DX65" s="38"/>
+      <c r="DY65" s="38"/>
+      <c r="DZ65" s="38"/>
+      <c r="EA65" s="38"/>
+      <c r="EB65" s="38"/>
+      <c r="EC65" s="39"/>
     </row>
-    <row r="66" spans="1:132">
-      <c r="A66" s="116"/>
-      <c r="B66" s="101"/>
-      <c r="C66" s="83" t="str">
+    <row r="66" spans="1:133" ht="16" customHeight="1">
+      <c r="A66" s="135"/>
+      <c r="B66" s="103" t="str">
+        <f>DEC2HEX(HEX2DEC(B$6)+FLOOR(E66/16,1)*1048576+MOD(E66,16)*256*16)</f>
+        <v>30C000</v>
+      </c>
+      <c r="C66" s="126"/>
+      <c r="D66" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>30B000</v>
-      </c>
-      <c r="D66" s="79">
+        <v>30A800</v>
+      </c>
+      <c r="E66" s="79">
         <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
@@ -11149,8 +11210,8 @@
       <c r="BJ66" s="15"/>
       <c r="BK66" s="15"/>
       <c r="BL66" s="15"/>
-      <c r="BM66" s="16"/>
-      <c r="BN66" s="17"/>
+      <c r="BM66" s="15"/>
+      <c r="BN66" s="16"/>
       <c r="BO66" s="17"/>
       <c r="BP66" s="17"/>
       <c r="BQ66" s="17"/>
@@ -11204,8 +11265,8 @@
       <c r="DM66" s="17"/>
       <c r="DN66" s="17"/>
       <c r="DO66" s="17"/>
-      <c r="DP66" s="18"/>
-      <c r="DQ66" s="8"/>
+      <c r="DP66" s="17"/>
+      <c r="DQ66" s="18"/>
       <c r="DR66" s="8"/>
       <c r="DS66" s="8"/>
       <c r="DT66" s="8"/>
@@ -11216,21 +11277,22 @@
       <c r="DY66" s="8"/>
       <c r="DZ66" s="8"/>
       <c r="EA66" s="8"/>
-      <c r="EB66" s="28"/>
+      <c r="EB66" s="8"/>
+      <c r="EC66" s="28"/>
     </row>
-    <row r="67" spans="1:132">
-      <c r="A67" s="116"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="83" t="str">
+    <row r="67" spans="1:133" ht="16" customHeight="1">
+      <c r="A67" s="135"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="83" t="str">
         <f t="shared" si="3"/>
-        <v>30B800</v>
-      </c>
-      <c r="D67" s="79">
+        <v>30B000</v>
+      </c>
+      <c r="E67" s="79">
         <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
@@ -11289,8 +11351,8 @@
       <c r="BJ67" s="15"/>
       <c r="BK67" s="15"/>
       <c r="BL67" s="15"/>
-      <c r="BM67" s="16"/>
-      <c r="BN67" s="17"/>
+      <c r="BM67" s="15"/>
+      <c r="BN67" s="16"/>
       <c r="BO67" s="17"/>
       <c r="BP67" s="17"/>
       <c r="BQ67" s="17"/>
@@ -11344,8 +11406,8 @@
       <c r="DM67" s="17"/>
       <c r="DN67" s="17"/>
       <c r="DO67" s="17"/>
-      <c r="DP67" s="18"/>
-      <c r="DQ67" s="8"/>
+      <c r="DP67" s="17"/>
+      <c r="DQ67" s="18"/>
       <c r="DR67" s="8"/>
       <c r="DS67" s="8"/>
       <c r="DT67" s="8"/>
@@ -11356,395 +11418,452 @@
       <c r="DY67" s="8"/>
       <c r="DZ67" s="8"/>
       <c r="EA67" s="8"/>
-      <c r="EB67" s="28"/>
+      <c r="EB67" s="8"/>
+      <c r="EC67" s="28"/>
     </row>
-    <row r="68" spans="1:132" ht="17" thickBot="1">
-      <c r="A68" s="118"/>
-      <c r="B68" s="102"/>
-      <c r="C68" s="84" t="str">
+    <row r="68" spans="1:133">
+      <c r="A68" s="135"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="83" t="str">
+        <f t="shared" si="3"/>
+        <v>30B800</v>
+      </c>
+      <c r="E68" s="79">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="15"/>
+      <c r="AH68" s="15"/>
+      <c r="AI68" s="15"/>
+      <c r="AJ68" s="15"/>
+      <c r="AK68" s="15"/>
+      <c r="AL68" s="15"/>
+      <c r="AM68" s="15"/>
+      <c r="AN68" s="15"/>
+      <c r="AO68" s="15"/>
+      <c r="AP68" s="15"/>
+      <c r="AQ68" s="15"/>
+      <c r="AR68" s="15"/>
+      <c r="AS68" s="15"/>
+      <c r="AT68" s="15"/>
+      <c r="AU68" s="15"/>
+      <c r="AV68" s="15"/>
+      <c r="AW68" s="15"/>
+      <c r="AX68" s="15"/>
+      <c r="AY68" s="15"/>
+      <c r="AZ68" s="15"/>
+      <c r="BA68" s="15"/>
+      <c r="BB68" s="15"/>
+      <c r="BC68" s="15"/>
+      <c r="BD68" s="15"/>
+      <c r="BE68" s="15"/>
+      <c r="BF68" s="15"/>
+      <c r="BG68" s="15"/>
+      <c r="BH68" s="15"/>
+      <c r="BI68" s="15"/>
+      <c r="BJ68" s="15"/>
+      <c r="BK68" s="15"/>
+      <c r="BL68" s="15"/>
+      <c r="BM68" s="15"/>
+      <c r="BN68" s="16"/>
+      <c r="BO68" s="17"/>
+      <c r="BP68" s="17"/>
+      <c r="BQ68" s="17"/>
+      <c r="BR68" s="17"/>
+      <c r="BS68" s="17"/>
+      <c r="BT68" s="17"/>
+      <c r="BU68" s="17"/>
+      <c r="BV68" s="17"/>
+      <c r="BW68" s="17"/>
+      <c r="BX68" s="17"/>
+      <c r="BY68" s="17"/>
+      <c r="BZ68" s="17"/>
+      <c r="CA68" s="17"/>
+      <c r="CB68" s="17"/>
+      <c r="CC68" s="17"/>
+      <c r="CD68" s="17"/>
+      <c r="CE68" s="17"/>
+      <c r="CF68" s="17"/>
+      <c r="CG68" s="17"/>
+      <c r="CH68" s="17"/>
+      <c r="CI68" s="17"/>
+      <c r="CJ68" s="17"/>
+      <c r="CK68" s="17"/>
+      <c r="CL68" s="17"/>
+      <c r="CM68" s="17"/>
+      <c r="CN68" s="17"/>
+      <c r="CO68" s="17"/>
+      <c r="CP68" s="17"/>
+      <c r="CQ68" s="17"/>
+      <c r="CR68" s="17"/>
+      <c r="CS68" s="17"/>
+      <c r="CT68" s="17"/>
+      <c r="CU68" s="17"/>
+      <c r="CV68" s="17"/>
+      <c r="CW68" s="17"/>
+      <c r="CX68" s="17"/>
+      <c r="CY68" s="17"/>
+      <c r="CZ68" s="17"/>
+      <c r="DA68" s="17"/>
+      <c r="DB68" s="17"/>
+      <c r="DC68" s="17"/>
+      <c r="DD68" s="17"/>
+      <c r="DE68" s="17"/>
+      <c r="DF68" s="17"/>
+      <c r="DG68" s="17"/>
+      <c r="DH68" s="17"/>
+      <c r="DI68" s="17"/>
+      <c r="DJ68" s="17"/>
+      <c r="DK68" s="17"/>
+      <c r="DL68" s="17"/>
+      <c r="DM68" s="17"/>
+      <c r="DN68" s="17"/>
+      <c r="DO68" s="17"/>
+      <c r="DP68" s="17"/>
+      <c r="DQ68" s="18"/>
+      <c r="DR68" s="8"/>
+      <c r="DS68" s="8"/>
+      <c r="DT68" s="8"/>
+      <c r="DU68" s="8"/>
+      <c r="DV68" s="8"/>
+      <c r="DW68" s="8"/>
+      <c r="DX68" s="8"/>
+      <c r="DY68" s="8"/>
+      <c r="DZ68" s="8"/>
+      <c r="EA68" s="8"/>
+      <c r="EB68" s="8"/>
+      <c r="EC68" s="28"/>
+    </row>
+    <row r="69" spans="1:133" ht="17" thickBot="1">
+      <c r="A69" s="136"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="127"/>
+      <c r="D69" s="84" t="str">
         <f t="shared" si="3"/>
         <v>30C000</v>
       </c>
-      <c r="D68" s="80">
+      <c r="E69" s="80">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="25"/>
-      <c r="U68" s="25"/>
-      <c r="V68" s="25"/>
-      <c r="W68" s="25"/>
-      <c r="X68" s="25"/>
-      <c r="Y68" s="25"/>
-      <c r="Z68" s="25"/>
-      <c r="AA68" s="25"/>
-      <c r="AB68" s="25"/>
-      <c r="AC68" s="25"/>
-      <c r="AD68" s="25"/>
-      <c r="AE68" s="25"/>
-      <c r="AF68" s="25"/>
-      <c r="AG68" s="25"/>
-      <c r="AH68" s="25"/>
-      <c r="AI68" s="25"/>
-      <c r="AJ68" s="25"/>
-      <c r="AK68" s="25"/>
-      <c r="AL68" s="25"/>
-      <c r="AM68" s="25"/>
-      <c r="AN68" s="25"/>
-      <c r="AO68" s="25"/>
-      <c r="AP68" s="25"/>
-      <c r="AQ68" s="25"/>
-      <c r="AR68" s="25"/>
-      <c r="AS68" s="25"/>
-      <c r="AT68" s="25"/>
-      <c r="AU68" s="25"/>
-      <c r="AV68" s="25"/>
-      <c r="AW68" s="25"/>
-      <c r="AX68" s="25"/>
-      <c r="AY68" s="25"/>
-      <c r="AZ68" s="25"/>
-      <c r="BA68" s="25"/>
-      <c r="BB68" s="25"/>
-      <c r="BC68" s="25"/>
-      <c r="BD68" s="25"/>
-      <c r="BE68" s="25"/>
-      <c r="BF68" s="25"/>
-      <c r="BG68" s="25"/>
-      <c r="BH68" s="25"/>
-      <c r="BI68" s="25"/>
-      <c r="BJ68" s="25"/>
-      <c r="BK68" s="25"/>
-      <c r="BL68" s="25"/>
-      <c r="BM68" s="21"/>
-      <c r="BN68" s="22"/>
-      <c r="BO68" s="22"/>
-      <c r="BP68" s="22"/>
-      <c r="BQ68" s="22"/>
-      <c r="BR68" s="22"/>
-      <c r="BS68" s="22"/>
-      <c r="BT68" s="22"/>
-      <c r="BU68" s="22"/>
-      <c r="BV68" s="22"/>
-      <c r="BW68" s="22"/>
-      <c r="BX68" s="22"/>
-      <c r="BY68" s="22"/>
-      <c r="BZ68" s="22"/>
-      <c r="CA68" s="22"/>
-      <c r="CB68" s="22"/>
-      <c r="CC68" s="22"/>
-      <c r="CD68" s="22"/>
-      <c r="CE68" s="22"/>
-      <c r="CF68" s="22"/>
-      <c r="CG68" s="22"/>
-      <c r="CH68" s="22"/>
-      <c r="CI68" s="22"/>
-      <c r="CJ68" s="22"/>
-      <c r="CK68" s="22"/>
-      <c r="CL68" s="22"/>
-      <c r="CM68" s="22"/>
-      <c r="CN68" s="22"/>
-      <c r="CO68" s="22"/>
-      <c r="CP68" s="22"/>
-      <c r="CQ68" s="22"/>
-      <c r="CR68" s="22"/>
-      <c r="CS68" s="22"/>
-      <c r="CT68" s="22"/>
-      <c r="CU68" s="22"/>
-      <c r="CV68" s="22"/>
-      <c r="CW68" s="22"/>
-      <c r="CX68" s="22"/>
-      <c r="CY68" s="22"/>
-      <c r="CZ68" s="22"/>
-      <c r="DA68" s="22"/>
-      <c r="DB68" s="22"/>
-      <c r="DC68" s="22"/>
-      <c r="DD68" s="22"/>
-      <c r="DE68" s="22"/>
-      <c r="DF68" s="22"/>
-      <c r="DG68" s="22"/>
-      <c r="DH68" s="22"/>
-      <c r="DI68" s="22"/>
-      <c r="DJ68" s="22"/>
-      <c r="DK68" s="22"/>
-      <c r="DL68" s="22"/>
-      <c r="DM68" s="22"/>
-      <c r="DN68" s="22"/>
-      <c r="DO68" s="22"/>
-      <c r="DP68" s="23"/>
-      <c r="DQ68" s="26"/>
-      <c r="DR68" s="26"/>
-      <c r="DS68" s="26"/>
-      <c r="DT68" s="26"/>
-      <c r="DU68" s="26"/>
-      <c r="DV68" s="26"/>
-      <c r="DW68" s="26"/>
-      <c r="DX68" s="26"/>
-      <c r="DY68" s="26"/>
-      <c r="DZ68" s="26"/>
-      <c r="EA68" s="26"/>
-      <c r="EB68" s="27"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
+      <c r="AI69" s="25"/>
+      <c r="AJ69" s="25"/>
+      <c r="AK69" s="25"/>
+      <c r="AL69" s="25"/>
+      <c r="AM69" s="25"/>
+      <c r="AN69" s="25"/>
+      <c r="AO69" s="25"/>
+      <c r="AP69" s="25"/>
+      <c r="AQ69" s="25"/>
+      <c r="AR69" s="25"/>
+      <c r="AS69" s="25"/>
+      <c r="AT69" s="25"/>
+      <c r="AU69" s="25"/>
+      <c r="AV69" s="25"/>
+      <c r="AW69" s="25"/>
+      <c r="AX69" s="25"/>
+      <c r="AY69" s="25"/>
+      <c r="AZ69" s="25"/>
+      <c r="BA69" s="25"/>
+      <c r="BB69" s="25"/>
+      <c r="BC69" s="25"/>
+      <c r="BD69" s="25"/>
+      <c r="BE69" s="25"/>
+      <c r="BF69" s="25"/>
+      <c r="BG69" s="25"/>
+      <c r="BH69" s="25"/>
+      <c r="BI69" s="25"/>
+      <c r="BJ69" s="25"/>
+      <c r="BK69" s="25"/>
+      <c r="BL69" s="25"/>
+      <c r="BM69" s="25"/>
+      <c r="BN69" s="21"/>
+      <c r="BO69" s="22"/>
+      <c r="BP69" s="22"/>
+      <c r="BQ69" s="22"/>
+      <c r="BR69" s="22"/>
+      <c r="BS69" s="22"/>
+      <c r="BT69" s="22"/>
+      <c r="BU69" s="22"/>
+      <c r="BV69" s="22"/>
+      <c r="BW69" s="22"/>
+      <c r="BX69" s="22"/>
+      <c r="BY69" s="22"/>
+      <c r="BZ69" s="22"/>
+      <c r="CA69" s="22"/>
+      <c r="CB69" s="22"/>
+      <c r="CC69" s="22"/>
+      <c r="CD69" s="22"/>
+      <c r="CE69" s="22"/>
+      <c r="CF69" s="22"/>
+      <c r="CG69" s="22"/>
+      <c r="CH69" s="22"/>
+      <c r="CI69" s="22"/>
+      <c r="CJ69" s="22"/>
+      <c r="CK69" s="22"/>
+      <c r="CL69" s="22"/>
+      <c r="CM69" s="22"/>
+      <c r="CN69" s="22"/>
+      <c r="CO69" s="22"/>
+      <c r="CP69" s="22"/>
+      <c r="CQ69" s="22"/>
+      <c r="CR69" s="22"/>
+      <c r="CS69" s="22"/>
+      <c r="CT69" s="22"/>
+      <c r="CU69" s="22"/>
+      <c r="CV69" s="22"/>
+      <c r="CW69" s="22"/>
+      <c r="CX69" s="22"/>
+      <c r="CY69" s="22"/>
+      <c r="CZ69" s="22"/>
+      <c r="DA69" s="22"/>
+      <c r="DB69" s="22"/>
+      <c r="DC69" s="22"/>
+      <c r="DD69" s="22"/>
+      <c r="DE69" s="22"/>
+      <c r="DF69" s="22"/>
+      <c r="DG69" s="22"/>
+      <c r="DH69" s="22"/>
+      <c r="DI69" s="22"/>
+      <c r="DJ69" s="22"/>
+      <c r="DK69" s="22"/>
+      <c r="DL69" s="22"/>
+      <c r="DM69" s="22"/>
+      <c r="DN69" s="22"/>
+      <c r="DO69" s="22"/>
+      <c r="DP69" s="22"/>
+      <c r="DQ69" s="23"/>
+      <c r="DR69" s="26"/>
+      <c r="DS69" s="26"/>
+      <c r="DT69" s="26"/>
+      <c r="DU69" s="26"/>
+      <c r="DV69" s="26"/>
+      <c r="DW69" s="26"/>
+      <c r="DX69" s="26"/>
+      <c r="DY69" s="26"/>
+      <c r="DZ69" s="26"/>
+      <c r="EA69" s="26"/>
+      <c r="EB69" s="26"/>
+      <c r="EC69" s="27"/>
     </row>
-    <row r="72" spans="1:132" s="49" customFormat="1" ht="25">
-      <c r="D72" s="48"/>
-      <c r="AG72" s="50"/>
-      <c r="AH72" s="103">
+    <row r="73" spans="1:133" s="49" customFormat="1" ht="24">
+      <c r="E73" s="48"/>
+      <c r="AH73" s="50"/>
+      <c r="AI73" s="128">
         <v>60</v>
       </c>
-      <c r="AI72" s="103"/>
-      <c r="AJ72" s="50"/>
-      <c r="AK72" s="50"/>
-      <c r="AL72" s="50"/>
-      <c r="AM72" s="50"/>
-      <c r="AN72" s="50"/>
-      <c r="AO72" s="50"/>
-      <c r="AP72" s="50"/>
-      <c r="AQ72" s="50"/>
-      <c r="AR72" s="50"/>
-      <c r="AS72" s="50"/>
-      <c r="AT72" s="50"/>
-      <c r="AU72" s="50"/>
-      <c r="AV72" s="50"/>
-      <c r="AW72" s="50"/>
-      <c r="AX72" s="50"/>
-      <c r="AY72" s="50"/>
-      <c r="AZ72" s="50"/>
-      <c r="BA72" s="50"/>
-      <c r="BB72" s="50"/>
-      <c r="BC72" s="50"/>
-      <c r="BD72" s="50"/>
-      <c r="BE72" s="50"/>
-      <c r="BF72" s="50"/>
-      <c r="BG72" s="50"/>
-      <c r="BH72" s="50"/>
-      <c r="BI72" s="50"/>
-      <c r="BJ72" s="50"/>
-      <c r="BK72" s="50"/>
-      <c r="BL72" s="50"/>
-      <c r="BM72" s="50"/>
-      <c r="BN72" s="50"/>
-      <c r="BO72" s="50"/>
-      <c r="BP72" s="50"/>
-      <c r="BQ72" s="50"/>
-      <c r="BR72" s="50"/>
-      <c r="BS72" s="50"/>
-      <c r="BT72" s="50"/>
-      <c r="BU72" s="50"/>
-      <c r="BV72" s="50"/>
-      <c r="BW72" s="50"/>
-      <c r="BX72" s="50"/>
-      <c r="BY72" s="50"/>
-      <c r="BZ72" s="50"/>
-      <c r="CA72" s="50"/>
-      <c r="CB72" s="50"/>
-      <c r="CC72" s="50"/>
-      <c r="CD72" s="50"/>
-      <c r="CE72" s="50"/>
-      <c r="CF72" s="50"/>
-      <c r="CG72" s="50"/>
-      <c r="CH72" s="50"/>
-      <c r="CK72" s="51"/>
-      <c r="CM72" s="51" t="s">
+      <c r="AJ73" s="128"/>
+      <c r="AK73" s="50"/>
+      <c r="AL73" s="50"/>
+      <c r="AM73" s="50"/>
+      <c r="AN73" s="50"/>
+      <c r="AO73" s="50"/>
+      <c r="AP73" s="50"/>
+      <c r="AQ73" s="50"/>
+      <c r="AR73" s="50"/>
+      <c r="AS73" s="50"/>
+      <c r="AT73" s="50"/>
+      <c r="AU73" s="50"/>
+      <c r="AV73" s="50"/>
+      <c r="AW73" s="50"/>
+      <c r="AX73" s="50"/>
+      <c r="AY73" s="50"/>
+      <c r="AZ73" s="50"/>
+      <c r="BA73" s="50"/>
+      <c r="BB73" s="50"/>
+      <c r="BC73" s="50"/>
+      <c r="BD73" s="50"/>
+      <c r="BE73" s="50"/>
+      <c r="BF73" s="50"/>
+      <c r="BG73" s="50"/>
+      <c r="BH73" s="50"/>
+      <c r="BI73" s="50"/>
+      <c r="BJ73" s="50"/>
+      <c r="BK73" s="50"/>
+      <c r="BL73" s="50"/>
+      <c r="BM73" s="50"/>
+      <c r="BN73" s="50"/>
+      <c r="BO73" s="50"/>
+      <c r="BP73" s="50"/>
+      <c r="BQ73" s="50"/>
+      <c r="BR73" s="50"/>
+      <c r="BS73" s="50"/>
+      <c r="BT73" s="50"/>
+      <c r="BU73" s="50"/>
+      <c r="BV73" s="50"/>
+      <c r="BW73" s="50"/>
+      <c r="BX73" s="50"/>
+      <c r="BY73" s="50"/>
+      <c r="BZ73" s="50"/>
+      <c r="CA73" s="50"/>
+      <c r="CB73" s="50"/>
+      <c r="CC73" s="50"/>
+      <c r="CD73" s="50"/>
+      <c r="CE73" s="50"/>
+      <c r="CF73" s="50"/>
+      <c r="CG73" s="50"/>
+      <c r="CH73" s="50"/>
+      <c r="CI73" s="50"/>
+      <c r="CL73" s="51"/>
+      <c r="CN73" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="CN72" s="50"/>
-      <c r="CO72" s="50"/>
-      <c r="CP72" s="50"/>
-      <c r="CQ72" s="50"/>
-      <c r="CR72" s="50"/>
-      <c r="CS72" s="50"/>
-      <c r="CT72" s="50"/>
-      <c r="CU72" s="50"/>
-      <c r="CV72" s="50"/>
-      <c r="CW72" s="50"/>
-      <c r="CX72" s="50"/>
-      <c r="CY72" s="70" t="s">
+      <c r="CO73" s="50"/>
+      <c r="CP73" s="50"/>
+      <c r="CQ73" s="50"/>
+      <c r="CR73" s="50"/>
+      <c r="CS73" s="50"/>
+      <c r="CT73" s="50"/>
+      <c r="CU73" s="50"/>
+      <c r="CV73" s="50"/>
+      <c r="CW73" s="50"/>
+      <c r="CX73" s="50"/>
+      <c r="CY73" s="50"/>
+      <c r="CZ73" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="CZ72" s="50"/>
-      <c r="DA72" s="50"/>
-      <c r="DB72" s="50"/>
-      <c r="DC72" s="50"/>
-      <c r="DD72" s="50"/>
-      <c r="DE72" s="50"/>
-      <c r="DF72" s="50"/>
-      <c r="DG72" s="50"/>
-      <c r="DH72" s="50"/>
-      <c r="DI72" s="50"/>
-      <c r="DJ72" s="50"/>
-      <c r="DK72" s="50"/>
-      <c r="DL72" s="50"/>
-      <c r="DM72" s="50"/>
-      <c r="DN72" s="50"/>
-      <c r="DO72" s="50"/>
-      <c r="DP72" s="50"/>
-      <c r="DQ72" s="50"/>
-      <c r="DT72" s="50"/>
-      <c r="DU72" s="50"/>
-      <c r="DV72" s="103" t="s">
+      <c r="DA73" s="50"/>
+      <c r="DB73" s="50"/>
+      <c r="DC73" s="50"/>
+      <c r="DD73" s="50"/>
+      <c r="DE73" s="50"/>
+      <c r="DF73" s="50"/>
+      <c r="DG73" s="50"/>
+      <c r="DH73" s="50"/>
+      <c r="DI73" s="50"/>
+      <c r="DJ73" s="50"/>
+      <c r="DK73" s="50"/>
+      <c r="DL73" s="50"/>
+      <c r="DM73" s="50"/>
+      <c r="DN73" s="50"/>
+      <c r="DO73" s="50"/>
+      <c r="DP73" s="50"/>
+      <c r="DQ73" s="50"/>
+      <c r="DR73" s="50"/>
+      <c r="DU73" s="50"/>
+      <c r="DV73" s="50"/>
+      <c r="DW73" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="DW72" s="103"/>
-      <c r="DX72" s="50"/>
-      <c r="DY72" s="50"/>
-      <c r="DZ72" s="50"/>
-      <c r="EA72" s="50"/>
-      <c r="EB72" s="50"/>
+      <c r="DX73" s="128"/>
+      <c r="DY73" s="50"/>
+      <c r="DZ73" s="50"/>
+      <c r="EA73" s="50"/>
+      <c r="EB73" s="50"/>
+      <c r="EC73" s="50"/>
     </row>
-    <row r="73" spans="1:132" ht="18">
-      <c r="E73" s="44" t="s">
+    <row r="74" spans="1:133" ht="20">
+      <c r="F74" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="AG73" s="46"/>
-      <c r="AH73" s="46"/>
-      <c r="AI73" s="46"/>
-      <c r="AJ73" s="46"/>
-      <c r="AK73" s="46"/>
-      <c r="AL73" s="46"/>
-      <c r="AM73" s="46"/>
-      <c r="AN73" s="46"/>
-      <c r="AV73" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW73" s="45"/>
-      <c r="AX73" s="45"/>
-      <c r="AY73" s="45"/>
-      <c r="AZ73" s="45"/>
-      <c r="BA73" s="45"/>
-      <c r="BB73" s="45"/>
-      <c r="BC73" s="45"/>
-      <c r="BD73" s="45"/>
-      <c r="BE73" s="45"/>
-      <c r="BF73" s="3"/>
-      <c r="BG73" s="3"/>
-      <c r="BH73" s="3"/>
-      <c r="BI73" s="3"/>
-      <c r="BJ73" s="3"/>
-      <c r="BK73" s="3"/>
-      <c r="BL73" s="3"/>
-      <c r="BX73" s="46"/>
-      <c r="BY73" s="46"/>
-      <c r="BZ73" s="46"/>
-      <c r="CA73" s="46"/>
-      <c r="CB73" s="46"/>
-      <c r="CC73" s="46"/>
-      <c r="CD73" s="46"/>
-      <c r="CE73" s="46"/>
-      <c r="CI73" s="46"/>
-      <c r="CJ73" s="46"/>
-      <c r="CK73" s="46"/>
-      <c r="CL73" s="46"/>
-      <c r="CM73" s="46"/>
-      <c r="CN73" s="46"/>
-      <c r="CO73" s="46"/>
-      <c r="CP73" s="46"/>
-      <c r="CQ73" s="46"/>
-      <c r="CR73" s="46"/>
-      <c r="CS73" s="46"/>
-      <c r="CT73" s="46"/>
-      <c r="CU73" s="46"/>
-      <c r="CV73" s="46"/>
-      <c r="CX73" s="46"/>
-      <c r="CY73" s="46"/>
-      <c r="CZ73" s="46"/>
-      <c r="DA73" s="46"/>
-      <c r="DB73" s="46"/>
-      <c r="DC73" s="46"/>
-      <c r="DD73" s="46"/>
-      <c r="DE73" s="46"/>
-      <c r="DF73" s="46"/>
-      <c r="DG73" s="46"/>
-      <c r="DH73" s="46"/>
-      <c r="DI73" s="46"/>
-      <c r="DJ73" s="46"/>
-      <c r="DK73" s="46"/>
-      <c r="DL73" s="46"/>
-      <c r="DM73" s="46"/>
-      <c r="DN73" s="46"/>
-      <c r="DO73" s="46"/>
-      <c r="DP73" s="46"/>
-      <c r="DQ73" s="46"/>
-      <c r="DR73" s="46"/>
-      <c r="DS73" s="46"/>
-      <c r="DT73" s="46"/>
-      <c r="DU73" s="46"/>
-      <c r="DV73" s="46"/>
-      <c r="DW73" s="46"/>
-      <c r="DX73" s="46"/>
-      <c r="DY73" s="46"/>
-      <c r="DZ73" s="46"/>
-      <c r="EA73" s="46"/>
-      <c r="EB73" s="46"/>
-    </row>
-    <row r="74" spans="1:132" ht="19" thickBot="1">
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
-      <c r="AG74" s="46"/>
-      <c r="AV74" s="3"/>
-      <c r="AW74" s="3"/>
-      <c r="AX74" s="3"/>
-      <c r="AY74" s="3"/>
-      <c r="AZ74" s="3"/>
-      <c r="BA74" s="3"/>
-      <c r="BB74" s="3"/>
-      <c r="BC74" s="3"/>
-      <c r="BD74" s="3"/>
-      <c r="BE74" s="3"/>
-      <c r="BF74" s="3"/>
-      <c r="BG74" s="3"/>
-      <c r="BH74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="AH74" s="46"/>
+      <c r="AI74" s="46"/>
+      <c r="AJ74" s="46"/>
+      <c r="AK74" s="46"/>
+      <c r="AL74" s="46"/>
+      <c r="AM74" s="46"/>
+      <c r="AN74" s="46"/>
+      <c r="AO74" s="46"/>
+      <c r="AY74" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ74" s="45"/>
+      <c r="BA74" s="45"/>
+      <c r="BB74" s="45"/>
+      <c r="BC74" s="45"/>
+      <c r="BD74" s="45"/>
+      <c r="BE74" s="45"/>
+      <c r="BF74" s="45"/>
+      <c r="BG74" s="45"/>
+      <c r="BH74" s="45"/>
       <c r="BI74" s="3"/>
       <c r="BJ74" s="3"/>
       <c r="BK74" s="3"/>
       <c r="BL74" s="3"/>
-      <c r="BX74" s="46"/>
-      <c r="CI74" s="46"/>
-      <c r="CJ74" s="46"/>
-      <c r="CK74" s="46"/>
+      <c r="BM74" s="3"/>
+      <c r="BN74" s="3"/>
+      <c r="BO74" s="3"/>
+      <c r="CA74" s="46"/>
+      <c r="CB74" s="46"/>
+      <c r="CC74" s="46"/>
+      <c r="CD74" s="46"/>
+      <c r="CE74" s="46"/>
+      <c r="CF74" s="46"/>
+      <c r="CG74" s="46"/>
+      <c r="CH74" s="46"/>
       <c r="CL74" s="46"/>
       <c r="CM74" s="46"/>
       <c r="CN74" s="46"/>
@@ -11757,7 +11876,6 @@
       <c r="CU74" s="46"/>
       <c r="CV74" s="46"/>
       <c r="CW74" s="46"/>
-      <c r="CX74" s="46"/>
       <c r="CY74" s="46"/>
       <c r="CZ74" s="46"/>
       <c r="DA74" s="46"/>
@@ -11771,9 +11889,7 @@
       <c r="DI74" s="46"/>
       <c r="DJ74" s="46"/>
       <c r="DK74" s="46"/>
-      <c r="DL74" s="47" t="s">
-        <v>9</v>
-      </c>
+      <c r="DL74" s="46"/>
       <c r="DM74" s="46"/>
       <c r="DN74" s="46"/>
       <c r="DO74" s="46"/>
@@ -11790,1263 +11906,1389 @@
       <c r="DZ74" s="46"/>
       <c r="EA74" s="46"/>
       <c r="EB74" s="46"/>
+      <c r="EC74" s="46"/>
     </row>
-    <row r="75" spans="1:132">
-      <c r="D75" s="1"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="61"/>
-      <c r="P75" s="61"/>
-      <c r="Q75" s="61"/>
-      <c r="R75" s="61"/>
-      <c r="S75" s="61"/>
-      <c r="T75" s="61"/>
-      <c r="U75" s="61"/>
-      <c r="V75" s="61"/>
-      <c r="W75" s="61"/>
-      <c r="X75" s="61"/>
-      <c r="Y75" s="61"/>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="61"/>
-      <c r="AB75" s="61"/>
-      <c r="AC75" s="61"/>
-      <c r="AD75" s="61"/>
-      <c r="AE75" s="61"/>
-      <c r="AF75" s="61"/>
-      <c r="AG75" s="61"/>
-      <c r="AH75" s="61"/>
-      <c r="AI75" s="61"/>
-      <c r="AJ75" s="61"/>
-      <c r="AK75" s="61"/>
-      <c r="AL75" s="61"/>
-      <c r="AM75" s="61"/>
-      <c r="AN75" s="61"/>
-      <c r="AO75" s="61"/>
-      <c r="AP75" s="61"/>
-      <c r="AQ75" s="61"/>
-      <c r="AR75" s="61"/>
-      <c r="AS75" s="62"/>
-      <c r="AV75" s="60"/>
-      <c r="AW75" s="61"/>
-      <c r="AX75" s="61"/>
-      <c r="AY75" s="61"/>
-      <c r="AZ75" s="61"/>
-      <c r="BA75" s="61"/>
-      <c r="BB75" s="61"/>
-      <c r="BC75" s="61"/>
-      <c r="BD75" s="61"/>
-      <c r="BE75" s="61"/>
-      <c r="BF75" s="61"/>
-      <c r="BG75" s="61"/>
-      <c r="BH75" s="61"/>
-      <c r="BI75" s="61"/>
-      <c r="BJ75" s="61"/>
-      <c r="BK75" s="61"/>
-      <c r="BL75" s="61"/>
-      <c r="BM75" s="61"/>
-      <c r="BN75" s="61"/>
-      <c r="BO75" s="61"/>
-      <c r="BP75" s="61"/>
-      <c r="BQ75" s="61"/>
-      <c r="BR75" s="61"/>
-      <c r="BS75" s="61"/>
-      <c r="BT75" s="61"/>
-      <c r="BU75" s="61"/>
-      <c r="BV75" s="61"/>
-      <c r="BW75" s="61"/>
-      <c r="BX75" s="61"/>
-      <c r="BY75" s="61"/>
-      <c r="BZ75" s="61"/>
-      <c r="CA75" s="61"/>
-      <c r="CB75" s="61"/>
-      <c r="CC75" s="61"/>
-      <c r="CD75" s="61"/>
-      <c r="CE75" s="61"/>
-      <c r="CF75" s="61"/>
-      <c r="CG75" s="61"/>
-      <c r="CH75" s="61"/>
-      <c r="CI75" s="61"/>
-      <c r="CJ75" s="62"/>
+    <row r="75" spans="1:133" ht="21" thickBot="1">
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="AH75" s="46"/>
+      <c r="AY75" s="3"/>
+      <c r="AZ75" s="3"/>
+      <c r="BA75" s="3"/>
+      <c r="BB75" s="3"/>
+      <c r="BC75" s="3"/>
+      <c r="BD75" s="3"/>
+      <c r="BE75" s="3"/>
+      <c r="BF75" s="3"/>
+      <c r="BG75" s="3"/>
+      <c r="BH75" s="3"/>
+      <c r="BI75" s="3"/>
+      <c r="BJ75" s="3"/>
+      <c r="BK75" s="3"/>
+      <c r="BL75" s="3"/>
+      <c r="BM75" s="3"/>
+      <c r="BN75" s="3"/>
+      <c r="BO75" s="3"/>
+      <c r="CA75" s="46"/>
+      <c r="CL75" s="46"/>
+      <c r="CM75" s="46"/>
+      <c r="CN75" s="46"/>
+      <c r="CO75" s="46"/>
+      <c r="CP75" s="46"/>
+      <c r="CQ75" s="46"/>
+      <c r="CR75" s="46"/>
+      <c r="CS75" s="46"/>
+      <c r="CT75" s="46"/>
+      <c r="CU75" s="46"/>
+      <c r="CV75" s="46"/>
+      <c r="CW75" s="46"/>
+      <c r="CX75" s="46"/>
+      <c r="CY75" s="46"/>
+      <c r="CZ75" s="46"/>
+      <c r="DA75" s="46"/>
+      <c r="DB75" s="46"/>
+      <c r="DC75" s="46"/>
+      <c r="DD75" s="46"/>
+      <c r="DE75" s="46"/>
+      <c r="DF75" s="46"/>
+      <c r="DG75" s="46"/>
+      <c r="DH75" s="46"/>
+      <c r="DI75" s="46"/>
+      <c r="DJ75" s="46"/>
+      <c r="DK75" s="46"/>
+      <c r="DL75" s="46"/>
+      <c r="DM75" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN75" s="46"/>
+      <c r="DO75" s="46"/>
+      <c r="DP75" s="46"/>
+      <c r="DQ75" s="46"/>
+      <c r="DR75" s="46"/>
+      <c r="DS75" s="46"/>
+      <c r="DT75" s="46"/>
+      <c r="DU75" s="46"/>
+      <c r="DV75" s="46"/>
+      <c r="DW75" s="46"/>
+      <c r="DX75" s="46"/>
+      <c r="DY75" s="46"/>
+      <c r="DZ75" s="46"/>
+      <c r="EA75" s="46"/>
+      <c r="EB75" s="46"/>
+      <c r="EC75" s="46"/>
     </row>
-    <row r="76" spans="1:132" ht="19">
-      <c r="D76" s="1"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="105" t="s">
+    <row r="76" spans="1:133">
+      <c r="E76" s="1"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="61"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
+      <c r="S76" s="61"/>
+      <c r="T76" s="61"/>
+      <c r="U76" s="61"/>
+      <c r="V76" s="61"/>
+      <c r="W76" s="61"/>
+      <c r="X76" s="61"/>
+      <c r="Y76" s="61"/>
+      <c r="Z76" s="61"/>
+      <c r="AA76" s="61"/>
+      <c r="AB76" s="61"/>
+      <c r="AC76" s="61"/>
+      <c r="AD76" s="61"/>
+      <c r="AE76" s="61"/>
+      <c r="AF76" s="61"/>
+      <c r="AG76" s="61"/>
+      <c r="AH76" s="61"/>
+      <c r="AI76" s="61"/>
+      <c r="AJ76" s="61"/>
+      <c r="AK76" s="61"/>
+      <c r="AL76" s="61"/>
+      <c r="AM76" s="61"/>
+      <c r="AN76" s="61"/>
+      <c r="AO76" s="61"/>
+      <c r="AP76" s="61"/>
+      <c r="AQ76" s="61"/>
+      <c r="AR76" s="61"/>
+      <c r="AS76" s="61"/>
+      <c r="AT76" s="61"/>
+      <c r="AU76" s="61"/>
+      <c r="AV76" s="62"/>
+      <c r="AY76" s="60"/>
+      <c r="AZ76" s="61"/>
+      <c r="BA76" s="61"/>
+      <c r="BB76" s="61"/>
+      <c r="BC76" s="61"/>
+      <c r="BD76" s="61"/>
+      <c r="BE76" s="61"/>
+      <c r="BF76" s="61"/>
+      <c r="BG76" s="61"/>
+      <c r="BH76" s="61"/>
+      <c r="BI76" s="61"/>
+      <c r="BJ76" s="61"/>
+      <c r="BK76" s="61"/>
+      <c r="BL76" s="61"/>
+      <c r="BM76" s="61"/>
+      <c r="BN76" s="61"/>
+      <c r="BO76" s="61"/>
+      <c r="BP76" s="61"/>
+      <c r="BQ76" s="61"/>
+      <c r="BR76" s="61"/>
+      <c r="BS76" s="61"/>
+      <c r="BT76" s="61"/>
+      <c r="BU76" s="61"/>
+      <c r="BV76" s="61"/>
+      <c r="BW76" s="61"/>
+      <c r="BX76" s="61"/>
+      <c r="BY76" s="61"/>
+      <c r="BZ76" s="61"/>
+      <c r="CA76" s="61"/>
+      <c r="CB76" s="61"/>
+      <c r="CC76" s="61"/>
+      <c r="CD76" s="61"/>
+      <c r="CE76" s="61"/>
+      <c r="CF76" s="61"/>
+      <c r="CG76" s="61"/>
+      <c r="CH76" s="61"/>
+      <c r="CI76" s="61"/>
+      <c r="CJ76" s="61"/>
+      <c r="CK76" s="61"/>
+      <c r="CL76" s="61"/>
+      <c r="CM76" s="61"/>
+      <c r="CN76" s="61"/>
+      <c r="CO76" s="62"/>
+    </row>
+    <row r="77" spans="1:133" ht="20">
+      <c r="E77" s="1"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105" t="s">
+      <c r="H77" s="120"/>
+      <c r="I77" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="120"/>
+      <c r="K77" s="120"/>
+      <c r="L77" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="M77" s="120"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="120"/>
+      <c r="P77" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="I76" s="105"/>
-      <c r="J76" s="105"/>
-      <c r="K76" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="L76" s="105"/>
-      <c r="M76" s="105"/>
-      <c r="N76" s="105"/>
-      <c r="O76" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="P76" s="105"/>
-      <c r="Q76" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="R76" s="105"/>
-      <c r="S76" s="105"/>
-      <c r="T76" s="105"/>
-      <c r="U76" s="105" t="s">
+      <c r="Q77" s="120"/>
+      <c r="R77" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="S77" s="120"/>
+      <c r="T77" s="120"/>
+      <c r="U77" s="120"/>
+      <c r="V77" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="V76" s="105"/>
-      <c r="W76" s="105"/>
-      <c r="X76" s="105"/>
-      <c r="Y76" s="105"/>
-      <c r="Z76" s="52" t="s">
+      <c r="W77" s="120"/>
+      <c r="X77" s="120"/>
+      <c r="Y77" s="120"/>
+      <c r="Z77" s="120"/>
+      <c r="AA77" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AA76" s="52"/>
-      <c r="AB76" s="52"/>
-      <c r="AC76" s="52"/>
-      <c r="AD76" s="43"/>
-      <c r="AE76" s="105" t="s">
+      <c r="AB77" s="52"/>
+      <c r="AC77" s="52"/>
+      <c r="AD77" s="52"/>
+      <c r="AE77" s="43"/>
+      <c r="AF77" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="AF76" s="105"/>
-      <c r="AG76" s="105"/>
-      <c r="AH76" s="105"/>
-      <c r="AI76" s="105"/>
-      <c r="AJ76" s="52" t="s">
+      <c r="AG77" s="120"/>
+      <c r="AH77" s="120"/>
+      <c r="AI77" s="120"/>
+      <c r="AJ77" s="120"/>
+      <c r="AK77" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AK76" s="52"/>
-      <c r="AL76" s="52"/>
-      <c r="AM76" s="52"/>
-      <c r="AN76" s="43"/>
-      <c r="AO76" s="42"/>
-      <c r="AP76" s="42"/>
-      <c r="AQ76" s="42"/>
-      <c r="AR76" s="42"/>
-      <c r="AS76" s="64"/>
-      <c r="AV76" s="63"/>
-      <c r="AW76" s="105" t="s">
+      <c r="AL77" s="52"/>
+      <c r="AM77" s="52"/>
+      <c r="AN77" s="52"/>
+      <c r="AO77" s="43"/>
+      <c r="AP77" s="42"/>
+      <c r="AQ77" s="42"/>
+      <c r="AR77" s="42"/>
+      <c r="AS77" s="42"/>
+      <c r="AT77" s="42"/>
+      <c r="AU77" s="42"/>
+      <c r="AV77" s="64"/>
+      <c r="AY77" s="63"/>
+      <c r="AZ77" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="AX76" s="105"/>
-      <c r="AY76" s="105" t="s">
+      <c r="BA77" s="120"/>
+      <c r="BB77" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC77" s="120"/>
+      <c r="BD77" s="120"/>
+      <c r="BE77" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF77" s="120"/>
+      <c r="BG77" s="120"/>
+      <c r="BH77" s="120"/>
+      <c r="BI77" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="AZ76" s="105"/>
-      <c r="BA76" s="105"/>
-      <c r="BB76" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="BC76" s="105"/>
-      <c r="BD76" s="105"/>
-      <c r="BE76" s="105"/>
-      <c r="BF76" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG76" s="105"/>
-      <c r="BH76" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI76" s="105"/>
-      <c r="BJ76" s="105"/>
-      <c r="BK76" s="105"/>
-      <c r="BL76" s="105" t="s">
+      <c r="BJ77" s="120"/>
+      <c r="BK77" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL77" s="120"/>
+      <c r="BM77" s="120"/>
+      <c r="BN77" s="120"/>
+      <c r="BO77" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="BM76" s="105"/>
-      <c r="BN76" s="105"/>
-      <c r="BO76" s="105"/>
-      <c r="BP76" s="105"/>
-      <c r="BQ76" s="52" t="s">
+      <c r="BP77" s="120"/>
+      <c r="BQ77" s="120"/>
+      <c r="BR77" s="120"/>
+      <c r="BS77" s="120"/>
+      <c r="BT77" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BR76" s="52"/>
-      <c r="BS76" s="52"/>
-      <c r="BT76" s="52"/>
-      <c r="BU76" s="43"/>
-      <c r="BV76" s="105" t="s">
+      <c r="BU77" s="52"/>
+      <c r="BV77" s="52"/>
+      <c r="BW77" s="52"/>
+      <c r="BX77" s="43"/>
+      <c r="BY77" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="BW76" s="105"/>
-      <c r="BX76" s="105"/>
-      <c r="BY76" s="105"/>
-      <c r="BZ76" s="105"/>
-      <c r="CA76" s="52" t="s">
+      <c r="BZ77" s="120"/>
+      <c r="CA77" s="120"/>
+      <c r="CB77" s="120"/>
+      <c r="CC77" s="120"/>
+      <c r="CD77" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="CB76" s="52"/>
-      <c r="CC76" s="52"/>
-      <c r="CD76" s="52"/>
-      <c r="CE76" s="43"/>
-      <c r="CF76" s="42"/>
-      <c r="CG76" s="42"/>
-      <c r="CH76" s="42"/>
-      <c r="CI76" s="42"/>
-      <c r="CJ76" s="64"/>
+      <c r="CE77" s="52"/>
+      <c r="CF77" s="52"/>
+      <c r="CG77" s="52"/>
+      <c r="CH77" s="43"/>
+      <c r="CI77" s="42"/>
+      <c r="CJ77" s="42"/>
+      <c r="CK77" s="42"/>
+      <c r="CL77" s="42"/>
+      <c r="CM77" s="42"/>
+      <c r="CN77" s="42"/>
+      <c r="CO77" s="64"/>
     </row>
-    <row r="77" spans="1:132" ht="19">
-      <c r="D77" s="1"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="106">
+    <row r="78" spans="1:133" ht="20">
+      <c r="E78" s="1"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="113">
         <v>1</v>
       </c>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106">
+      <c r="H78" s="113"/>
+      <c r="I78" s="113">
         <v>1</v>
       </c>
-      <c r="I77" s="106"/>
-      <c r="J77" s="106"/>
-      <c r="K77" s="106">
+      <c r="J78" s="113"/>
+      <c r="K78" s="113"/>
+      <c r="L78" s="113">
         <v>60</v>
       </c>
-      <c r="L77" s="106"/>
-      <c r="M77" s="106"/>
-      <c r="N77" s="106"/>
-      <c r="O77" s="106">
+      <c r="M78" s="113"/>
+      <c r="N78" s="113"/>
+      <c r="O78" s="113"/>
+      <c r="P78" s="113">
         <v>9</v>
       </c>
-      <c r="P77" s="106"/>
-      <c r="Q77" s="106">
-        <f>H77*K77*O77</f>
+      <c r="Q78" s="113"/>
+      <c r="R78" s="113">
+        <f>I78*L78*P78</f>
         <v>540</v>
       </c>
-      <c r="R77" s="106"/>
-      <c r="S77" s="106"/>
-      <c r="T77" s="106"/>
-      <c r="U77" s="107">
+      <c r="S78" s="113"/>
+      <c r="T78" s="113"/>
+      <c r="U78" s="113"/>
+      <c r="V78" s="115">
         <v>28</v>
       </c>
-      <c r="V77" s="107"/>
-      <c r="W77" s="53" t="s">
+      <c r="W78" s="115"/>
+      <c r="X78" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="X77" s="107">
+      <c r="Y78" s="115">
         <v>28</v>
       </c>
-      <c r="Y77" s="107"/>
-      <c r="Z77" s="106">
-        <f>H77*U77*X77</f>
+      <c r="Z78" s="115"/>
+      <c r="AA78" s="113">
+        <f>I78*V78*Y78</f>
         <v>784</v>
       </c>
-      <c r="AA77" s="106"/>
-      <c r="AB77" s="106"/>
-      <c r="AC77" s="106"/>
-      <c r="AD77" s="65"/>
-      <c r="AE77" s="107">
+      <c r="AB78" s="113"/>
+      <c r="AC78" s="113"/>
+      <c r="AD78" s="113"/>
+      <c r="AE78" s="65"/>
+      <c r="AF78" s="115">
         <v>28</v>
       </c>
-      <c r="AF77" s="107"/>
-      <c r="AG77" s="53" t="s">
+      <c r="AG78" s="115"/>
+      <c r="AH78" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AH77" s="107">
+      <c r="AI78" s="115">
         <v>28</v>
       </c>
-      <c r="AI77" s="107"/>
-      <c r="AJ77" s="106">
-        <f>K77*AE77*AH77</f>
+      <c r="AJ78" s="115"/>
+      <c r="AK78" s="113">
+        <f>L78*AF78*AI78</f>
         <v>47040</v>
       </c>
-      <c r="AK77" s="106"/>
-      <c r="AL77" s="106"/>
-      <c r="AM77" s="106"/>
-      <c r="AN77" s="1"/>
-      <c r="AO77" s="54" t="s">
+      <c r="AL78" s="113"/>
+      <c r="AM78" s="113"/>
+      <c r="AN78" s="113"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AQ77" s="54"/>
-      <c r="AR77" s="54"/>
-      <c r="AS77" s="64"/>
-      <c r="AV77" s="63"/>
-      <c r="AW77" s="106">
+      <c r="AR78" s="54"/>
+      <c r="AS78" s="54"/>
+      <c r="AT78" s="54"/>
+      <c r="AU78" s="54"/>
+      <c r="AV78" s="64"/>
+      <c r="AY78" s="63"/>
+      <c r="AZ78" s="121">
         <v>1</v>
       </c>
-      <c r="AX77" s="106"/>
-      <c r="AY77" s="106">
+      <c r="BA78" s="121"/>
+      <c r="BB78" s="121">
         <v>3</v>
       </c>
-      <c r="AZ77" s="106"/>
-      <c r="BA77" s="106"/>
-      <c r="BB77" s="106">
+      <c r="BC78" s="121"/>
+      <c r="BD78" s="121"/>
+      <c r="BE78" s="121">
         <v>60</v>
       </c>
-      <c r="BC77" s="106"/>
-      <c r="BD77" s="106"/>
-      <c r="BE77" s="106"/>
-      <c r="BF77" s="106">
+      <c r="BF78" s="121"/>
+      <c r="BG78" s="121"/>
+      <c r="BH78" s="121"/>
+      <c r="BI78" s="121">
         <v>9</v>
       </c>
-      <c r="BG77" s="106"/>
-      <c r="BH77" s="106">
-        <f>AY77*BB77*BF77</f>
+      <c r="BJ78" s="121"/>
+      <c r="BK78" s="121">
+        <f>BB78*BE78*BI78</f>
         <v>1620</v>
       </c>
-      <c r="BI77" s="106"/>
-      <c r="BJ77" s="106"/>
-      <c r="BK77" s="106"/>
-      <c r="BL77" s="107">
+      <c r="BL78" s="121"/>
+      <c r="BM78" s="121"/>
+      <c r="BN78" s="121"/>
+      <c r="BO78" s="137">
         <v>32</v>
       </c>
-      <c r="BM77" s="107"/>
-      <c r="BN77" s="53" t="s">
+      <c r="BP78" s="137"/>
+      <c r="BQ78" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BO77" s="107">
+      <c r="BR78" s="137">
         <v>32</v>
       </c>
-      <c r="BP77" s="107"/>
-      <c r="BQ77" s="106">
-        <f>AY77*BL77*BO77</f>
+      <c r="BS78" s="137"/>
+      <c r="BT78" s="121">
+        <f>BB78*BO78*BR78</f>
         <v>3072</v>
       </c>
-      <c r="BR77" s="106"/>
-      <c r="BS77" s="106"/>
-      <c r="BT77" s="106"/>
-      <c r="BU77" s="65"/>
-      <c r="BV77" s="107">
+      <c r="BU78" s="121"/>
+      <c r="BV78" s="121"/>
+      <c r="BW78" s="121"/>
+      <c r="BX78" s="65"/>
+      <c r="BY78" s="137">
         <v>32</v>
       </c>
-      <c r="BW77" s="107"/>
-      <c r="BX77" s="53" t="s">
+      <c r="BZ78" s="137"/>
+      <c r="CA78" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BY77" s="107">
+      <c r="CB78" s="137">
         <v>32</v>
       </c>
-      <c r="BZ77" s="107"/>
-      <c r="CA77" s="106">
-        <f>BB77*BV77*BY77</f>
+      <c r="CC78" s="137"/>
+      <c r="CD78" s="121">
+        <f>BE78*BY78*CB78</f>
         <v>61440</v>
       </c>
-      <c r="CB77" s="106"/>
-      <c r="CC77" s="106"/>
-      <c r="CD77" s="106"/>
-      <c r="CE77" s="1"/>
-      <c r="CF77" s="54" t="s">
+      <c r="CE78" s="121"/>
+      <c r="CF78" s="121"/>
+      <c r="CG78" s="121"/>
+      <c r="CH78" s="1"/>
+      <c r="CI78" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="CH77" s="54"/>
-      <c r="CI77" s="54"/>
-      <c r="CJ77" s="64"/>
+      <c r="CK78" s="54"/>
+      <c r="CL78" s="54"/>
+      <c r="CM78" s="54"/>
+      <c r="CN78" s="54"/>
+      <c r="CO78" s="64"/>
     </row>
-    <row r="78" spans="1:132" ht="19">
-      <c r="D78" s="1"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="112">
+    <row r="79" spans="1:133" ht="20">
+      <c r="E79" s="1"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="111">
         <v>2</v>
       </c>
-      <c r="G78" s="112"/>
-      <c r="H78" s="112">
+      <c r="H79" s="111"/>
+      <c r="I79" s="111">
         <v>60</v>
       </c>
-      <c r="I78" s="112"/>
-      <c r="J78" s="112"/>
-      <c r="K78" s="106">
+      <c r="J79" s="111"/>
+      <c r="K79" s="111"/>
+      <c r="L79" s="113">
         <v>60</v>
       </c>
-      <c r="L78" s="106"/>
-      <c r="M78" s="106"/>
-      <c r="N78" s="106"/>
-      <c r="O78" s="112">
+      <c r="M79" s="113"/>
+      <c r="N79" s="113"/>
+      <c r="O79" s="113"/>
+      <c r="P79" s="111">
         <v>9</v>
       </c>
-      <c r="P78" s="112"/>
-      <c r="Q78" s="106">
-        <f>H78*K78*O78</f>
+      <c r="Q79" s="111"/>
+      <c r="R79" s="113">
+        <f>I79*L79*P79</f>
         <v>32400</v>
       </c>
-      <c r="R78" s="106"/>
-      <c r="S78" s="106"/>
-      <c r="T78" s="106"/>
-      <c r="U78" s="113">
+      <c r="S79" s="113"/>
+      <c r="T79" s="113"/>
+      <c r="U79" s="113"/>
+      <c r="V79" s="114">
         <v>28</v>
       </c>
-      <c r="V78" s="113"/>
-      <c r="W78" s="66" t="s">
+      <c r="W79" s="114"/>
+      <c r="X79" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="X78" s="113">
+      <c r="Y79" s="114">
         <v>28</v>
       </c>
-      <c r="Y78" s="113"/>
-      <c r="Z78" s="106">
-        <f>H78*U78*X78</f>
+      <c r="Z79" s="114"/>
+      <c r="AA79" s="113">
+        <f>I79*V79*Y79</f>
         <v>47040</v>
       </c>
-      <c r="AA78" s="106"/>
-      <c r="AB78" s="106"/>
-      <c r="AC78" s="106"/>
-      <c r="AD78" s="65"/>
-      <c r="AE78" s="107">
+      <c r="AB79" s="113"/>
+      <c r="AC79" s="113"/>
+      <c r="AD79" s="113"/>
+      <c r="AE79" s="65"/>
+      <c r="AF79" s="115">
         <v>16</v>
       </c>
-      <c r="AF78" s="107"/>
-      <c r="AG78" s="53" t="s">
+      <c r="AG79" s="115"/>
+      <c r="AH79" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AH78" s="107">
+      <c r="AI79" s="115">
         <v>16</v>
       </c>
-      <c r="AI78" s="107"/>
-      <c r="AJ78" s="106">
-        <f>K78*AE78*AH78</f>
+      <c r="AJ79" s="115"/>
+      <c r="AK79" s="113">
+        <f>L79*AF79*AI79</f>
         <v>15360</v>
       </c>
-      <c r="AK78" s="106"/>
-      <c r="AL78" s="106"/>
-      <c r="AM78" s="106"/>
-      <c r="AN78" s="1"/>
-      <c r="AO78" s="54" t="s">
+      <c r="AL79" s="113"/>
+      <c r="AM79" s="113"/>
+      <c r="AN79" s="113"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="64"/>
+      <c r="AY79" s="63"/>
+      <c r="AZ79" s="111">
+        <v>2</v>
+      </c>
+      <c r="BA79" s="111"/>
+      <c r="BB79" s="111">
+        <v>60</v>
+      </c>
+      <c r="BC79" s="111"/>
+      <c r="BD79" s="111"/>
+      <c r="BE79" s="113">
+        <v>60</v>
+      </c>
+      <c r="BF79" s="113"/>
+      <c r="BG79" s="113"/>
+      <c r="BH79" s="113"/>
+      <c r="BI79" s="111">
+        <v>9</v>
+      </c>
+      <c r="BJ79" s="111"/>
+      <c r="BK79" s="113">
+        <f>BB79*BE79*BI79</f>
+        <v>32400</v>
+      </c>
+      <c r="BL79" s="113"/>
+      <c r="BM79" s="113"/>
+      <c r="BN79" s="113"/>
+      <c r="BO79" s="114">
+        <v>32</v>
+      </c>
+      <c r="BP79" s="114"/>
+      <c r="BQ79" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR79" s="114">
+        <v>32</v>
+      </c>
+      <c r="BS79" s="114"/>
+      <c r="BT79" s="113">
+        <f>BB79*BO79*BR79</f>
+        <v>61440</v>
+      </c>
+      <c r="BU79" s="113"/>
+      <c r="BV79" s="113"/>
+      <c r="BW79" s="113"/>
+      <c r="BX79" s="65"/>
+      <c r="BY79" s="115">
+        <v>16</v>
+      </c>
+      <c r="BZ79" s="115"/>
+      <c r="CA79" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB79" s="115">
+        <v>16</v>
+      </c>
+      <c r="CC79" s="115"/>
+      <c r="CD79" s="113">
+        <f>BE79*BY79*CB79</f>
+        <v>15360</v>
+      </c>
+      <c r="CE79" s="113"/>
+      <c r="CF79" s="113"/>
+      <c r="CG79" s="113"/>
+      <c r="CH79" s="1"/>
+      <c r="CI79" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK79" s="1"/>
+      <c r="CL79" s="1"/>
+      <c r="CM79" s="1"/>
+      <c r="CN79" s="1"/>
+      <c r="CO79" s="64"/>
+    </row>
+    <row r="80" spans="1:133" ht="20">
+      <c r="E80"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="111">
+        <v>3</v>
+      </c>
+      <c r="H80" s="111"/>
+      <c r="I80" s="111">
+        <v>60</v>
+      </c>
+      <c r="J80" s="111"/>
+      <c r="K80" s="111"/>
+      <c r="L80" s="113">
+        <v>56</v>
+      </c>
+      <c r="M80" s="113"/>
+      <c r="N80" s="113"/>
+      <c r="O80" s="113"/>
+      <c r="P80" s="111">
+        <v>9</v>
+      </c>
+      <c r="Q80" s="111"/>
+      <c r="R80" s="113">
+        <f>I80*L80*P80</f>
+        <v>30240</v>
+      </c>
+      <c r="S80" s="113"/>
+      <c r="T80" s="113"/>
+      <c r="U80" s="113"/>
+      <c r="V80" s="114">
+        <v>16</v>
+      </c>
+      <c r="W80" s="114"/>
+      <c r="X80" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y80" s="114">
+        <v>16</v>
+      </c>
+      <c r="Z80" s="114"/>
+      <c r="AA80" s="113">
+        <f>I80*V80*Y80</f>
+        <v>15360</v>
+      </c>
+      <c r="AB80" s="113"/>
+      <c r="AC80" s="113"/>
+      <c r="AD80" s="113"/>
+      <c r="AE80" s="65"/>
+      <c r="AF80" s="115">
+        <v>8</v>
+      </c>
+      <c r="AG80" s="115"/>
+      <c r="AH80" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI80" s="115">
+        <v>8</v>
+      </c>
+      <c r="AJ80" s="115"/>
+      <c r="AK80" s="113">
+        <f>L80*AF80*AI80</f>
+        <v>3584</v>
+      </c>
+      <c r="AL80" s="113"/>
+      <c r="AM80" s="113"/>
+      <c r="AN80" s="113"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="64"/>
+      <c r="AY80" s="63"/>
+      <c r="AZ80" s="111">
+        <v>3</v>
+      </c>
+      <c r="BA80" s="111"/>
+      <c r="BB80" s="111">
+        <v>60</v>
+      </c>
+      <c r="BC80" s="111"/>
+      <c r="BD80" s="111"/>
+      <c r="BE80" s="113">
+        <v>56</v>
+      </c>
+      <c r="BF80" s="113"/>
+      <c r="BG80" s="113"/>
+      <c r="BH80" s="113"/>
+      <c r="BI80" s="111">
+        <v>9</v>
+      </c>
+      <c r="BJ80" s="111"/>
+      <c r="BK80" s="113">
+        <f>BB80*BE80*BI80</f>
+        <v>30240</v>
+      </c>
+      <c r="BL80" s="113"/>
+      <c r="BM80" s="113"/>
+      <c r="BN80" s="113"/>
+      <c r="BO80" s="114">
+        <v>16</v>
+      </c>
+      <c r="BP80" s="114"/>
+      <c r="BQ80" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR80" s="114">
+        <v>16</v>
+      </c>
+      <c r="BS80" s="114"/>
+      <c r="BT80" s="113">
+        <f>BB80*BO80*BR80</f>
+        <v>15360</v>
+      </c>
+      <c r="BU80" s="113"/>
+      <c r="BV80" s="113"/>
+      <c r="BW80" s="113"/>
+      <c r="BX80" s="65"/>
+      <c r="BY80" s="115">
+        <v>8</v>
+      </c>
+      <c r="BZ80" s="115"/>
+      <c r="CA80" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB80" s="115">
+        <v>8</v>
+      </c>
+      <c r="CC80" s="115"/>
+      <c r="CD80" s="113">
+        <f>BE80*BY80*CB80</f>
+        <v>3584</v>
+      </c>
+      <c r="CE80" s="113"/>
+      <c r="CF80" s="113"/>
+      <c r="CG80" s="113"/>
+      <c r="CH80" s="1"/>
+      <c r="CI80" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="CK80" s="1"/>
+      <c r="CL80" s="1"/>
+      <c r="CM80" s="1"/>
+      <c r="CN80" s="1"/>
+      <c r="CO80" s="64"/>
+    </row>
+    <row r="81" spans="5:93" ht="20">
+      <c r="E81"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="111">
+        <v>4</v>
+      </c>
+      <c r="H81" s="111"/>
+      <c r="I81" s="111">
+        <v>56</v>
+      </c>
+      <c r="J81" s="111"/>
+      <c r="K81" s="111"/>
+      <c r="L81" s="113">
+        <v>12</v>
+      </c>
+      <c r="M81" s="113"/>
+      <c r="N81" s="113"/>
+      <c r="O81" s="113"/>
+      <c r="P81" s="111">
+        <v>9</v>
+      </c>
+      <c r="Q81" s="111"/>
+      <c r="R81" s="113">
+        <f>I81*L81*P81</f>
+        <v>6048</v>
+      </c>
+      <c r="S81" s="113"/>
+      <c r="T81" s="113"/>
+      <c r="U81" s="113"/>
+      <c r="V81" s="114">
+        <v>8</v>
+      </c>
+      <c r="W81" s="114"/>
+      <c r="X81" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y81" s="114">
+        <v>8</v>
+      </c>
+      <c r="Z81" s="114"/>
+      <c r="AA81" s="113">
+        <f>I81*V81*Y81</f>
+        <v>3584</v>
+      </c>
+      <c r="AB81" s="113"/>
+      <c r="AC81" s="113"/>
+      <c r="AD81" s="113"/>
+      <c r="AE81" s="65"/>
+      <c r="AF81" s="115">
+        <v>4</v>
+      </c>
+      <c r="AG81" s="115"/>
+      <c r="AH81" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI81" s="115">
+        <v>4</v>
+      </c>
+      <c r="AJ81" s="115"/>
+      <c r="AK81" s="113">
+        <f>L81*AF81*AI81</f>
+        <v>192</v>
+      </c>
+      <c r="AL81" s="113"/>
+      <c r="AM81" s="113"/>
+      <c r="AN81" s="113"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AQ78" s="1"/>
-      <c r="AR78" s="1"/>
-      <c r="AS78" s="64"/>
-      <c r="AV78" s="63"/>
-      <c r="AW78" s="112">
-        <v>2</v>
-      </c>
-      <c r="AX78" s="112"/>
-      <c r="AY78" s="112">
-        <v>60</v>
-      </c>
-      <c r="AZ78" s="112"/>
-      <c r="BA78" s="112"/>
-      <c r="BB78" s="106">
-        <v>60</v>
-      </c>
-      <c r="BC78" s="106"/>
-      <c r="BD78" s="106"/>
-      <c r="BE78" s="106"/>
-      <c r="BF78" s="112">
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AV81" s="64"/>
+      <c r="AY81" s="63"/>
+      <c r="AZ81" s="138">
+        <v>4</v>
+      </c>
+      <c r="BA81" s="138"/>
+      <c r="BB81" s="138">
+        <v>56</v>
+      </c>
+      <c r="BC81" s="138"/>
+      <c r="BD81" s="138"/>
+      <c r="BE81" s="120">
+        <v>12</v>
+      </c>
+      <c r="BF81" s="120"/>
+      <c r="BG81" s="120"/>
+      <c r="BH81" s="120"/>
+      <c r="BI81" s="138">
         <v>9</v>
       </c>
-      <c r="BG78" s="112"/>
-      <c r="BH78" s="106">
-        <f>AY78*BB78*BF78</f>
-        <v>32400</v>
-      </c>
-      <c r="BI78" s="106"/>
-      <c r="BJ78" s="106"/>
-      <c r="BK78" s="106"/>
-      <c r="BL78" s="113">
-        <v>32</v>
-      </c>
-      <c r="BM78" s="113"/>
-      <c r="BN78" s="66" t="s">
+      <c r="BJ81" s="138"/>
+      <c r="BK81" s="120">
+        <f>BB81*BE81*BI81</f>
+        <v>6048</v>
+      </c>
+      <c r="BL81" s="120"/>
+      <c r="BM81" s="120"/>
+      <c r="BN81" s="120"/>
+      <c r="BO81" s="140">
+        <v>8</v>
+      </c>
+      <c r="BP81" s="140"/>
+      <c r="BQ81" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="BO78" s="113">
-        <v>32</v>
-      </c>
-      <c r="BP78" s="113"/>
-      <c r="BQ78" s="106">
-        <f>AY78*BL78*BO78</f>
-        <v>61440</v>
-      </c>
-      <c r="BR78" s="106"/>
-      <c r="BS78" s="106"/>
-      <c r="BT78" s="106"/>
-      <c r="BU78" s="65"/>
-      <c r="BV78" s="107">
-        <v>16</v>
-      </c>
-      <c r="BW78" s="107"/>
-      <c r="BX78" s="53" t="s">
+      <c r="BR81" s="140">
+        <v>8</v>
+      </c>
+      <c r="BS81" s="140"/>
+      <c r="BT81" s="120">
+        <f>BB81*BO81*BR81</f>
+        <v>3584</v>
+      </c>
+      <c r="BU81" s="120"/>
+      <c r="BV81" s="120"/>
+      <c r="BW81" s="120"/>
+      <c r="BX81" s="65"/>
+      <c r="BY81" s="139">
+        <v>4</v>
+      </c>
+      <c r="BZ81" s="139"/>
+      <c r="CA81" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BY78" s="107">
-        <v>16</v>
-      </c>
-      <c r="BZ78" s="107"/>
-      <c r="CA78" s="106">
-        <f>BB78*BV78*BY78</f>
-        <v>15360</v>
-      </c>
-      <c r="CB78" s="106"/>
-      <c r="CC78" s="106"/>
-      <c r="CD78" s="106"/>
-      <c r="CE78" s="1"/>
-      <c r="CF78" s="54" t="s">
+      <c r="CB81" s="139">
+        <v>4</v>
+      </c>
+      <c r="CC81" s="139"/>
+      <c r="CD81" s="120">
+        <f>BE81*BY81*CB81</f>
+        <v>192</v>
+      </c>
+      <c r="CE81" s="120"/>
+      <c r="CF81" s="120"/>
+      <c r="CG81" s="120"/>
+      <c r="CH81" s="1"/>
+      <c r="CI81" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="CH78" s="1"/>
-      <c r="CI78" s="1"/>
-      <c r="CJ78" s="64"/>
+      <c r="CK81" s="1"/>
+      <c r="CL81" s="1"/>
+      <c r="CM81" s="1"/>
+      <c r="CN81" s="1"/>
+      <c r="CO81" s="64"/>
     </row>
-    <row r="79" spans="1:132" ht="19">
-      <c r="D79"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="112">
-        <v>3</v>
-      </c>
-      <c r="G79" s="112"/>
-      <c r="H79" s="112">
-        <v>60</v>
-      </c>
-      <c r="I79" s="112"/>
-      <c r="J79" s="112"/>
-      <c r="K79" s="106">
-        <v>56</v>
-      </c>
-      <c r="L79" s="106"/>
-      <c r="M79" s="106"/>
-      <c r="N79" s="106"/>
-      <c r="O79" s="112">
-        <v>9</v>
-      </c>
-      <c r="P79" s="112"/>
-      <c r="Q79" s="106">
-        <f>H79*K79*O79</f>
-        <v>30240</v>
-      </c>
-      <c r="R79" s="106"/>
-      <c r="S79" s="106"/>
-      <c r="T79" s="106"/>
-      <c r="U79" s="113">
-        <v>16</v>
-      </c>
-      <c r="V79" s="113"/>
-      <c r="W79" s="66" t="s">
+    <row r="82" spans="5:93" ht="20">
+      <c r="E82"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="118">
+        <v>5</v>
+      </c>
+      <c r="H82" s="118"/>
+      <c r="I82" s="118">
+        <v>12</v>
+      </c>
+      <c r="J82" s="118"/>
+      <c r="K82" s="118"/>
+      <c r="L82" s="117">
+        <v>10</v>
+      </c>
+      <c r="M82" s="117"/>
+      <c r="N82" s="117"/>
+      <c r="O82" s="117"/>
+      <c r="P82" s="118"/>
+      <c r="Q82" s="118"/>
+      <c r="R82" s="117">
+        <f>I82*L82*V82*Y82</f>
+        <v>1920</v>
+      </c>
+      <c r="S82" s="117"/>
+      <c r="T82" s="117"/>
+      <c r="U82" s="117"/>
+      <c r="V82" s="119">
+        <v>4</v>
+      </c>
+      <c r="W82" s="119"/>
+      <c r="X82" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="X79" s="113">
-        <v>16</v>
-      </c>
-      <c r="Y79" s="113"/>
-      <c r="Z79" s="106">
-        <f>H79*U79*X79</f>
-        <v>15360</v>
-      </c>
-      <c r="AA79" s="106"/>
-      <c r="AB79" s="106"/>
-      <c r="AC79" s="106"/>
-      <c r="AD79" s="65"/>
-      <c r="AE79" s="107">
-        <v>8</v>
-      </c>
-      <c r="AF79" s="107"/>
-      <c r="AG79" s="53" t="s">
+      <c r="Y82" s="119">
+        <v>4</v>
+      </c>
+      <c r="Z82" s="119"/>
+      <c r="AA82" s="117">
+        <f>I82*V82*Y82</f>
+        <v>192</v>
+      </c>
+      <c r="AB82" s="117"/>
+      <c r="AC82" s="117"/>
+      <c r="AD82" s="117"/>
+      <c r="AE82" s="56"/>
+      <c r="AF82" s="116">
+        <v>1</v>
+      </c>
+      <c r="AG82" s="116"/>
+      <c r="AH82" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AH79" s="107">
-        <v>8</v>
-      </c>
-      <c r="AI79" s="107"/>
-      <c r="AJ79" s="106">
-        <f>K79*AE79*AH79</f>
-        <v>3584</v>
-      </c>
-      <c r="AK79" s="106"/>
-      <c r="AL79" s="106"/>
-      <c r="AM79" s="106"/>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ79" s="1"/>
-      <c r="AR79" s="1"/>
-      <c r="AS79" s="64"/>
-      <c r="AV79" s="63"/>
-      <c r="AW79" s="112">
-        <v>3</v>
-      </c>
-      <c r="AX79" s="112"/>
-      <c r="AY79" s="112">
-        <v>60</v>
-      </c>
-      <c r="AZ79" s="112"/>
-      <c r="BA79" s="112"/>
-      <c r="BB79" s="106">
-        <v>56</v>
-      </c>
-      <c r="BC79" s="106"/>
-      <c r="BD79" s="106"/>
-      <c r="BE79" s="106"/>
-      <c r="BF79" s="112">
-        <v>9</v>
-      </c>
-      <c r="BG79" s="112"/>
-      <c r="BH79" s="106">
-        <f>AY79*BB79*BF79</f>
-        <v>30240</v>
-      </c>
-      <c r="BI79" s="106"/>
-      <c r="BJ79" s="106"/>
-      <c r="BK79" s="106"/>
-      <c r="BL79" s="113">
-        <v>16</v>
-      </c>
-      <c r="BM79" s="113"/>
-      <c r="BN79" s="66" t="s">
+      <c r="AI82" s="116">
+        <v>10</v>
+      </c>
+      <c r="AJ82" s="116"/>
+      <c r="AK82" s="117">
+        <f>L82*AF82*AI82</f>
+        <v>100</v>
+      </c>
+      <c r="AL82" s="117"/>
+      <c r="AM82" s="117"/>
+      <c r="AN82" s="117"/>
+      <c r="AO82" s="58"/>
+      <c r="AP82" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ82" s="58"/>
+      <c r="AR82" s="58"/>
+      <c r="AS82" s="58"/>
+      <c r="AT82" s="58"/>
+      <c r="AU82" s="58"/>
+      <c r="AV82" s="64"/>
+      <c r="AY82" s="63"/>
+      <c r="AZ82" s="118">
+        <v>5</v>
+      </c>
+      <c r="BA82" s="118"/>
+      <c r="BB82" s="118">
+        <v>12</v>
+      </c>
+      <c r="BC82" s="118"/>
+      <c r="BD82" s="118"/>
+      <c r="BE82" s="117">
+        <v>10</v>
+      </c>
+      <c r="BF82" s="117"/>
+      <c r="BG82" s="117"/>
+      <c r="BH82" s="117"/>
+      <c r="BI82" s="118"/>
+      <c r="BJ82" s="118"/>
+      <c r="BK82" s="117">
+        <f>BB82*BE82*BO82*BR82</f>
+        <v>1920</v>
+      </c>
+      <c r="BL82" s="117"/>
+      <c r="BM82" s="117"/>
+      <c r="BN82" s="117"/>
+      <c r="BO82" s="119">
+        <v>4</v>
+      </c>
+      <c r="BP82" s="119"/>
+      <c r="BQ82" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="BO79" s="113">
-        <v>16</v>
-      </c>
-      <c r="BP79" s="113"/>
-      <c r="BQ79" s="106">
-        <f>AY79*BL79*BO79</f>
-        <v>15360</v>
-      </c>
-      <c r="BR79" s="106"/>
-      <c r="BS79" s="106"/>
-      <c r="BT79" s="106"/>
-      <c r="BU79" s="65"/>
-      <c r="BV79" s="107">
-        <v>8</v>
-      </c>
-      <c r="BW79" s="107"/>
-      <c r="BX79" s="53" t="s">
+      <c r="BR82" s="119">
+        <v>4</v>
+      </c>
+      <c r="BS82" s="119"/>
+      <c r="BT82" s="117">
+        <f>BB82*BO82*BR82</f>
+        <v>192</v>
+      </c>
+      <c r="BU82" s="117"/>
+      <c r="BV82" s="117"/>
+      <c r="BW82" s="117"/>
+      <c r="BX82" s="56"/>
+      <c r="BY82" s="116">
+        <v>1</v>
+      </c>
+      <c r="BZ82" s="116"/>
+      <c r="CA82" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="BY79" s="107">
-        <v>8</v>
-      </c>
-      <c r="BZ79" s="107"/>
-      <c r="CA79" s="106">
-        <f>BB79*BV79*BY79</f>
-        <v>3584</v>
-      </c>
-      <c r="CB79" s="106"/>
-      <c r="CC79" s="106"/>
-      <c r="CD79" s="106"/>
-      <c r="CE79" s="1"/>
-      <c r="CF79" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="CH79" s="1"/>
-      <c r="CI79" s="1"/>
-      <c r="CJ79" s="64"/>
+      <c r="CB82" s="116">
+        <v>10</v>
+      </c>
+      <c r="CC82" s="116"/>
+      <c r="CD82" s="117">
+        <f>BE82*BY82*CB82</f>
+        <v>100</v>
+      </c>
+      <c r="CE82" s="117"/>
+      <c r="CF82" s="117"/>
+      <c r="CG82" s="117"/>
+      <c r="CH82" s="58"/>
+      <c r="CI82" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="CJ82" s="58"/>
+      <c r="CK82" s="58"/>
+      <c r="CL82" s="58"/>
+      <c r="CM82" s="58"/>
+      <c r="CN82" s="58"/>
+      <c r="CO82" s="64"/>
     </row>
-    <row r="80" spans="1:132" ht="19">
-      <c r="D80"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="112">
-        <v>4</v>
-      </c>
-      <c r="G80" s="112"/>
-      <c r="H80" s="112">
-        <v>56</v>
-      </c>
-      <c r="I80" s="112"/>
-      <c r="J80" s="112"/>
-      <c r="K80" s="106">
-        <v>12</v>
-      </c>
-      <c r="L80" s="106"/>
-      <c r="M80" s="106"/>
-      <c r="N80" s="106"/>
-      <c r="O80" s="112">
-        <v>9</v>
-      </c>
-      <c r="P80" s="112"/>
-      <c r="Q80" s="106">
-        <f>H80*K80*O80</f>
-        <v>6048</v>
-      </c>
-      <c r="R80" s="106"/>
-      <c r="S80" s="106"/>
-      <c r="T80" s="106"/>
-      <c r="U80" s="113">
-        <v>8</v>
-      </c>
-      <c r="V80" s="113"/>
-      <c r="W80" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="X80" s="113">
-        <v>8</v>
-      </c>
-      <c r="Y80" s="113"/>
-      <c r="Z80" s="106">
-        <f>H80*U80*X80</f>
-        <v>3584</v>
-      </c>
-      <c r="AA80" s="106"/>
-      <c r="AB80" s="106"/>
-      <c r="AC80" s="106"/>
-      <c r="AD80" s="65"/>
-      <c r="AE80" s="107">
-        <v>4</v>
-      </c>
-      <c r="AF80" s="107"/>
-      <c r="AG80" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH80" s="107">
-        <v>4</v>
-      </c>
-      <c r="AI80" s="107"/>
-      <c r="AJ80" s="106">
-        <f>K80*AE80*AH80</f>
-        <v>192</v>
-      </c>
-      <c r="AK80" s="106"/>
-      <c r="AL80" s="106"/>
-      <c r="AM80" s="106"/>
-      <c r="AN80" s="1"/>
-      <c r="AO80" s="54" t="s">
+    <row r="83" spans="5:93" ht="20">
+      <c r="E83"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="85"/>
+      <c r="L83" s="86"/>
+      <c r="N83" s="86"/>
+      <c r="Q83" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="AQ80" s="1"/>
-      <c r="AR80" s="1"/>
-      <c r="AS80" s="64"/>
-      <c r="AV80" s="63"/>
-      <c r="AW80" s="112">
-        <v>4</v>
-      </c>
-      <c r="AX80" s="112"/>
-      <c r="AY80" s="112">
-        <v>56</v>
-      </c>
-      <c r="AZ80" s="112"/>
-      <c r="BA80" s="112"/>
-      <c r="BB80" s="106">
-        <v>12</v>
-      </c>
-      <c r="BC80" s="106"/>
-      <c r="BD80" s="106"/>
-      <c r="BE80" s="106"/>
-      <c r="BF80" s="112">
-        <v>9</v>
-      </c>
-      <c r="BG80" s="112"/>
-      <c r="BH80" s="106">
-        <f>AY80*BB80*BF80</f>
-        <v>6048</v>
-      </c>
-      <c r="BI80" s="106"/>
-      <c r="BJ80" s="106"/>
-      <c r="BK80" s="106"/>
-      <c r="BL80" s="113">
-        <v>8</v>
-      </c>
-      <c r="BM80" s="113"/>
-      <c r="BN80" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="BO80" s="113">
-        <v>8</v>
-      </c>
-      <c r="BP80" s="113"/>
-      <c r="BQ80" s="106">
-        <f>AY80*BL80*BO80</f>
-        <v>3584</v>
-      </c>
-      <c r="BR80" s="106"/>
-      <c r="BS80" s="106"/>
-      <c r="BT80" s="106"/>
-      <c r="BU80" s="65"/>
-      <c r="BV80" s="107">
-        <v>4</v>
-      </c>
-      <c r="BW80" s="107"/>
-      <c r="BX80" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="BY80" s="107">
-        <v>4</v>
-      </c>
-      <c r="BZ80" s="107"/>
-      <c r="CA80" s="106">
-        <f>BB80*BV80*BY80</f>
-        <v>192</v>
-      </c>
-      <c r="CB80" s="106"/>
-      <c r="CC80" s="106"/>
-      <c r="CD80" s="106"/>
-      <c r="CE80" s="1"/>
-      <c r="CF80" s="54" t="s">
+      <c r="R83" s="121">
+        <f>SUM(R78:U82)</f>
+        <v>71148</v>
+      </c>
+      <c r="S83" s="121"/>
+      <c r="T83" s="121"/>
+      <c r="U83" s="121"/>
+      <c r="V83" s="87"/>
+      <c r="W83" s="87"/>
+      <c r="X83" s="66"/>
+      <c r="Y83" s="87"/>
+      <c r="Z83" s="87"/>
+      <c r="AA83" s="86"/>
+      <c r="AB83" s="86"/>
+      <c r="AC83" s="86"/>
+      <c r="AD83" s="86"/>
+      <c r="AE83" s="65"/>
+      <c r="AF83" s="88"/>
+      <c r="AG83" s="88"/>
+      <c r="AH83" s="53"/>
+      <c r="AI83" s="88"/>
+      <c r="AJ83" s="88"/>
+      <c r="AK83" s="86"/>
+      <c r="AL83" s="86"/>
+      <c r="AM83" s="86"/>
+      <c r="AN83" s="86"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="54"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="64"/>
+      <c r="AY83" s="63"/>
+      <c r="AZ83" s="99"/>
+      <c r="BA83" s="99"/>
+      <c r="BB83" s="99"/>
+      <c r="BC83" s="99"/>
+      <c r="BD83" s="99"/>
+      <c r="BE83" s="97"/>
+      <c r="BJ83" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="CH80" s="1"/>
-      <c r="CI80" s="1"/>
-      <c r="CJ80" s="64"/>
+      <c r="BK83" s="121">
+        <f>SUM(BK78:BN82)</f>
+        <v>72228</v>
+      </c>
+      <c r="BL83" s="121"/>
+      <c r="BM83" s="121"/>
+      <c r="BN83" s="121"/>
+      <c r="BO83" s="100"/>
+      <c r="BP83" s="100"/>
+      <c r="BQ83" s="66"/>
+      <c r="BR83" s="100"/>
+      <c r="BS83" s="100"/>
+      <c r="BT83" s="97"/>
+      <c r="BU83" s="97"/>
+      <c r="BV83" s="97"/>
+      <c r="BW83" s="97"/>
+      <c r="BX83" s="65"/>
+      <c r="BY83" s="98"/>
+      <c r="BZ83" s="98"/>
+      <c r="CA83" s="53"/>
+      <c r="CB83" s="98"/>
+      <c r="CC83" s="98"/>
+      <c r="CD83" s="97"/>
+      <c r="CE83" s="97"/>
+      <c r="CF83" s="97"/>
+      <c r="CG83" s="97"/>
+      <c r="CH83" s="1"/>
+      <c r="CI83" s="54"/>
+      <c r="CJ83" s="1"/>
+      <c r="CK83" s="1"/>
+      <c r="CL83" s="1"/>
+      <c r="CM83" s="1"/>
+      <c r="CN83" s="1"/>
+      <c r="CO83" s="64"/>
     </row>
-    <row r="81" spans="4:88" ht="19">
-      <c r="D81"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="111">
-        <v>5</v>
-      </c>
-      <c r="G81" s="111"/>
-      <c r="H81" s="111">
-        <v>12</v>
-      </c>
-      <c r="I81" s="111"/>
-      <c r="J81" s="111"/>
-      <c r="K81" s="109">
-        <v>10</v>
-      </c>
-      <c r="L81" s="109"/>
-      <c r="M81" s="109"/>
-      <c r="N81" s="109"/>
-      <c r="O81" s="111"/>
-      <c r="P81" s="111"/>
-      <c r="Q81" s="109">
-        <f>H81*K81*U81*X81</f>
-        <v>1920</v>
-      </c>
-      <c r="R81" s="109"/>
-      <c r="S81" s="109"/>
-      <c r="T81" s="109"/>
-      <c r="U81" s="108">
-        <v>4</v>
-      </c>
-      <c r="V81" s="108"/>
-      <c r="W81" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="X81" s="108">
-        <v>4</v>
-      </c>
-      <c r="Y81" s="108"/>
-      <c r="Z81" s="109">
-        <f>H81*U81*X81</f>
-        <v>192</v>
-      </c>
-      <c r="AA81" s="109"/>
-      <c r="AB81" s="109"/>
-      <c r="AC81" s="109"/>
-      <c r="AD81" s="56"/>
-      <c r="AE81" s="110">
-        <v>1</v>
-      </c>
-      <c r="AF81" s="110"/>
-      <c r="AG81" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH81" s="110">
-        <v>10</v>
-      </c>
-      <c r="AI81" s="110"/>
-      <c r="AJ81" s="109">
-        <f>K81*AE81*AH81</f>
-        <v>100</v>
-      </c>
-      <c r="AK81" s="109"/>
-      <c r="AL81" s="109"/>
-      <c r="AM81" s="109"/>
-      <c r="AN81" s="58"/>
-      <c r="AO81" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP81" s="58"/>
-      <c r="AQ81" s="58"/>
-      <c r="AR81" s="58"/>
-      <c r="AS81" s="64"/>
-      <c r="AV81" s="63"/>
-      <c r="AW81" s="111">
-        <v>5</v>
-      </c>
-      <c r="AX81" s="111"/>
-      <c r="AY81" s="111">
-        <v>12</v>
-      </c>
-      <c r="AZ81" s="111"/>
-      <c r="BA81" s="111"/>
-      <c r="BB81" s="109">
-        <v>10</v>
-      </c>
-      <c r="BC81" s="109"/>
-      <c r="BD81" s="109"/>
-      <c r="BE81" s="109"/>
-      <c r="BF81" s="111"/>
-      <c r="BG81" s="111"/>
-      <c r="BH81" s="109">
-        <f>AY81*BB81*BL81*BO81</f>
-        <v>1920</v>
-      </c>
-      <c r="BI81" s="109"/>
-      <c r="BJ81" s="109"/>
-      <c r="BK81" s="109"/>
-      <c r="BL81" s="108">
-        <v>4</v>
-      </c>
-      <c r="BM81" s="108"/>
-      <c r="BN81" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="BO81" s="108">
-        <v>4</v>
-      </c>
-      <c r="BP81" s="108"/>
-      <c r="BQ81" s="109">
-        <f>AY81*BL81*BO81</f>
-        <v>192</v>
-      </c>
-      <c r="BR81" s="109"/>
-      <c r="BS81" s="109"/>
-      <c r="BT81" s="109"/>
-      <c r="BU81" s="56"/>
-      <c r="BV81" s="110">
-        <v>1</v>
-      </c>
-      <c r="BW81" s="110"/>
-      <c r="BX81" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="BY81" s="110">
-        <v>10</v>
-      </c>
-      <c r="BZ81" s="110"/>
-      <c r="CA81" s="109">
-        <f>BB81*BV81*BY81</f>
-        <v>100</v>
-      </c>
-      <c r="CB81" s="109"/>
-      <c r="CC81" s="109"/>
-      <c r="CD81" s="109"/>
-      <c r="CE81" s="58"/>
-      <c r="CF81" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="CG81" s="58"/>
-      <c r="CH81" s="58"/>
-      <c r="CI81" s="58"/>
-      <c r="CJ81" s="64"/>
+    <row r="84" spans="5:93" ht="17" thickBot="1">
+      <c r="E84"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="68"/>
+      <c r="R84" s="68"/>
+      <c r="S84" s="68"/>
+      <c r="T84" s="68"/>
+      <c r="U84" s="68"/>
+      <c r="V84" s="68"/>
+      <c r="W84" s="68"/>
+      <c r="X84" s="68"/>
+      <c r="Y84" s="68"/>
+      <c r="Z84" s="68"/>
+      <c r="AA84" s="68"/>
+      <c r="AB84" s="68"/>
+      <c r="AC84" s="68"/>
+      <c r="AD84" s="68"/>
+      <c r="AE84" s="68"/>
+      <c r="AF84" s="68"/>
+      <c r="AG84" s="68"/>
+      <c r="AH84" s="68"/>
+      <c r="AI84" s="68"/>
+      <c r="AJ84" s="68"/>
+      <c r="AK84" s="68"/>
+      <c r="AL84" s="68"/>
+      <c r="AM84" s="68"/>
+      <c r="AN84" s="68"/>
+      <c r="AO84" s="68"/>
+      <c r="AP84" s="68"/>
+      <c r="AQ84" s="68"/>
+      <c r="AR84" s="68"/>
+      <c r="AS84" s="68"/>
+      <c r="AT84" s="68"/>
+      <c r="AU84" s="68"/>
+      <c r="AV84" s="69"/>
+      <c r="AY84" s="67"/>
+      <c r="AZ84" s="68"/>
+      <c r="BA84" s="68"/>
+      <c r="BB84" s="68"/>
+      <c r="BC84" s="68"/>
+      <c r="BD84" s="68"/>
+      <c r="BE84" s="68"/>
+      <c r="BF84" s="68"/>
+      <c r="BG84" s="68"/>
+      <c r="BH84" s="68"/>
+      <c r="BI84" s="68"/>
+      <c r="BJ84" s="68"/>
+      <c r="BK84" s="68"/>
+      <c r="BL84" s="68"/>
+      <c r="BM84" s="68"/>
+      <c r="BN84" s="68"/>
+      <c r="BO84" s="68"/>
+      <c r="BP84" s="68"/>
+      <c r="BQ84" s="68"/>
+      <c r="BR84" s="68"/>
+      <c r="BS84" s="68"/>
+      <c r="BT84" s="68"/>
+      <c r="BU84" s="68"/>
+      <c r="BV84" s="68"/>
+      <c r="BW84" s="68"/>
+      <c r="BX84" s="68"/>
+      <c r="BY84" s="68"/>
+      <c r="BZ84" s="68"/>
+      <c r="CA84" s="68"/>
+      <c r="CB84" s="68"/>
+      <c r="CC84" s="68"/>
+      <c r="CD84" s="68"/>
+      <c r="CE84" s="68"/>
+      <c r="CF84" s="68"/>
+      <c r="CG84" s="68"/>
+      <c r="CH84" s="68"/>
+      <c r="CI84" s="68"/>
+      <c r="CJ84" s="68"/>
+      <c r="CK84" s="68"/>
+      <c r="CL84" s="68"/>
+      <c r="CM84" s="68"/>
+      <c r="CN84" s="68"/>
+      <c r="CO84" s="69"/>
     </row>
-    <row r="82" spans="4:88" ht="19">
-      <c r="D82"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="86"/>
-      <c r="M82" s="86"/>
-      <c r="P82" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q82" s="104">
-        <f>SUM(Q77:T81)</f>
-        <v>71148</v>
-      </c>
-      <c r="R82" s="104"/>
-      <c r="S82" s="104"/>
-      <c r="T82" s="104"/>
-      <c r="U82" s="87"/>
-      <c r="V82" s="87"/>
-      <c r="W82" s="66"/>
-      <c r="X82" s="87"/>
-      <c r="Y82" s="87"/>
-      <c r="Z82" s="86"/>
-      <c r="AA82" s="86"/>
-      <c r="AB82" s="86"/>
-      <c r="AC82" s="86"/>
-      <c r="AD82" s="65"/>
-      <c r="AE82" s="88"/>
-      <c r="AF82" s="88"/>
-      <c r="AG82" s="53"/>
-      <c r="AH82" s="88"/>
-      <c r="AI82" s="88"/>
-      <c r="AJ82" s="86"/>
-      <c r="AK82" s="86"/>
-      <c r="AL82" s="86"/>
-      <c r="AM82" s="86"/>
-      <c r="AN82" s="1"/>
-      <c r="AO82" s="54"/>
-      <c r="AP82" s="1"/>
-      <c r="AQ82" s="1"/>
-      <c r="AR82" s="1"/>
-      <c r="AS82" s="64"/>
-      <c r="AV82" s="63"/>
-      <c r="AW82" s="85"/>
-      <c r="AX82" s="85"/>
-      <c r="AY82" s="85"/>
-      <c r="AZ82" s="85"/>
-      <c r="BA82" s="85"/>
-      <c r="BB82" s="86"/>
-      <c r="BG82" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH82" s="104">
-        <f>SUM(BH77:BK81)</f>
-        <v>72228</v>
-      </c>
-      <c r="BI82" s="104"/>
-      <c r="BJ82" s="104"/>
-      <c r="BK82" s="104"/>
-      <c r="BL82" s="87"/>
-      <c r="BM82" s="87"/>
-      <c r="BN82" s="66"/>
-      <c r="BO82" s="87"/>
-      <c r="BP82" s="87"/>
-      <c r="BQ82" s="86"/>
-      <c r="BR82" s="86"/>
-      <c r="BS82" s="86"/>
-      <c r="BT82" s="86"/>
-      <c r="BU82" s="65"/>
-      <c r="BV82" s="88"/>
-      <c r="BW82" s="88"/>
-      <c r="BX82" s="53"/>
-      <c r="BY82" s="88"/>
-      <c r="BZ82" s="88"/>
-      <c r="CA82" s="86"/>
-      <c r="CB82" s="86"/>
-      <c r="CC82" s="86"/>
-      <c r="CD82" s="86"/>
-      <c r="CE82" s="1"/>
-      <c r="CF82" s="54"/>
-      <c r="CG82" s="1"/>
-      <c r="CH82" s="1"/>
-      <c r="CI82" s="1"/>
-      <c r="CJ82" s="64"/>
-    </row>
-    <row r="83" spans="4:88" ht="17" thickBot="1">
-      <c r="D83"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="68"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
-      <c r="P83" s="68"/>
-      <c r="Q83" s="68"/>
-      <c r="R83" s="68"/>
-      <c r="S83" s="68"/>
-      <c r="T83" s="68"/>
-      <c r="U83" s="68"/>
-      <c r="V83" s="68"/>
-      <c r="W83" s="68"/>
-      <c r="X83" s="68"/>
-      <c r="Y83" s="68"/>
-      <c r="Z83" s="68"/>
-      <c r="AA83" s="68"/>
-      <c r="AB83" s="68"/>
-      <c r="AC83" s="68"/>
-      <c r="AD83" s="68"/>
-      <c r="AE83" s="68"/>
-      <c r="AF83" s="68"/>
-      <c r="AG83" s="68"/>
-      <c r="AH83" s="68"/>
-      <c r="AI83" s="68"/>
-      <c r="AJ83" s="68"/>
-      <c r="AK83" s="68"/>
-      <c r="AL83" s="68"/>
-      <c r="AM83" s="68"/>
-      <c r="AN83" s="68"/>
-      <c r="AO83" s="68"/>
-      <c r="AP83" s="68"/>
-      <c r="AQ83" s="68"/>
-      <c r="AR83" s="68"/>
-      <c r="AS83" s="69"/>
-      <c r="AV83" s="67"/>
-      <c r="AW83" s="68"/>
-      <c r="AX83" s="68"/>
-      <c r="AY83" s="68"/>
-      <c r="AZ83" s="68"/>
-      <c r="BA83" s="68"/>
-      <c r="BB83" s="68"/>
-      <c r="BC83" s="68"/>
-      <c r="BD83" s="68"/>
-      <c r="BE83" s="68"/>
-      <c r="BF83" s="68"/>
-      <c r="BG83" s="68"/>
-      <c r="BH83" s="68"/>
-      <c r="BI83" s="68"/>
-      <c r="BJ83" s="68"/>
-      <c r="BK83" s="68"/>
-      <c r="BL83" s="68"/>
-      <c r="BM83" s="68"/>
-      <c r="BN83" s="68"/>
-      <c r="BO83" s="68"/>
-      <c r="BP83" s="68"/>
-      <c r="BQ83" s="68"/>
-      <c r="BR83" s="68"/>
-      <c r="BS83" s="68"/>
-      <c r="BT83" s="68"/>
-      <c r="BU83" s="68"/>
-      <c r="BV83" s="68"/>
-      <c r="BW83" s="68"/>
-      <c r="BX83" s="68"/>
-      <c r="BY83" s="68"/>
-      <c r="BZ83" s="68"/>
-      <c r="CA83" s="68"/>
-      <c r="CB83" s="68"/>
-      <c r="CC83" s="68"/>
-      <c r="CD83" s="68"/>
-      <c r="CE83" s="68"/>
-      <c r="CF83" s="68"/>
-      <c r="CG83" s="68"/>
-      <c r="CH83" s="68"/>
-      <c r="CI83" s="68"/>
-      <c r="CJ83" s="69"/>
-    </row>
-    <row r="84" spans="4:88">
-      <c r="D84"/>
+    <row r="85" spans="5:93">
+      <c r="E85"/>
     </row>
   </sheetData>
-  <mergeCells count="149">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="ED36:ED37"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="U80:V80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="Z80:AC80"/>
-    <mergeCell ref="AE80:AF80"/>
-    <mergeCell ref="AH80:AI80"/>
-    <mergeCell ref="AJ80:AM80"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="U79:V79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AC79"/>
-    <mergeCell ref="AE79:AF79"/>
-    <mergeCell ref="AH79:AI79"/>
-    <mergeCell ref="AE77:AF77"/>
-    <mergeCell ref="AH77:AI77"/>
-    <mergeCell ref="AJ77:AM77"/>
-    <mergeCell ref="AJ79:AM79"/>
-    <mergeCell ref="AH78:AI78"/>
-    <mergeCell ref="AJ78:AM78"/>
-    <mergeCell ref="AE81:AF81"/>
-    <mergeCell ref="AH81:AI81"/>
-    <mergeCell ref="AJ81:AM81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AC81"/>
-    <mergeCell ref="Q81:T81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="U78:V78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="Z78:AC78"/>
-    <mergeCell ref="AE78:AF78"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="Z77:AC77"/>
-    <mergeCell ref="Q77:T77"/>
-    <mergeCell ref="Q78:T78"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="U76:Y76"/>
-    <mergeCell ref="AE76:AI76"/>
-    <mergeCell ref="Q79:T79"/>
-    <mergeCell ref="Q80:T80"/>
-    <mergeCell ref="Q76:T76"/>
-    <mergeCell ref="Q82:T82"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="AW76:AX76"/>
-    <mergeCell ref="AY76:BA76"/>
-    <mergeCell ref="BB76:BE76"/>
-    <mergeCell ref="BH76:BK76"/>
-    <mergeCell ref="BL76:BP76"/>
-    <mergeCell ref="BV76:BZ76"/>
-    <mergeCell ref="AW77:AX77"/>
-    <mergeCell ref="AY77:BA77"/>
-    <mergeCell ref="BB77:BE77"/>
-    <mergeCell ref="BH77:BK77"/>
-    <mergeCell ref="BL77:BM77"/>
-    <mergeCell ref="BO77:BP77"/>
-    <mergeCell ref="BQ77:BT77"/>
-    <mergeCell ref="BV77:BW77"/>
-    <mergeCell ref="BY77:BZ77"/>
-    <mergeCell ref="BF76:BG76"/>
-    <mergeCell ref="BF77:BG77"/>
-    <mergeCell ref="CA77:CD77"/>
-    <mergeCell ref="AW78:AX78"/>
-    <mergeCell ref="AY78:BA78"/>
-    <mergeCell ref="BB78:BE78"/>
-    <mergeCell ref="BH78:BK78"/>
-    <mergeCell ref="BL78:BM78"/>
+  <mergeCells count="154">
+    <mergeCell ref="A54:A69"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="A38:A53"/>
+    <mergeCell ref="CD82:CG82"/>
+    <mergeCell ref="BK83:BN83"/>
+    <mergeCell ref="C6:C21"/>
+    <mergeCell ref="C22:C37"/>
+    <mergeCell ref="C54:C69"/>
+    <mergeCell ref="C38:C53"/>
+    <mergeCell ref="DW73:DX73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="AZ82:BA82"/>
+    <mergeCell ref="BB82:BD82"/>
+    <mergeCell ref="BE82:BH82"/>
+    <mergeCell ref="BK82:BN82"/>
+    <mergeCell ref="BO82:BP82"/>
+    <mergeCell ref="BR82:BS82"/>
+    <mergeCell ref="BT82:BW82"/>
+    <mergeCell ref="BY82:BZ82"/>
+    <mergeCell ref="CB82:CC82"/>
+    <mergeCell ref="BI82:BJ82"/>
+    <mergeCell ref="CD80:CG80"/>
+    <mergeCell ref="AZ81:BA81"/>
+    <mergeCell ref="BB81:BD81"/>
+    <mergeCell ref="BE81:BH81"/>
+    <mergeCell ref="BK81:BN81"/>
+    <mergeCell ref="BO81:BP81"/>
+    <mergeCell ref="BR81:BS81"/>
+    <mergeCell ref="BT81:BW81"/>
+    <mergeCell ref="BY81:BZ81"/>
+    <mergeCell ref="CB81:CC81"/>
+    <mergeCell ref="CD81:CG81"/>
+    <mergeCell ref="BI81:BJ81"/>
+    <mergeCell ref="AZ80:BA80"/>
+    <mergeCell ref="BB80:BD80"/>
+    <mergeCell ref="BE80:BH80"/>
+    <mergeCell ref="BK80:BN80"/>
+    <mergeCell ref="BO80:BP80"/>
+    <mergeCell ref="BR80:BS80"/>
+    <mergeCell ref="BT80:BW80"/>
+    <mergeCell ref="BY80:BZ80"/>
+    <mergeCell ref="CB80:CC80"/>
+    <mergeCell ref="BI80:BJ80"/>
+    <mergeCell ref="CD78:CG78"/>
+    <mergeCell ref="AZ79:BA79"/>
+    <mergeCell ref="BB79:BD79"/>
+    <mergeCell ref="BE79:BH79"/>
+    <mergeCell ref="BK79:BN79"/>
+    <mergeCell ref="BO79:BP79"/>
+    <mergeCell ref="BR79:BS79"/>
+    <mergeCell ref="BT79:BW79"/>
+    <mergeCell ref="BY79:BZ79"/>
+    <mergeCell ref="CB79:CC79"/>
+    <mergeCell ref="CD79:CG79"/>
+    <mergeCell ref="BI79:BJ79"/>
+    <mergeCell ref="AZ77:BA77"/>
+    <mergeCell ref="BB77:BD77"/>
+    <mergeCell ref="BE77:BH77"/>
+    <mergeCell ref="BK77:BN77"/>
+    <mergeCell ref="BO77:BS77"/>
+    <mergeCell ref="BY77:CC77"/>
+    <mergeCell ref="AZ78:BA78"/>
+    <mergeCell ref="BB78:BD78"/>
+    <mergeCell ref="BE78:BH78"/>
+    <mergeCell ref="BK78:BN78"/>
     <mergeCell ref="BO78:BP78"/>
-    <mergeCell ref="BQ78:BT78"/>
-    <mergeCell ref="BV78:BW78"/>
+    <mergeCell ref="BR78:BS78"/>
+    <mergeCell ref="BT78:BW78"/>
     <mergeCell ref="BY78:BZ78"/>
-    <mergeCell ref="CA78:CD78"/>
-    <mergeCell ref="BF78:BG78"/>
-    <mergeCell ref="AW79:AX79"/>
-    <mergeCell ref="AY79:BA79"/>
-    <mergeCell ref="BB79:BE79"/>
-    <mergeCell ref="BH79:BK79"/>
-    <mergeCell ref="BL79:BM79"/>
-    <mergeCell ref="BO79:BP79"/>
-    <mergeCell ref="BQ79:BT79"/>
-    <mergeCell ref="BV79:BW79"/>
-    <mergeCell ref="BY79:BZ79"/>
-    <mergeCell ref="BF79:BG79"/>
-    <mergeCell ref="CA79:CD79"/>
-    <mergeCell ref="AW80:AX80"/>
-    <mergeCell ref="AY80:BA80"/>
-    <mergeCell ref="BB80:BE80"/>
-    <mergeCell ref="BH80:BK80"/>
-    <mergeCell ref="BL80:BM80"/>
-    <mergeCell ref="BO80:BP80"/>
-    <mergeCell ref="BQ80:BT80"/>
-    <mergeCell ref="BV80:BW80"/>
-    <mergeCell ref="BY80:BZ80"/>
-    <mergeCell ref="CA80:CD80"/>
-    <mergeCell ref="BF80:BG80"/>
-    <mergeCell ref="AW81:AX81"/>
-    <mergeCell ref="AY81:BA81"/>
-    <mergeCell ref="BB81:BE81"/>
-    <mergeCell ref="BH81:BK81"/>
-    <mergeCell ref="BL81:BM81"/>
-    <mergeCell ref="BO81:BP81"/>
-    <mergeCell ref="BQ81:BT81"/>
-    <mergeCell ref="BV81:BW81"/>
-    <mergeCell ref="BY81:BZ81"/>
-    <mergeCell ref="BF81:BG81"/>
-    <mergeCell ref="CA81:CD81"/>
-    <mergeCell ref="BH82:BK82"/>
-    <mergeCell ref="B5:B20"/>
-    <mergeCell ref="B21:B36"/>
-    <mergeCell ref="B53:B68"/>
-    <mergeCell ref="B37:B52"/>
-    <mergeCell ref="DV72:DW72"/>
-    <mergeCell ref="AH72:AI72"/>
+    <mergeCell ref="CB78:CC78"/>
+    <mergeCell ref="BI77:BJ77"/>
+    <mergeCell ref="BI78:BJ78"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="V77:Z77"/>
+    <mergeCell ref="AF77:AJ77"/>
+    <mergeCell ref="R80:U80"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="R77:U77"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="Y79:Z79"/>
+    <mergeCell ref="AA79:AD79"/>
+    <mergeCell ref="AF79:AG79"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="Y78:Z78"/>
+    <mergeCell ref="AA78:AD78"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="R79:U79"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="AF82:AG82"/>
+    <mergeCell ref="AI82:AJ82"/>
+    <mergeCell ref="AK82:AN82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="Y82:Z82"/>
+    <mergeCell ref="AA82:AD82"/>
+    <mergeCell ref="R82:U82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="EE37:EE38"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="AA81:AD81"/>
+    <mergeCell ref="AF81:AG81"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="AK81:AN81"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="Y80:Z80"/>
+    <mergeCell ref="AA80:AD80"/>
+    <mergeCell ref="AF80:AG80"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AF78:AG78"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="AK78:AN78"/>
+    <mergeCell ref="AK80:AN80"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AK79:AN79"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="47" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
